--- a/BackTest/2019-10-25 BackTest OMG.xlsx
+++ b/BackTest/2019-10-25 BackTest OMG.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>22</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-23.80952380952381</v>
+      </c>
       <c r="L12" t="n">
         <v>911.2</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>24</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>5.263157894736842</v>
+      </c>
       <c r="L13" t="n">
         <v>910.9</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>29</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L14" t="n">
         <v>910.5</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>32</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-21.73913043478261</v>
+      </c>
       <c r="L15" t="n">
         <v>910.1</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>35</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-30.76923076923077</v>
+      </c>
       <c r="L16" t="n">
         <v>909.3</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>35</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-28</v>
+      </c>
       <c r="L17" t="n">
         <v>908.5</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>39</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-37.93103448275862</v>
+      </c>
       <c r="L18" t="n">
         <v>907.4</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>46</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
       <c r="L19" t="n">
         <v>907</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>49</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-3.225806451612903</v>
+      </c>
       <c r="L20" t="n">
         <v>907.3</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>56</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-11.76470588235294</v>
+      </c>
       <c r="L21" t="n">
         <v>906.5</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>61</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-2.702702702702703</v>
+      </c>
       <c r="L22" t="n">
         <v>906.6</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>63</v>
       </c>
       <c r="K23" t="n">
-        <v>-3.225806451612903</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L23" t="n">
         <v>906.7</v>
@@ -1466,7 +1488,7 @@
         <v>63</v>
       </c>
       <c r="K24" t="n">
-        <v>3.448275862068965</v>
+        <v>9.67741935483871</v>
       </c>
       <c r="L24" t="n">
         <v>907.3</v>
@@ -1515,7 +1537,7 @@
         <v>68</v>
       </c>
       <c r="K25" t="n">
-        <v>-10</v>
+        <v>3.03030303030303</v>
       </c>
       <c r="L25" t="n">
         <v>907.1</v>
@@ -1564,7 +1586,7 @@
         <v>72</v>
       </c>
       <c r="K26" t="n">
-        <v>-4.761904761904762</v>
+        <v>13.51351351351351</v>
       </c>
       <c r="L26" t="n">
         <v>907.6</v>
@@ -1613,7 +1635,7 @@
         <v>73</v>
       </c>
       <c r="K27" t="n">
-        <v>-6.25</v>
+        <v>23.52941176470588</v>
       </c>
       <c r="L27" t="n">
         <v>908</v>
@@ -1662,7 +1684,7 @@
         <v>74</v>
       </c>
       <c r="K28" t="n">
-        <v>-3.125</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L28" t="n">
         <v>908.9</v>
@@ -1711,7 +1733,7 @@
         <v>75</v>
       </c>
       <c r="K29" t="n">
-        <v>-4.615384615384616</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L29" t="n">
         <v>909</v>
@@ -1760,7 +1782,7 @@
         <v>75</v>
       </c>
       <c r="K30" t="n">
-        <v>1.639344262295082</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L30" t="n">
         <v>908.8</v>
@@ -1809,7 +1831,7 @@
         <v>75</v>
       </c>
       <c r="K31" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>909.3</v>
@@ -1860,7 +1882,7 @@
         <v>75</v>
       </c>
       <c r="K32" t="n">
-        <v>1.886792452830189</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L32" t="n">
         <v>909.3</v>
@@ -1911,7 +1933,7 @@
         <v>75</v>
       </c>
       <c r="K33" t="n">
-        <v>-1.96078431372549</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L33" t="n">
         <v>909.1</v>
@@ -1962,7 +1984,7 @@
         <v>76</v>
       </c>
       <c r="K34" t="n">
-        <v>6.382978723404255</v>
+        <v>25</v>
       </c>
       <c r="L34" t="n">
         <v>908.8</v>
@@ -2013,7 +2035,7 @@
         <v>76</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L35" t="n">
         <v>909</v>
@@ -2064,7 +2086,7 @@
         <v>77</v>
       </c>
       <c r="K36" t="n">
-        <v>4.761904761904762</v>
+        <v>-50</v>
       </c>
       <c r="L36" t="n">
         <v>908.7</v>
@@ -2115,7 +2137,7 @@
         <v>77</v>
       </c>
       <c r="K37" t="n">
-        <v>4.761904761904762</v>
+        <v>-100</v>
       </c>
       <c r="L37" t="n">
         <v>908.5</v>
@@ -2166,7 +2188,7 @@
         <v>77</v>
       </c>
       <c r="K38" t="n">
-        <v>15.78947368421053</v>
+        <v>-100</v>
       </c>
       <c r="L38" t="n">
         <v>908.2</v>
@@ -2217,7 +2239,7 @@
         <v>79</v>
       </c>
       <c r="K39" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L39" t="n">
         <v>907.8</v>
@@ -2268,7 +2290,7 @@
         <v>80</v>
       </c>
       <c r="K40" t="n">
-        <v>-16.12903225806452</v>
+        <v>-60</v>
       </c>
       <c r="L40" t="n">
         <v>907.5</v>
@@ -2319,7 +2341,7 @@
         <v>83</v>
       </c>
       <c r="K41" t="n">
-        <v>18.51851851851852</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>907.5</v>
@@ -2370,7 +2392,7 @@
         <v>84</v>
       </c>
       <c r="K42" t="n">
-        <v>4.347826086956522</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L42" t="n">
         <v>907.6</v>
@@ -2421,7 +2443,7 @@
         <v>85</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L43" t="n">
         <v>907.8</v>
@@ -2472,7 +2494,7 @@
         <v>85</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L44" t="n">
         <v>908.1</v>
@@ -2523,7 +2545,7 @@
         <v>85</v>
       </c>
       <c r="K45" t="n">
-        <v>29.41176470588236</v>
+        <v>50</v>
       </c>
       <c r="L45" t="n">
         <v>908.4</v>
@@ -2574,7 +2596,7 @@
         <v>90</v>
       </c>
       <c r="K46" t="n">
-        <v>33.33333333333333</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L46" t="n">
         <v>909.3</v>
@@ -2625,7 +2647,7 @@
         <v>93</v>
       </c>
       <c r="K47" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L47" t="n">
         <v>910.5</v>
@@ -2676,7 +2698,7 @@
         <v>98</v>
       </c>
       <c r="K48" t="n">
-        <v>16.66666666666666</v>
+        <v>47.36842105263158</v>
       </c>
       <c r="L48" t="n">
         <v>911.2</v>
@@ -2727,7 +2749,7 @@
         <v>100</v>
       </c>
       <c r="K49" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="L49" t="n">
         <v>911.9</v>
@@ -2778,7 +2800,7 @@
         <v>101</v>
       </c>
       <c r="K50" t="n">
-        <v>15.38461538461539</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L50" t="n">
         <v>912.6</v>
@@ -2829,7 +2851,7 @@
         <v>102</v>
       </c>
       <c r="K51" t="n">
-        <v>18.51851851851852</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L51" t="n">
         <v>913.1</v>
@@ -2880,7 +2902,7 @@
         <v>102</v>
       </c>
       <c r="K52" t="n">
-        <v>18.51851851851852</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L52" t="n">
         <v>913.5</v>
@@ -2931,7 +2953,7 @@
         <v>103</v>
       </c>
       <c r="K53" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L53" t="n">
         <v>913.7</v>
@@ -2982,7 +3004,7 @@
         <v>108</v>
       </c>
       <c r="K54" t="n">
-        <v>31.25</v>
+        <v>30.43478260869566</v>
       </c>
       <c r="L54" t="n">
         <v>914.4</v>
@@ -3033,7 +3055,7 @@
         <v>108</v>
       </c>
       <c r="K55" t="n">
-        <v>31.25</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L55" t="n">
         <v>915.1</v>
@@ -3084,7 +3106,7 @@
         <v>113</v>
       </c>
       <c r="K56" t="n">
-        <v>16.66666666666666</v>
+        <v>-30</v>
       </c>
       <c r="L56" t="n">
         <v>914.8</v>
@@ -3135,7 +3157,7 @@
         <v>117</v>
       </c>
       <c r="K57" t="n">
-        <v>25</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L57" t="n">
         <v>914.6</v>
@@ -3186,7 +3208,7 @@
         <v>118</v>
       </c>
       <c r="K58" t="n">
-        <v>26.82926829268293</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>915</v>
@@ -3237,7 +3259,7 @@
         <v>119</v>
       </c>
       <c r="K59" t="n">
-        <v>30</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L59" t="n">
         <v>915.5</v>
@@ -3288,7 +3310,7 @@
         <v>122</v>
       </c>
       <c r="K60" t="n">
-        <v>19.04761904761905</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>915.6</v>
@@ -3339,7 +3361,7 @@
         <v>123</v>
       </c>
       <c r="K61" t="n">
-        <v>15</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L61" t="n">
         <v>915.7</v>
@@ -3390,7 +3412,7 @@
         <v>123</v>
       </c>
       <c r="K62" t="n">
-        <v>12.82051282051282</v>
+        <v>10</v>
       </c>
       <c r="L62" t="n">
         <v>915.8</v>
@@ -3441,7 +3463,7 @@
         <v>124</v>
       </c>
       <c r="K63" t="n">
-        <v>7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L63" t="n">
         <v>915.9</v>
@@ -3492,7 +3514,7 @@
         <v>124</v>
       </c>
       <c r="K64" t="n">
-        <v>7.692307692307693</v>
+        <v>-25</v>
       </c>
       <c r="L64" t="n">
         <v>915.5</v>
@@ -3543,7 +3565,7 @@
         <v>127</v>
       </c>
       <c r="K65" t="n">
-        <v>14.28571428571428</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L65" t="n">
         <v>915.4</v>
@@ -3594,7 +3616,7 @@
         <v>130</v>
       </c>
       <c r="K66" t="n">
-        <v>-5</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L66" t="n">
         <v>915.5</v>
@@ -3645,7 +3667,7 @@
         <v>130</v>
       </c>
       <c r="K67" t="n">
-        <v>-13.51351351351351</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L67" t="n">
         <v>915.2</v>
@@ -3696,7 +3718,7 @@
         <v>130</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L68" t="n">
         <v>914.8</v>
@@ -3747,7 +3769,7 @@
         <v>131</v>
       </c>
       <c r="K69" t="n">
-        <v>3.225806451612903</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L69" t="n">
         <v>914.4</v>
@@ -3798,7 +3820,7 @@
         <v>132</v>
       </c>
       <c r="K70" t="n">
-        <v>3.225806451612903</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L70" t="n">
         <v>914.4</v>
@@ -3849,7 +3871,7 @@
         <v>132</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L71" t="n">
         <v>914.3</v>
@@ -3951,7 +3973,7 @@
         <v>132</v>
       </c>
       <c r="K73" t="n">
-        <v>3.448275862068965</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>914.2</v>
@@ -4002,7 +4024,7 @@
         <v>135</v>
       </c>
       <c r="K74" t="n">
-        <v>-3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>914.5</v>
@@ -4053,7 +4075,7 @@
         <v>136</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L75" t="n">
         <v>914.6</v>
@@ -4104,7 +4126,7 @@
         <v>136</v>
       </c>
       <c r="K76" t="n">
-        <v>21.73913043478261</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L76" t="n">
         <v>915</v>
@@ -4155,7 +4177,7 @@
         <v>136</v>
       </c>
       <c r="K77" t="n">
-        <v>5.263157894736842</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L77" t="n">
         <v>915.4</v>
@@ -4206,7 +4228,7 @@
         <v>136</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L78" t="n">
         <v>915.8</v>
@@ -4257,7 +4279,7 @@
         <v>138</v>
       </c>
       <c r="K79" t="n">
-        <v>15.78947368421053</v>
+        <v>100</v>
       </c>
       <c r="L79" t="n">
         <v>916.5</v>
@@ -4308,7 +4330,7 @@
         <v>138</v>
       </c>
       <c r="K80" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="L80" t="n">
         <v>917.1</v>
@@ -4359,7 +4381,7 @@
         <v>138</v>
       </c>
       <c r="K81" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L81" t="n">
         <v>917.7</v>
@@ -4410,7 +4432,7 @@
         <v>138</v>
       </c>
       <c r="K82" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L82" t="n">
         <v>918.3</v>
@@ -4461,7 +4483,7 @@
         <v>138</v>
       </c>
       <c r="K83" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L83" t="n">
         <v>918.9</v>
@@ -4512,7 +4534,7 @@
         <v>138</v>
       </c>
       <c r="K84" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L84" t="n">
         <v>919.2</v>
@@ -4563,7 +4585,7 @@
         <v>138</v>
       </c>
       <c r="K85" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L85" t="n">
         <v>919.4</v>
@@ -4614,7 +4636,7 @@
         <v>139</v>
       </c>
       <c r="K86" t="n">
-        <v>55.55555555555556</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L86" t="n">
         <v>919.5</v>
@@ -4665,7 +4687,7 @@
         <v>139</v>
       </c>
       <c r="K87" t="n">
-        <v>55.55555555555556</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>919.6</v>
@@ -4716,7 +4738,7 @@
         <v>141</v>
       </c>
       <c r="K88" t="n">
-        <v>63.63636363636363</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L88" t="n">
         <v>919.9</v>
@@ -4767,7 +4789,7 @@
         <v>142</v>
       </c>
       <c r="K89" t="n">
-        <v>81.81818181818183</v>
+        <v>50</v>
       </c>
       <c r="L89" t="n">
         <v>920.1</v>
@@ -4818,7 +4840,7 @@
         <v>142</v>
       </c>
       <c r="K90" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L90" t="n">
         <v>920.3</v>
@@ -4869,7 +4891,7 @@
         <v>143</v>
       </c>
       <c r="K91" t="n">
-        <v>63.63636363636363</v>
+        <v>20</v>
       </c>
       <c r="L91" t="n">
         <v>920.4</v>
@@ -4920,7 +4942,7 @@
         <v>144</v>
       </c>
       <c r="K92" t="n">
-        <v>66.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L92" t="n">
         <v>920.6</v>
@@ -4971,7 +4993,7 @@
         <v>144</v>
       </c>
       <c r="K93" t="n">
-        <v>66.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L93" t="n">
         <v>920.8</v>
@@ -5022,7 +5044,7 @@
         <v>144</v>
       </c>
       <c r="K94" t="n">
-        <v>55.55555555555556</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L94" t="n">
         <v>921</v>
@@ -5073,7 +5095,7 @@
         <v>144</v>
       </c>
       <c r="K95" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L95" t="n">
         <v>921.2</v>
@@ -5124,7 +5146,7 @@
         <v>144</v>
       </c>
       <c r="K96" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L96" t="n">
         <v>921.5</v>
@@ -5175,7 +5197,7 @@
         <v>145</v>
       </c>
       <c r="K97" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>921.7</v>
@@ -5226,7 +5248,7 @@
         <v>146</v>
       </c>
       <c r="K98" t="n">
-        <v>20</v>
+        <v>-50</v>
       </c>
       <c r="L98" t="n">
         <v>921.6</v>
@@ -5277,7 +5299,7 @@
         <v>147</v>
       </c>
       <c r="K99" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L99" t="n">
         <v>921.5</v>
@@ -5379,7 +5401,7 @@
         <v>148</v>
       </c>
       <c r="K101" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>921.6</v>
@@ -5430,7 +5452,7 @@
         <v>148</v>
       </c>
       <c r="K102" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>921.6</v>
@@ -5481,7 +5503,7 @@
         <v>148</v>
       </c>
       <c r="K103" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>921.6</v>
@@ -5532,7 +5554,7 @@
         <v>148</v>
       </c>
       <c r="K104" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>921.6</v>
@@ -5583,7 +5605,7 @@
         <v>148</v>
       </c>
       <c r="K105" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>921.6</v>
@@ -5634,7 +5656,7 @@
         <v>149</v>
       </c>
       <c r="K106" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>921.5</v>
@@ -5685,7 +5707,7 @@
         <v>150</v>
       </c>
       <c r="K107" t="n">
-        <v>27.27272727272727</v>
+        <v>50</v>
       </c>
       <c r="L107" t="n">
         <v>921.6</v>
@@ -5736,7 +5758,7 @@
         <v>150</v>
       </c>
       <c r="K108" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L108" t="n">
         <v>921.8</v>
@@ -5787,7 +5809,7 @@
         <v>152</v>
       </c>
       <c r="K109" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L109" t="n">
         <v>922.1</v>
@@ -5838,7 +5860,7 @@
         <v>152</v>
       </c>
       <c r="K110" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L110" t="n">
         <v>922.3</v>
@@ -5889,7 +5911,7 @@
         <v>152</v>
       </c>
       <c r="K111" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L111" t="n">
         <v>922.5</v>
@@ -5940,7 +5962,7 @@
         <v>152</v>
       </c>
       <c r="K112" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L112" t="n">
         <v>922.7</v>
@@ -5991,7 +6013,7 @@
         <v>152</v>
       </c>
       <c r="K113" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L113" t="n">
         <v>922.9</v>
@@ -6042,7 +6064,7 @@
         <v>152</v>
       </c>
       <c r="K114" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L114" t="n">
         <v>923.1</v>
@@ -6093,7 +6115,7 @@
         <v>152</v>
       </c>
       <c r="K115" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L115" t="n">
         <v>923.3</v>
@@ -6144,7 +6166,7 @@
         <v>152</v>
       </c>
       <c r="K116" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L116" t="n">
         <v>923.6</v>
@@ -6195,7 +6217,7 @@
         <v>152</v>
       </c>
       <c r="K117" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L117" t="n">
         <v>923.8</v>
@@ -6245,9 +6267,7 @@
       <c r="J118" t="n">
         <v>152</v>
       </c>
-      <c r="K118" t="n">
-        <v>66.66666666666666</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>924</v>
       </c>
@@ -6297,7 +6317,7 @@
         <v>155</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L119" t="n">
         <v>923.7</v>
@@ -6348,7 +6368,7 @@
         <v>156</v>
       </c>
       <c r="K120" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L120" t="n">
         <v>923.3</v>
@@ -6399,7 +6419,7 @@
         <v>156</v>
       </c>
       <c r="K121" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L121" t="n">
         <v>922.9</v>
@@ -6450,7 +6470,7 @@
         <v>159</v>
       </c>
       <c r="K122" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L122" t="n">
         <v>922.8</v>
@@ -6501,7 +6521,7 @@
         <v>159</v>
       </c>
       <c r="K123" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L123" t="n">
         <v>922.7</v>
@@ -6552,7 +6572,7 @@
         <v>160</v>
       </c>
       <c r="K124" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>922.7</v>
@@ -6603,7 +6623,7 @@
         <v>160</v>
       </c>
       <c r="K125" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>922.7</v>
@@ -6654,7 +6674,7 @@
         <v>160</v>
       </c>
       <c r="K126" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>922.7</v>
@@ -6705,7 +6725,7 @@
         <v>161</v>
       </c>
       <c r="K127" t="n">
-        <v>27.27272727272727</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L127" t="n">
         <v>922.8</v>
@@ -6756,7 +6776,7 @@
         <v>163</v>
       </c>
       <c r="K128" t="n">
-        <v>38.46153846153847</v>
+        <v>75</v>
       </c>
       <c r="L128" t="n">
         <v>923.1</v>
@@ -6807,7 +6827,7 @@
         <v>163</v>
       </c>
       <c r="K129" t="n">
-        <v>27.27272727272727</v>
+        <v>100</v>
       </c>
       <c r="L129" t="n">
         <v>923.7</v>
@@ -6858,7 +6878,7 @@
         <v>165</v>
       </c>
       <c r="K130" t="n">
-        <v>7.692307692307693</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L130" t="n">
         <v>924.2</v>
@@ -6909,7 +6929,7 @@
         <v>167</v>
       </c>
       <c r="K131" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L131" t="n">
         <v>924.9</v>
@@ -6960,7 +6980,7 @@
         <v>169</v>
       </c>
       <c r="K132" t="n">
-        <v>5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L132" t="n">
         <v>925.1</v>
@@ -7062,7 +7082,7 @@
         <v>175</v>
       </c>
       <c r="K134" t="n">
-        <v>21.73913043478261</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L134" t="n">
         <v>925.7</v>
@@ -7113,7 +7133,7 @@
         <v>175</v>
       </c>
       <c r="K135" t="n">
-        <v>21.73913043478261</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L135" t="n">
         <v>926.2</v>
@@ -7164,7 +7184,7 @@
         <v>178</v>
       </c>
       <c r="K136" t="n">
-        <v>7.692307692307693</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L136" t="n">
         <v>926.4</v>
@@ -7215,7 +7235,7 @@
         <v>181</v>
       </c>
       <c r="K137" t="n">
-        <v>-3.448275862068965</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L137" t="n">
         <v>926.2</v>
@@ -7266,7 +7286,7 @@
         <v>183</v>
       </c>
       <c r="K138" t="n">
-        <v>3.225806451612903</v>
+        <v>-10</v>
       </c>
       <c r="L138" t="n">
         <v>926</v>
@@ -7317,7 +7337,7 @@
         <v>184</v>
       </c>
       <c r="K139" t="n">
-        <v>17.24137931034483</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L139" t="n">
         <v>925.9</v>
@@ -7368,7 +7388,7 @@
         <v>184</v>
       </c>
       <c r="K140" t="n">
-        <v>21.42857142857143</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L140" t="n">
         <v>926</v>
@@ -7419,7 +7439,7 @@
         <v>184</v>
       </c>
       <c r="K141" t="n">
-        <v>21.42857142857143</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L141" t="n">
         <v>925.9</v>
@@ -7470,7 +7490,7 @@
         <v>184</v>
       </c>
       <c r="K142" t="n">
-        <v>12</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L142" t="n">
         <v>926</v>
@@ -7521,7 +7541,7 @@
         <v>185</v>
       </c>
       <c r="K143" t="n">
-        <v>7.692307692307693</v>
+        <v>-40</v>
       </c>
       <c r="L143" t="n">
         <v>926.1</v>
@@ -7572,7 +7592,7 @@
         <v>186</v>
       </c>
       <c r="K144" t="n">
-        <v>7.692307692307693</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L144" t="n">
         <v>925.8</v>
@@ -7623,7 +7643,7 @@
         <v>186</v>
       </c>
       <c r="K145" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>925.5</v>
@@ -7674,7 +7694,7 @@
         <v>187</v>
       </c>
       <c r="K146" t="n">
-        <v>11.11111111111111</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L146" t="n">
         <v>925.6</v>
@@ -7725,7 +7745,7 @@
         <v>187</v>
       </c>
       <c r="K147" t="n">
-        <v>7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L147" t="n">
         <v>926</v>
@@ -7776,7 +7796,7 @@
         <v>187</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>926.2</v>
@@ -7827,7 +7847,7 @@
         <v>187</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L149" t="n">
         <v>926.3</v>
@@ -7878,7 +7898,7 @@
         <v>187</v>
       </c>
       <c r="K150" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L150" t="n">
         <v>926.4</v>
@@ -7929,7 +7949,7 @@
         <v>187</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L151" t="n">
         <v>926.5</v>
@@ -7980,7 +8000,7 @@
         <v>190</v>
       </c>
       <c r="K152" t="n">
-        <v>-4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L152" t="n">
         <v>926.3</v>
@@ -8031,7 +8051,7 @@
         <v>193</v>
       </c>
       <c r="K153" t="n">
-        <v>13.04347826086956</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L153" t="n">
         <v>926.5</v>
@@ -8082,7 +8102,7 @@
         <v>193</v>
       </c>
       <c r="K154" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L154" t="n">
         <v>926.6</v>
@@ -8133,7 +8153,7 @@
         <v>195</v>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L155" t="n">
         <v>926.9</v>
@@ -8184,7 +8204,7 @@
         <v>195</v>
       </c>
       <c r="K156" t="n">
-        <v>17.64705882352941</v>
+        <v>25</v>
       </c>
       <c r="L156" t="n">
         <v>927.1</v>
@@ -8235,7 +8255,7 @@
         <v>195</v>
       </c>
       <c r="K157" t="n">
-        <v>42.85714285714285</v>
+        <v>25</v>
       </c>
       <c r="L157" t="n">
         <v>927.3</v>
@@ -8286,7 +8306,7 @@
         <v>195</v>
       </c>
       <c r="K158" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L158" t="n">
         <v>927.5</v>
@@ -8337,7 +8357,7 @@
         <v>195</v>
       </c>
       <c r="K159" t="n">
-        <v>27.27272727272727</v>
+        <v>25</v>
       </c>
       <c r="L159" t="n">
         <v>927.7</v>
@@ -8439,7 +8459,7 @@
         <v>198</v>
       </c>
       <c r="K161" t="n">
-        <v>14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L161" t="n">
         <v>928.1</v>
@@ -8490,7 +8510,7 @@
         <v>198</v>
       </c>
       <c r="K162" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L162" t="n">
         <v>928.5</v>
@@ -8541,7 +8561,7 @@
         <v>199</v>
       </c>
       <c r="K163" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L163" t="n">
         <v>928.5</v>
@@ -8592,7 +8612,7 @@
         <v>199</v>
       </c>
       <c r="K164" t="n">
-        <v>7.692307692307693</v>
+        <v>-50</v>
       </c>
       <c r="L164" t="n">
         <v>928.5</v>
@@ -8643,7 +8663,7 @@
         <v>200</v>
       </c>
       <c r="K165" t="n">
-        <v>14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L165" t="n">
         <v>928.4</v>
@@ -8694,7 +8714,7 @@
         <v>201</v>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L166" t="n">
         <v>928.2</v>
@@ -8745,7 +8765,7 @@
         <v>201</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L167" t="n">
         <v>928</v>
@@ -8796,7 +8816,7 @@
         <v>204</v>
       </c>
       <c r="K168" t="n">
-        <v>-17.64705882352941</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L168" t="n">
         <v>927.5</v>
@@ -8847,7 +8867,7 @@
         <v>208</v>
       </c>
       <c r="K169" t="n">
-        <v>-33.33333333333333</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L169" t="n">
         <v>926.6</v>
@@ -8898,7 +8918,7 @@
         <v>210</v>
       </c>
       <c r="K170" t="n">
-        <v>-39.1304347826087</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L170" t="n">
         <v>925.4</v>
@@ -8949,7 +8969,7 @@
         <v>210</v>
       </c>
       <c r="K171" t="n">
-        <v>-39.1304347826087</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L171" t="n">
         <v>924.4</v>
@@ -9000,7 +9020,7 @@
         <v>210</v>
       </c>
       <c r="K172" t="n">
-        <v>-30</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L172" t="n">
         <v>923.4</v>
@@ -9051,7 +9071,7 @@
         <v>212</v>
       </c>
       <c r="K173" t="n">
-        <v>-57.89473684210527</v>
+        <v>-84.61538461538461</v>
       </c>
       <c r="L173" t="n">
         <v>922.3</v>
@@ -9102,7 +9122,7 @@
         <v>214</v>
       </c>
       <c r="K174" t="n">
-        <v>-42.85714285714285</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L174" t="n">
         <v>921.4</v>
@@ -9153,7 +9173,7 @@
         <v>218</v>
       </c>
       <c r="K175" t="n">
-        <v>-65.21739130434783</v>
+        <v>-76.47058823529412</v>
       </c>
       <c r="L175" t="n">
         <v>920</v>
@@ -9204,7 +9224,7 @@
         <v>218</v>
       </c>
       <c r="K176" t="n">
-        <v>-65.21739130434783</v>
+        <v>-76.47058823529412</v>
       </c>
       <c r="L176" t="n">
         <v>918.7</v>
@@ -9255,7 +9275,7 @@
         <v>221</v>
       </c>
       <c r="K177" t="n">
-        <v>-46.15384615384615</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L177" t="n">
         <v>917.7</v>
@@ -9306,7 +9326,7 @@
         <v>222</v>
       </c>
       <c r="K178" t="n">
-        <v>-48.14814814814815</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L178" t="n">
         <v>916.9</v>
@@ -9357,7 +9377,7 @@
         <v>224</v>
       </c>
       <c r="K179" t="n">
-        <v>-37.93103448275862</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>916.7</v>
@@ -9408,7 +9428,7 @@
         <v>226</v>
       </c>
       <c r="K180" t="n">
-        <v>-46.66666666666666</v>
+        <v>-12.5</v>
       </c>
       <c r="L180" t="n">
         <v>916.5</v>
@@ -9459,7 +9479,7 @@
         <v>230</v>
       </c>
       <c r="K181" t="n">
-        <v>-50</v>
+        <v>-30</v>
       </c>
       <c r="L181" t="n">
         <v>915.9</v>
@@ -9510,7 +9530,7 @@
         <v>231</v>
       </c>
       <c r="K182" t="n">
-        <v>-45.45454545454545</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L182" t="n">
         <v>915.4</v>
@@ -9561,7 +9581,7 @@
         <v>231</v>
       </c>
       <c r="K183" t="n">
-        <v>-43.75</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L183" t="n">
         <v>915.1</v>
@@ -9612,7 +9632,7 @@
         <v>232</v>
       </c>
       <c r="K184" t="n">
-        <v>-45.45454545454545</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L184" t="n">
         <v>914.5</v>
@@ -9663,7 +9683,7 @@
         <v>233</v>
       </c>
       <c r="K185" t="n">
-        <v>-51.51515151515152</v>
+        <v>-20</v>
       </c>
       <c r="L185" t="n">
         <v>914.2</v>
@@ -9714,7 +9734,7 @@
         <v>236</v>
       </c>
       <c r="K186" t="n">
-        <v>-37.14285714285715</v>
+        <v>-20</v>
       </c>
       <c r="L186" t="n">
         <v>914.2</v>
@@ -9765,7 +9785,7 @@
         <v>239</v>
       </c>
       <c r="K187" t="n">
-        <v>-42.10526315789473</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L187" t="n">
         <v>913.6</v>
@@ -9816,7 +9836,7 @@
         <v>242</v>
       </c>
       <c r="K188" t="n">
-        <v>-26.31578947368421</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L188" t="n">
         <v>913.4</v>
@@ -9867,7 +9887,7 @@
         <v>242</v>
       </c>
       <c r="K189" t="n">
-        <v>-17.64705882352941</v>
+        <v>-12.5</v>
       </c>
       <c r="L189" t="n">
         <v>913</v>
@@ -9918,7 +9938,7 @@
         <v>242</v>
       </c>
       <c r="K190" t="n">
-        <v>-12.5</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L190" t="n">
         <v>912.8</v>
@@ -9969,7 +9989,7 @@
         <v>242</v>
       </c>
       <c r="K191" t="n">
-        <v>-12.5</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L191" t="n">
         <v>913</v>
@@ -10020,7 +10040,7 @@
         <v>243</v>
       </c>
       <c r="K192" t="n">
-        <v>-9.090909090909092</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L192" t="n">
         <v>913.2</v>
@@ -10071,7 +10091,7 @@
         <v>248</v>
       </c>
       <c r="K193" t="n">
-        <v>-16.66666666666666</v>
+        <v>-12.5</v>
       </c>
       <c r="L193" t="n">
         <v>912.9</v>
@@ -10122,7 +10142,7 @@
         <v>249</v>
       </c>
       <c r="K194" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>912.8</v>
@@ -10224,7 +10244,7 @@
         <v>252</v>
       </c>
       <c r="K196" t="n">
-        <v>0</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L196" t="n">
         <v>913.1</v>
@@ -10275,7 +10295,7 @@
         <v>252</v>
       </c>
       <c r="K197" t="n">
-        <v>-9.67741935483871</v>
+        <v>0</v>
       </c>
       <c r="L197" t="n">
         <v>913.4</v>
@@ -10326,7 +10346,7 @@
         <v>252</v>
       </c>
       <c r="K198" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>913.4</v>
@@ -10377,7 +10397,7 @@
         <v>252</v>
       </c>
       <c r="K199" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>913.4</v>
@@ -10428,7 +10448,7 @@
         <v>254</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L200" t="n">
         <v>913.6</v>
@@ -10479,7 +10499,7 @@
         <v>255</v>
       </c>
       <c r="K201" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>913.7</v>
@@ -10530,7 +10550,7 @@
         <v>257</v>
       </c>
       <c r="K202" t="n">
-        <v>15.38461538461539</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L202" t="n">
         <v>913.9</v>
@@ -10581,7 +10601,7 @@
         <v>257</v>
       </c>
       <c r="K203" t="n">
-        <v>15.38461538461539</v>
+        <v>75</v>
       </c>
       <c r="L203" t="n">
         <v>914.6</v>
@@ -10632,7 +10652,7 @@
         <v>261</v>
       </c>
       <c r="K204" t="n">
-        <v>3.448275862068965</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L204" t="n">
         <v>914.8</v>
@@ -10683,7 +10703,7 @@
         <v>261</v>
       </c>
       <c r="K205" t="n">
-        <v>7.142857142857142</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L205" t="n">
         <v>914.7</v>
@@ -10785,7 +10805,7 @@
         <v>264</v>
       </c>
       <c r="K207" t="n">
-        <v>20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L207" t="n">
         <v>914.9</v>
@@ -10836,7 +10856,7 @@
         <v>265</v>
       </c>
       <c r="K208" t="n">
-        <v>13.04347826086956</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L208" t="n">
         <v>915.2</v>
@@ -10887,7 +10907,7 @@
         <v>269</v>
       </c>
       <c r="K209" t="n">
-        <v>-3.703703703703703</v>
+        <v>-20</v>
       </c>
       <c r="L209" t="n">
         <v>915.1</v>
@@ -10938,7 +10958,7 @@
         <v>273</v>
       </c>
       <c r="K210" t="n">
-        <v>9.67741935483871</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L210" t="n">
         <v>915.2</v>
@@ -10989,7 +11009,7 @@
         <v>277</v>
       </c>
       <c r="K211" t="n">
-        <v>-2.857142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L211" t="n">
         <v>915</v>
@@ -11040,7 +11060,7 @@
         <v>277</v>
       </c>
       <c r="K212" t="n">
-        <v>-5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L212" t="n">
         <v>914.6</v>
@@ -11091,7 +11111,7 @@
         <v>278</v>
       </c>
       <c r="K213" t="n">
-        <v>6.666666666666667</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L213" t="n">
         <v>914.1</v>
@@ -11142,7 +11162,7 @@
         <v>279</v>
       </c>
       <c r="K214" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L214" t="n">
         <v>913.9</v>
@@ -11193,7 +11213,7 @@
         <v>280</v>
       </c>
       <c r="K215" t="n">
-        <v>-14.28571428571428</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L215" t="n">
         <v>913.6</v>
@@ -11244,7 +11264,7 @@
         <v>280</v>
       </c>
       <c r="K216" t="n">
-        <v>-14.28571428571428</v>
+        <v>-37.5</v>
       </c>
       <c r="L216" t="n">
         <v>913.2</v>
@@ -11295,7 +11315,7 @@
         <v>280</v>
       </c>
       <c r="K217" t="n">
-        <v>-14.28571428571428</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L217" t="n">
         <v>912.6</v>

--- a/BackTest/2019-10-25 BackTest OMG.xlsx
+++ b/BackTest/2019-10-25 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S217"/>
+  <dimension ref="A1:M196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,19 @@
         <v>903.5833333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>912</v>
+      </c>
+      <c r="K2" t="n">
+        <v>912</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,23 +490,23 @@
         <v>904.4666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+        <v>911</v>
+      </c>
+      <c r="K3" t="n">
+        <v>912</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,23 +533,23 @@
         <v>905.3</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+        <v>913</v>
+      </c>
+      <c r="K4" t="n">
+        <v>912</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,23 +576,23 @@
         <v>906.2</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+        <v>908</v>
+      </c>
+      <c r="K5" t="n">
+        <v>912</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,23 +619,23 @@
         <v>907.1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>9</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+        <v>912</v>
+      </c>
+      <c r="K6" t="n">
+        <v>912</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -692,23 +662,23 @@
         <v>908.05</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>9</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+        <v>913</v>
+      </c>
+      <c r="K7" t="n">
+        <v>912</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -735,23 +705,23 @@
         <v>908.95</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>10</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+        <v>912</v>
+      </c>
+      <c r="K8" t="n">
+        <v>912</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,23 +748,23 @@
         <v>909.85</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+        <v>912</v>
+      </c>
+      <c r="K9" t="n">
+        <v>912</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -821,23 +791,23 @@
         <v>910.6833333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>14</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>912</v>
+      </c>
+      <c r="K10" t="n">
+        <v>912</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -864,25 +834,23 @@
         <v>911.55</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>18</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>911.6</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+        <v>910</v>
+      </c>
+      <c r="K11" t="n">
+        <v>912</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -909,27 +877,23 @@
         <v>912.1166666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>22</v>
+        <v>908</v>
       </c>
       <c r="K12" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-      <c r="L12" t="n">
-        <v>911.2</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>912</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -956,27 +920,23 @@
         <v>912.1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>24</v>
+        <v>910</v>
       </c>
       <c r="K13" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L13" t="n">
-        <v>910.9</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>912</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1003,27 +963,23 @@
         <v>912</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29</v>
+        <v>908</v>
       </c>
       <c r="K14" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L14" t="n">
-        <v>910.5</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>912</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1050,27 +1006,23 @@
         <v>911.9666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>32</v>
+        <v>908</v>
       </c>
       <c r="K15" t="n">
-        <v>-21.73913043478261</v>
-      </c>
-      <c r="L15" t="n">
-        <v>910.1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>912</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1097,27 +1049,23 @@
         <v>911.95</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>35</v>
+        <v>906</v>
       </c>
       <c r="K16" t="n">
-        <v>-30.76923076923077</v>
-      </c>
-      <c r="L16" t="n">
-        <v>909.3</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>912</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1144,27 +1092,23 @@
         <v>912.0666666666667</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>35</v>
+        <v>905</v>
       </c>
       <c r="K17" t="n">
-        <v>-28</v>
-      </c>
-      <c r="L17" t="n">
-        <v>908.5</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>912</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1191,27 +1135,23 @@
         <v>912.0833333333334</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>39</v>
+        <v>901</v>
       </c>
       <c r="K18" t="n">
-        <v>-37.93103448275862</v>
-      </c>
-      <c r="L18" t="n">
-        <v>907.4</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>912</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,27 +1178,23 @@
         <v>911.95</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>46</v>
+        <v>906</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>907</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>912</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1285,27 +1221,23 @@
         <v>911.9333333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>49</v>
+        <v>908</v>
       </c>
       <c r="K20" t="n">
-        <v>-3.225806451612903</v>
-      </c>
-      <c r="L20" t="n">
-        <v>907.3</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>912</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1332,29 +1264,23 @@
         <v>911.85</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>56</v>
+        <v>906</v>
       </c>
       <c r="K21" t="n">
-        <v>-11.76470588235294</v>
-      </c>
-      <c r="L21" t="n">
-        <v>906.5</v>
+        <v>912</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>909.05</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1381,29 +1307,23 @@
         <v>911.8333333333334</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>61</v>
+        <v>909</v>
       </c>
       <c r="K22" t="n">
-        <v>-2.702702702702703</v>
-      </c>
-      <c r="L22" t="n">
-        <v>906.6</v>
+        <v>912</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>908.9</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1430,29 +1350,23 @@
         <v>912</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>63</v>
+        <v>911</v>
       </c>
       <c r="K23" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L23" t="n">
-        <v>906.7</v>
+        <v>912</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>908.8</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,29 +1393,23 @@
         <v>912.1833333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>63</v>
+        <v>911</v>
       </c>
       <c r="K24" t="n">
-        <v>9.67741935483871</v>
-      </c>
-      <c r="L24" t="n">
-        <v>907.3</v>
+        <v>912</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>908.9</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1528,29 +1436,23 @@
         <v>912.1166666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>68</v>
+        <v>906</v>
       </c>
       <c r="K25" t="n">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="L25" t="n">
-        <v>907.1</v>
+        <v>912</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>908.6</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1577,29 +1479,23 @@
         <v>912.1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>72</v>
+        <v>910</v>
       </c>
       <c r="K26" t="n">
-        <v>13.51351351351351</v>
-      </c>
-      <c r="L26" t="n">
-        <v>907.6</v>
+        <v>912</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>908.45</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,29 +1522,23 @@
         <v>912.0833333333334</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>73</v>
+        <v>911</v>
       </c>
       <c r="K27" t="n">
-        <v>23.52941176470588</v>
-      </c>
-      <c r="L27" t="n">
-        <v>908</v>
+        <v>912</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>908.25</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1675,29 +1565,23 @@
         <v>912</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74</v>
+        <v>910</v>
       </c>
       <c r="K28" t="n">
-        <v>7.142857142857142</v>
-      </c>
-      <c r="L28" t="n">
-        <v>908.9</v>
+        <v>912</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>908.15</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,29 +1608,23 @@
         <v>911.8666666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>75</v>
+        <v>909</v>
       </c>
       <c r="K29" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L29" t="n">
-        <v>909</v>
+        <v>912</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>908</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1773,29 +1651,23 @@
         <v>911.7166666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>75</v>
+        <v>909</v>
       </c>
       <c r="K30" t="n">
-        <v>26.31578947368421</v>
-      </c>
-      <c r="L30" t="n">
-        <v>908.8</v>
+        <v>912</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>908.05</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,31 +1694,23 @@
         <v>911.5666666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>75</v>
+        <v>909</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>909.3</v>
+        <v>912</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>907.9</v>
-      </c>
-      <c r="N31" t="n">
-        <v>909.1333333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,31 +1737,23 @@
         <v>911.4833333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>75</v>
+        <v>909</v>
       </c>
       <c r="K32" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L32" t="n">
-        <v>909.3</v>
+        <v>912</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M32" t="n">
-        <v>907.95</v>
-      </c>
-      <c r="N32" t="n">
-        <v>909.0333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1924,31 +1780,23 @@
         <v>911.4833333333333</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>75</v>
+        <v>909</v>
       </c>
       <c r="K33" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L33" t="n">
-        <v>909.1</v>
+        <v>912</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>907.9</v>
-      </c>
-      <c r="N33" t="n">
-        <v>908.9</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1975,31 +1823,23 @@
         <v>911.4666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76</v>
+        <v>908</v>
       </c>
       <c r="K34" t="n">
-        <v>25</v>
-      </c>
-      <c r="L34" t="n">
-        <v>908.8</v>
+        <v>912</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>908.05</v>
-      </c>
-      <c r="N34" t="n">
-        <v>908.8666666666667</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2026,31 +1866,23 @@
         <v>911.35</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>76</v>
+        <v>908</v>
       </c>
       <c r="K35" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L35" t="n">
-        <v>909</v>
+        <v>912</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>908.05</v>
-      </c>
-      <c r="N35" t="n">
-        <v>908.7333333333333</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2077,31 +1909,23 @@
         <v>911.2</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>77</v>
+        <v>907</v>
       </c>
       <c r="K36" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L36" t="n">
-        <v>908.7</v>
+        <v>912</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>908.15</v>
-      </c>
-      <c r="N36" t="n">
-        <v>908.5333333333333</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,31 +1952,23 @@
         <v>911.1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>77</v>
+        <v>906</v>
       </c>
       <c r="K37" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L37" t="n">
-        <v>908.5</v>
+        <v>912</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>908.25</v>
-      </c>
-      <c r="N37" t="n">
-        <v>908.3333333333334</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,31 +1995,23 @@
         <v>911.0666666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>77</v>
+        <v>907</v>
       </c>
       <c r="K38" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L38" t="n">
-        <v>908.2</v>
+        <v>912</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>908.55</v>
-      </c>
-      <c r="N38" t="n">
-        <v>908.1666666666666</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2230,31 +2038,23 @@
         <v>910.9333333333333</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>79</v>
+        <v>906</v>
       </c>
       <c r="K39" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L39" t="n">
-        <v>907.8</v>
+        <v>912</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>908.4</v>
-      </c>
-      <c r="N39" t="n">
-        <v>907.9333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2281,31 +2081,23 @@
         <v>910.75</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80</v>
+        <v>906</v>
       </c>
       <c r="K40" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L40" t="n">
-        <v>907.5</v>
+        <v>912</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>908.15</v>
-      </c>
-      <c r="N40" t="n">
-        <v>907.8666666666667</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2332,31 +2124,23 @@
         <v>910.6</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>83</v>
+        <v>909</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>907.5</v>
+        <v>912</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>908.4</v>
-      </c>
-      <c r="N41" t="n">
-        <v>907.7666666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2383,31 +2167,23 @@
         <v>910.35</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>84</v>
+        <v>910</v>
       </c>
       <c r="K42" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L42" t="n">
-        <v>907.6</v>
+        <v>912</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>908.45</v>
-      </c>
-      <c r="N42" t="n">
-        <v>907.8333333333334</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2434,31 +2210,23 @@
         <v>910.2166666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>85</v>
+        <v>911</v>
       </c>
       <c r="K43" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L43" t="n">
-        <v>907.8</v>
+        <v>912</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>908.45</v>
-      </c>
-      <c r="N43" t="n">
-        <v>907.8666666666667</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2485,31 +2253,23 @@
         <v>910.0333333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>85</v>
+        <v>911</v>
       </c>
       <c r="K44" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L44" t="n">
-        <v>908.1</v>
+        <v>912</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>908.45</v>
-      </c>
-      <c r="N44" t="n">
-        <v>908.0666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2536,31 +2296,23 @@
         <v>909.8333333333334</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>85</v>
+        <v>911</v>
       </c>
       <c r="K45" t="n">
-        <v>50</v>
-      </c>
-      <c r="L45" t="n">
-        <v>908.4</v>
+        <v>912</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>908.7</v>
-      </c>
-      <c r="N45" t="n">
-        <v>908.1666666666666</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2587,31 +2339,23 @@
         <v>909.7833333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>90</v>
+        <v>915</v>
       </c>
       <c r="K46" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="L46" t="n">
-        <v>909.3</v>
+        <v>912</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>909</v>
-      </c>
-      <c r="N46" t="n">
-        <v>908.5333333333333</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,31 +2382,23 @@
         <v>909.8666666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>93</v>
+        <v>915</v>
       </c>
       <c r="K47" t="n">
-        <v>75</v>
-      </c>
-      <c r="L47" t="n">
-        <v>910.5</v>
+        <v>912</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>909.5</v>
-      </c>
-      <c r="N47" t="n">
-        <v>909</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2689,31 +2425,23 @@
         <v>909.85</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>98</v>
+        <v>913</v>
       </c>
       <c r="K48" t="n">
-        <v>47.36842105263158</v>
-      </c>
-      <c r="L48" t="n">
-        <v>911.2</v>
+        <v>912</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>909.7</v>
-      </c>
-      <c r="N48" t="n">
-        <v>909.4333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2740,32 +2468,24 @@
         <v>909.7833333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>100</v>
+        <v>912</v>
       </c>
       <c r="K49" t="n">
-        <v>30</v>
-      </c>
-      <c r="L49" t="n">
-        <v>911.9</v>
+        <v>912</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>909.85</v>
-      </c>
-      <c r="N49" t="n">
-        <v>909.5666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
-        <v>1</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="50">
@@ -2791,31 +2511,23 @@
         <v>909.7166666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>101</v>
+        <v>913</v>
       </c>
       <c r="K50" t="n">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="L50" t="n">
-        <v>912.6</v>
+        <v>912</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>910.05</v>
-      </c>
-      <c r="N50" t="n">
-        <v>909.6333333333333</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2842,31 +2554,23 @@
         <v>909.7</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>102</v>
+        <v>914</v>
       </c>
       <c r="K51" t="n">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="L51" t="n">
-        <v>913.1</v>
+        <v>912</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>910.3</v>
-      </c>
-      <c r="N51" t="n">
-        <v>909.9666666666667</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2893,31 +2597,19 @@
         <v>909.75</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>102</v>
+        <v>914</v>
       </c>
       <c r="K52" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L52" t="n">
-        <v>913.5</v>
-      </c>
+        <v>914</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>910.55</v>
-      </c>
-      <c r="N52" t="n">
-        <v>910.1333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2944,31 +2636,23 @@
         <v>909.8166666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>103</v>
+        <v>913</v>
       </c>
       <c r="K53" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L53" t="n">
-        <v>913.7</v>
+        <v>914</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>910.75</v>
-      </c>
-      <c r="N53" t="n">
-        <v>910.2</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2995,31 +2679,23 @@
         <v>910</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>108</v>
+        <v>918</v>
       </c>
       <c r="K54" t="n">
-        <v>30.43478260869566</v>
-      </c>
-      <c r="L54" t="n">
-        <v>914.4</v>
+        <v>914</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>911.25</v>
-      </c>
-      <c r="N54" t="n">
-        <v>910.4333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3046,31 +2722,19 @@
         <v>910.1</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>108</v>
+        <v>918</v>
       </c>
       <c r="K55" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L55" t="n">
-        <v>915.1</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>911.75</v>
-      </c>
-      <c r="N55" t="n">
-        <v>910.8333333333334</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3097,31 +2761,23 @@
         <v>910.1333333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>113</v>
+        <v>913</v>
       </c>
       <c r="K56" t="n">
-        <v>-30</v>
-      </c>
-      <c r="L56" t="n">
-        <v>914.8</v>
+        <v>918</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>912.05</v>
-      </c>
-      <c r="N56" t="n">
-        <v>910.9333333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2807,18 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
-      </c>
-      <c r="J57" t="n">
-        <v>117</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="L57" t="n">
-        <v>914.6</v>
+        <v>918</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>912.55</v>
-      </c>
-      <c r="N57" t="n">
-        <v>911.2</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3199,31 +2845,19 @@
         <v>910.3166666666667</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>118</v>
+        <v>918</v>
       </c>
       <c r="K58" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L58" t="n">
-        <v>915</v>
-      </c>
+        <v>918</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>913.1</v>
-      </c>
-      <c r="N58" t="n">
-        <v>911.4666666666667</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,31 +2884,23 @@
         <v>910.3833333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>119</v>
+        <v>917</v>
       </c>
       <c r="K59" t="n">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="L59" t="n">
-        <v>915.5</v>
+        <v>918</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>913.7</v>
-      </c>
-      <c r="N59" t="n">
-        <v>911.7333333333333</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2930,18 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
-      </c>
-      <c r="J60" t="n">
-        <v>122</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>915.6</v>
+        <v>918</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>914.1</v>
-      </c>
-      <c r="N60" t="n">
-        <v>911.9</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2971,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
-      </c>
-      <c r="J61" t="n">
-        <v>123</v>
-      </c>
-      <c r="K61" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L61" t="n">
-        <v>915.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>914.4</v>
-      </c>
-      <c r="N61" t="n">
-        <v>912.1</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3403,31 +3003,19 @@
         <v>910.6666666666666</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>123</v>
+        <v>915</v>
       </c>
       <c r="K62" t="n">
-        <v>10</v>
-      </c>
-      <c r="L62" t="n">
-        <v>915.8</v>
-      </c>
+        <v>915</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>914.65</v>
-      </c>
-      <c r="N62" t="n">
-        <v>912.3</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3454,31 +3042,23 @@
         <v>910.6833333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>124</v>
+        <v>914</v>
       </c>
       <c r="K63" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L63" t="n">
-        <v>915.9</v>
+        <v>915</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>914.8</v>
-      </c>
-      <c r="N63" t="n">
-        <v>912.4666666666667</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3505,31 +3085,23 @@
         <v>910.7666666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>124</v>
+        <v>914</v>
       </c>
       <c r="K64" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L64" t="n">
-        <v>915.5</v>
+        <v>915</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>914.95</v>
-      </c>
-      <c r="N64" t="n">
-        <v>912.6666666666666</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3556,31 +3128,19 @@
         <v>910.85</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>127</v>
+        <v>917</v>
       </c>
       <c r="K65" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L65" t="n">
-        <v>915.4</v>
-      </c>
+        <v>917</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>915.25</v>
-      </c>
-      <c r="N65" t="n">
-        <v>912.9666666666667</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3607,31 +3167,23 @@
         <v>910.8666666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>130</v>
+        <v>913</v>
       </c>
       <c r="K66" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L66" t="n">
-        <v>915.5</v>
+        <v>917</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>915.15</v>
-      </c>
-      <c r="N66" t="n">
-        <v>913.2</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +3213,18 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" t="n">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L67" t="n">
-        <v>915.2</v>
+        <v>917</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>914.9</v>
-      </c>
-      <c r="N67" t="n">
-        <v>913.4333333333333</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3709,31 +3251,23 @@
         <v>910.9166666666666</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>130</v>
+        <v>914</v>
       </c>
       <c r="K68" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L68" t="n">
-        <v>914.8</v>
+        <v>917</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>914.9</v>
-      </c>
-      <c r="N68" t="n">
-        <v>913.6666666666666</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,31 +3294,23 @@
         <v>910.9333333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>131</v>
+        <v>913</v>
       </c>
       <c r="K69" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L69" t="n">
-        <v>914.4</v>
+        <v>917</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>914.95</v>
-      </c>
-      <c r="N69" t="n">
-        <v>913.9333333333333</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3811,31 +3337,23 @@
         <v>911.0333333333333</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>132</v>
+        <v>913</v>
       </c>
       <c r="K70" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L70" t="n">
-        <v>914.4</v>
+        <v>917</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>915</v>
-      </c>
-      <c r="N70" t="n">
-        <v>914.2</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,31 +3380,23 @@
         <v>911.0666666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>132</v>
+        <v>914</v>
       </c>
       <c r="K71" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L71" t="n">
-        <v>914.3</v>
+        <v>917</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>915</v>
-      </c>
-      <c r="N71" t="n">
-        <v>914.3666666666667</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,31 +3423,23 @@
         <v>911.1666666666666</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>132</v>
+        <v>914</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>914.2</v>
+        <v>917</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>915</v>
-      </c>
-      <c r="N72" t="n">
-        <v>914.5</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,31 +3466,23 @@
         <v>911.2333333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>132</v>
+        <v>914</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>914.2</v>
+        <v>917</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>915.05</v>
-      </c>
-      <c r="N73" t="n">
-        <v>914.6</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4015,31 +3509,23 @@
         <v>911.4333333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>135</v>
+        <v>916</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>914.5</v>
+        <v>917</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>915</v>
-      </c>
-      <c r="N74" t="n">
-        <v>914.8</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,31 +3552,23 @@
         <v>911.6</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>136</v>
+        <v>917</v>
       </c>
       <c r="K75" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L75" t="n">
-        <v>914.6</v>
+        <v>917</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>915</v>
-      </c>
-      <c r="N75" t="n">
-        <v>915.0333333333333</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4117,31 +3595,23 @@
         <v>911.8166666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>136</v>
+        <v>918</v>
       </c>
       <c r="K76" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L76" t="n">
-        <v>915</v>
+        <v>917</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>915.25</v>
-      </c>
-      <c r="N76" t="n">
-        <v>915.1</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,29 +3641,19 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>6</v>
-      </c>
-      <c r="J77" t="n">
-        <v>136</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L77" t="n">
-        <v>915.4</v>
+        <v>917</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>915.3</v>
-      </c>
-      <c r="N77" t="n">
-        <v>915.0666666666667</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
-        <v>1</v>
+        <v>0.9960905125408942</v>
       </c>
     </row>
     <row r="78">
@@ -4222,28 +3682,18 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>6</v>
-      </c>
-      <c r="J78" t="n">
-        <v>136</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>100</v>
-      </c>
-      <c r="L78" t="n">
-        <v>915.8</v>
+        <v>918</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>915.3</v>
-      </c>
-      <c r="N78" t="n">
-        <v>915.2</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3723,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>8</v>
-      </c>
-      <c r="J79" t="n">
-        <v>138</v>
-      </c>
-      <c r="K79" t="n">
-        <v>100</v>
-      </c>
-      <c r="L79" t="n">
-        <v>916.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>915.45</v>
-      </c>
-      <c r="N79" t="n">
-        <v>915.4666666666667</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3758,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>8</v>
-      </c>
-      <c r="J80" t="n">
-        <v>138</v>
-      </c>
-      <c r="K80" t="n">
-        <v>100</v>
-      </c>
-      <c r="L80" t="n">
-        <v>917.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>915.75</v>
-      </c>
-      <c r="N80" t="n">
-        <v>915.7</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3793,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>138</v>
-      </c>
-      <c r="K81" t="n">
-        <v>100</v>
-      </c>
-      <c r="L81" t="n">
-        <v>917.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>916</v>
-      </c>
-      <c r="N81" t="n">
-        <v>915.9</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3828,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>8</v>
-      </c>
-      <c r="J82" t="n">
-        <v>138</v>
-      </c>
-      <c r="K82" t="n">
-        <v>100</v>
-      </c>
-      <c r="L82" t="n">
-        <v>918.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>916.25</v>
-      </c>
-      <c r="N82" t="n">
-        <v>916.1</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3863,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>8</v>
-      </c>
-      <c r="J83" t="n">
-        <v>138</v>
-      </c>
-      <c r="K83" t="n">
-        <v>100</v>
-      </c>
-      <c r="L83" t="n">
-        <v>918.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>916.55</v>
-      </c>
-      <c r="N83" t="n">
-        <v>916.3333333333334</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3898,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>138</v>
-      </c>
-      <c r="K84" t="n">
-        <v>100</v>
-      </c>
-      <c r="L84" t="n">
-        <v>919.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>916.85</v>
-      </c>
-      <c r="N84" t="n">
-        <v>916.4</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3933,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>8</v>
-      </c>
-      <c r="J85" t="n">
-        <v>138</v>
-      </c>
-      <c r="K85" t="n">
-        <v>100</v>
-      </c>
-      <c r="L85" t="n">
-        <v>919.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>917</v>
-      </c>
-      <c r="N85" t="n">
-        <v>916.4666666666667</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3968,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>7</v>
-      </c>
-      <c r="J86" t="n">
-        <v>139</v>
-      </c>
-      <c r="K86" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L86" t="n">
-        <v>919.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>917.25</v>
-      </c>
-      <c r="N86" t="n">
-        <v>916.6666666666666</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +4003,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>7</v>
-      </c>
-      <c r="J87" t="n">
-        <v>139</v>
-      </c>
-      <c r="K87" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L87" t="n">
-        <v>919.6</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>917.5</v>
-      </c>
-      <c r="N87" t="n">
-        <v>916.7333333333333</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +4038,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>9</v>
-      </c>
-      <c r="J88" t="n">
-        <v>141</v>
-      </c>
-      <c r="K88" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L88" t="n">
-        <v>919.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>917.85</v>
-      </c>
-      <c r="N88" t="n">
-        <v>916.8333333333334</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +4073,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>142</v>
-      </c>
-      <c r="K89" t="n">
-        <v>50</v>
-      </c>
-      <c r="L89" t="n">
-        <v>920.1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>918.3</v>
-      </c>
-      <c r="N89" t="n">
-        <v>917</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +4108,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>142</v>
-      </c>
-      <c r="K90" t="n">
-        <v>50</v>
-      </c>
-      <c r="L90" t="n">
-        <v>920.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>918.7</v>
-      </c>
-      <c r="N90" t="n">
-        <v>917.2666666666667</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +4143,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>9</v>
-      </c>
-      <c r="J91" t="n">
-        <v>143</v>
-      </c>
-      <c r="K91" t="n">
-        <v>20</v>
-      </c>
-      <c r="L91" t="n">
-        <v>920.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>919.05</v>
-      </c>
-      <c r="N91" t="n">
-        <v>917.4666666666667</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +4178,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>10</v>
-      </c>
-      <c r="J92" t="n">
-        <v>144</v>
-      </c>
-      <c r="K92" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L92" t="n">
-        <v>920.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>919.45</v>
-      </c>
-      <c r="N92" t="n">
-        <v>917.7</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +4213,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>10</v>
-      </c>
-      <c r="J93" t="n">
-        <v>144</v>
-      </c>
-      <c r="K93" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L93" t="n">
-        <v>920.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>919.85</v>
-      </c>
-      <c r="N93" t="n">
-        <v>917.9666666666667</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +4248,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>10</v>
-      </c>
-      <c r="J94" t="n">
-        <v>144</v>
-      </c>
-      <c r="K94" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L94" t="n">
-        <v>921</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>920.1</v>
-      </c>
-      <c r="N94" t="n">
-        <v>918.2333333333333</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +4283,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>10</v>
-      </c>
-      <c r="J95" t="n">
-        <v>144</v>
-      </c>
-      <c r="K95" t="n">
-        <v>60</v>
-      </c>
-      <c r="L95" t="n">
-        <v>921.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>920.3</v>
-      </c>
-      <c r="N95" t="n">
-        <v>918.4</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +4318,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>10</v>
-      </c>
-      <c r="J96" t="n">
-        <v>144</v>
-      </c>
-      <c r="K96" t="n">
-        <v>60</v>
-      </c>
-      <c r="L96" t="n">
-        <v>921.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>920.5</v>
-      </c>
-      <c r="N96" t="n">
-        <v>918.6666666666666</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +4353,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>9</v>
-      </c>
-      <c r="J97" t="n">
-        <v>145</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>921.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>920.65</v>
-      </c>
-      <c r="N97" t="n">
-        <v>918.9</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +4388,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>8</v>
-      </c>
-      <c r="J98" t="n">
-        <v>146</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L98" t="n">
-        <v>921.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>920.75</v>
-      </c>
-      <c r="N98" t="n">
-        <v>919.1</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +4423,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>9</v>
-      </c>
-      <c r="J99" t="n">
-        <v>147</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L99" t="n">
-        <v>921.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>920.8</v>
-      </c>
-      <c r="N99" t="n">
-        <v>919.3666666666667</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +4458,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>10</v>
-      </c>
-      <c r="J100" t="n">
-        <v>148</v>
-      </c>
-      <c r="K100" t="n">
-        <v>20</v>
-      </c>
-      <c r="L100" t="n">
-        <v>921.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>920.9</v>
-      </c>
-      <c r="N100" t="n">
-        <v>919.6333333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +4493,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>10</v>
-      </c>
-      <c r="J101" t="n">
-        <v>148</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>921.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>921</v>
-      </c>
-      <c r="N101" t="n">
-        <v>919.9</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4528,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>10</v>
-      </c>
-      <c r="J102" t="n">
-        <v>148</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="n">
-        <v>921.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>921.1</v>
-      </c>
-      <c r="N102" t="n">
-        <v>920.1666666666666</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,28 +4563,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>10</v>
-      </c>
-      <c r="J103" t="n">
-        <v>148</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>921.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>921.2</v>
-      </c>
-      <c r="N103" t="n">
-        <v>920.4333333333333</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5548,28 +4598,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>10</v>
-      </c>
-      <c r="J104" t="n">
-        <v>148</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="n">
-        <v>921.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>921.3</v>
-      </c>
-      <c r="N104" t="n">
-        <v>920.6</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5599,28 +4633,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>10</v>
-      </c>
-      <c r="J105" t="n">
-        <v>148</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>921.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>921.4</v>
-      </c>
-      <c r="N105" t="n">
-        <v>920.7333333333333</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,28 +4668,12 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>9</v>
-      </c>
-      <c r="J106" t="n">
-        <v>149</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>921.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>921.5</v>
-      </c>
-      <c r="N106" t="n">
-        <v>920.8333333333334</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5701,28 +4703,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>10</v>
-      </c>
-      <c r="J107" t="n">
-        <v>150</v>
-      </c>
-      <c r="K107" t="n">
-        <v>50</v>
-      </c>
-      <c r="L107" t="n">
-        <v>921.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>921.65</v>
-      </c>
-      <c r="N107" t="n">
-        <v>920.9666666666667</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,28 +4738,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>10</v>
-      </c>
-      <c r="J108" t="n">
-        <v>150</v>
-      </c>
-      <c r="K108" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L108" t="n">
-        <v>921.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>921.7</v>
-      </c>
-      <c r="N108" t="n">
-        <v>921.1</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,28 +4773,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>12</v>
-      </c>
-      <c r="J109" t="n">
-        <v>152</v>
-      </c>
-      <c r="K109" t="n">
-        <v>50</v>
-      </c>
-      <c r="L109" t="n">
-        <v>922.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>921.8</v>
-      </c>
-      <c r="N109" t="n">
-        <v>921.2333333333333</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,28 +4808,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>12</v>
-      </c>
-      <c r="J110" t="n">
-        <v>152</v>
-      </c>
-      <c r="K110" t="n">
-        <v>50</v>
-      </c>
-      <c r="L110" t="n">
-        <v>922.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>921.9</v>
-      </c>
-      <c r="N110" t="n">
-        <v>921.3666666666667</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5905,28 +4843,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>12</v>
-      </c>
-      <c r="J111" t="n">
-        <v>152</v>
-      </c>
-      <c r="K111" t="n">
-        <v>50</v>
-      </c>
-      <c r="L111" t="n">
-        <v>922.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>922.05</v>
-      </c>
-      <c r="N111" t="n">
-        <v>921.5</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5956,28 +4878,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>12</v>
-      </c>
-      <c r="J112" t="n">
-        <v>152</v>
-      </c>
-      <c r="K112" t="n">
-        <v>50</v>
-      </c>
-      <c r="L112" t="n">
-        <v>922.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>922.15</v>
-      </c>
-      <c r="N112" t="n">
-        <v>921.6333333333333</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6007,28 +4913,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>12</v>
-      </c>
-      <c r="J113" t="n">
-        <v>152</v>
-      </c>
-      <c r="K113" t="n">
-        <v>50</v>
-      </c>
-      <c r="L113" t="n">
-        <v>922.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>922.25</v>
-      </c>
-      <c r="N113" t="n">
-        <v>921.7666666666667</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6058,28 +4948,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>12</v>
-      </c>
-      <c r="J114" t="n">
-        <v>152</v>
-      </c>
-      <c r="K114" t="n">
-        <v>50</v>
-      </c>
-      <c r="L114" t="n">
-        <v>923.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>922.35</v>
-      </c>
-      <c r="N114" t="n">
-        <v>921.9</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6109,28 +4983,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>12</v>
-      </c>
-      <c r="J115" t="n">
-        <v>152</v>
-      </c>
-      <c r="K115" t="n">
-        <v>100</v>
-      </c>
-      <c r="L115" t="n">
-        <v>923.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>922.45</v>
-      </c>
-      <c r="N115" t="n">
-        <v>922.0333333333333</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,28 +5018,12 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>12</v>
-      </c>
-      <c r="J116" t="n">
-        <v>152</v>
-      </c>
-      <c r="K116" t="n">
-        <v>100</v>
-      </c>
-      <c r="L116" t="n">
-        <v>923.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>922.55</v>
-      </c>
-      <c r="N116" t="n">
-        <v>922.2</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6211,28 +5053,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>12</v>
-      </c>
-      <c r="J117" t="n">
-        <v>152</v>
-      </c>
-      <c r="K117" t="n">
-        <v>100</v>
-      </c>
-      <c r="L117" t="n">
-        <v>923.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>922.7</v>
-      </c>
-      <c r="N117" t="n">
-        <v>922.3666666666667</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,26 +5088,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>12</v>
-      </c>
-      <c r="J118" t="n">
-        <v>152</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>924</v>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>922.9</v>
-      </c>
-      <c r="N118" t="n">
-        <v>922.4666666666667</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6311,28 +5123,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>9</v>
-      </c>
-      <c r="J119" t="n">
-        <v>155</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L119" t="n">
-        <v>923.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>922.9</v>
-      </c>
-      <c r="N119" t="n">
-        <v>922.4333333333333</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6362,28 +5158,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>8</v>
-      </c>
-      <c r="J120" t="n">
-        <v>156</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L120" t="n">
-        <v>923.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>922.8</v>
-      </c>
-      <c r="N120" t="n">
-        <v>922.3666666666667</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6413,28 +5193,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>8</v>
-      </c>
-      <c r="J121" t="n">
-        <v>156</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L121" t="n">
-        <v>922.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>922.7</v>
-      </c>
-      <c r="N121" t="n">
-        <v>922.3333333333334</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6464,28 +5228,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>11</v>
-      </c>
-      <c r="J122" t="n">
-        <v>159</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L122" t="n">
-        <v>922.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>922.75</v>
-      </c>
-      <c r="N122" t="n">
-        <v>922.3666666666667</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6515,28 +5263,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>11</v>
-      </c>
-      <c r="J123" t="n">
-        <v>159</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L123" t="n">
-        <v>922.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>922.8</v>
-      </c>
-      <c r="N123" t="n">
-        <v>922.4</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6566,28 +5298,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>12</v>
-      </c>
-      <c r="J124" t="n">
-        <v>160</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0</v>
-      </c>
-      <c r="L124" t="n">
-        <v>922.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>922.9</v>
-      </c>
-      <c r="N124" t="n">
-        <v>922.4666666666667</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6617,28 +5333,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>12</v>
-      </c>
-      <c r="J125" t="n">
-        <v>160</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0</v>
-      </c>
-      <c r="L125" t="n">
-        <v>922.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>923</v>
-      </c>
-      <c r="N125" t="n">
-        <v>922.5333333333333</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6668,28 +5368,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>12</v>
-      </c>
-      <c r="J126" t="n">
-        <v>160</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0</v>
-      </c>
-      <c r="L126" t="n">
-        <v>922.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>923.15</v>
-      </c>
-      <c r="N126" t="n">
-        <v>922.6</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6719,28 +5403,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>13</v>
-      </c>
-      <c r="J127" t="n">
-        <v>161</v>
-      </c>
-      <c r="K127" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L127" t="n">
-        <v>922.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>923.3</v>
-      </c>
-      <c r="N127" t="n">
-        <v>922.7333333333333</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6770,28 +5438,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>15</v>
-      </c>
-      <c r="J128" t="n">
-        <v>163</v>
-      </c>
-      <c r="K128" t="n">
-        <v>75</v>
-      </c>
-      <c r="L128" t="n">
-        <v>923.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>923.55</v>
-      </c>
-      <c r="N128" t="n">
-        <v>922.9666666666667</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6821,28 +5473,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>15</v>
-      </c>
-      <c r="J129" t="n">
-        <v>163</v>
-      </c>
-      <c r="K129" t="n">
-        <v>100</v>
-      </c>
-      <c r="L129" t="n">
-        <v>923.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>923.7</v>
-      </c>
-      <c r="N129" t="n">
-        <v>923.1666666666666</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6872,28 +5508,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>13</v>
-      </c>
-      <c r="J130" t="n">
-        <v>165</v>
-      </c>
-      <c r="K130" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L130" t="n">
-        <v>924.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>923.75</v>
-      </c>
-      <c r="N130" t="n">
-        <v>923.2666666666667</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,28 +5543,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>15</v>
-      </c>
-      <c r="J131" t="n">
-        <v>167</v>
-      </c>
-      <c r="K131" t="n">
-        <v>50</v>
-      </c>
-      <c r="L131" t="n">
-        <v>924.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>923.9</v>
-      </c>
-      <c r="N131" t="n">
-        <v>923.4333333333333</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6974,28 +5578,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>13</v>
-      </c>
-      <c r="J132" t="n">
-        <v>169</v>
-      </c>
-      <c r="K132" t="n">
-        <v>20</v>
-      </c>
-      <c r="L132" t="n">
-        <v>925.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>923.95</v>
-      </c>
-      <c r="N132" t="n">
-        <v>923.5333333333333</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7025,28 +5613,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>12</v>
-      </c>
-      <c r="J133" t="n">
-        <v>170</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0</v>
-      </c>
-      <c r="L133" t="n">
-        <v>925.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>923.95</v>
-      </c>
-      <c r="N133" t="n">
-        <v>923.6</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7076,28 +5648,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>17</v>
-      </c>
-      <c r="J134" t="n">
-        <v>175</v>
-      </c>
-      <c r="K134" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L134" t="n">
-        <v>925.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>924.2</v>
-      </c>
-      <c r="N134" t="n">
-        <v>923.8333333333334</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7127,28 +5683,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>17</v>
-      </c>
-      <c r="J135" t="n">
-        <v>175</v>
-      </c>
-      <c r="K135" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L135" t="n">
-        <v>926.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>924.45</v>
-      </c>
-      <c r="N135" t="n">
-        <v>924.0666666666667</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7178,28 +5718,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>14</v>
-      </c>
-      <c r="J136" t="n">
-        <v>178</v>
-      </c>
-      <c r="K136" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="L136" t="n">
-        <v>926.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>924.55</v>
-      </c>
-      <c r="N136" t="n">
-        <v>924.2333333333333</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7229,28 +5753,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>11</v>
-      </c>
-      <c r="J137" t="n">
-        <v>181</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L137" t="n">
-        <v>926.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
-        <v>924.5</v>
-      </c>
-      <c r="N137" t="n">
-        <v>924.2666666666667</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7280,28 +5788,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>13</v>
-      </c>
-      <c r="J138" t="n">
-        <v>183</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-10</v>
-      </c>
-      <c r="L138" t="n">
-        <v>926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
-        <v>924.55</v>
-      </c>
-      <c r="N138" t="n">
-        <v>924.3666666666667</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7331,28 +5823,12 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>14</v>
-      </c>
-      <c r="J139" t="n">
-        <v>184</v>
-      </c>
-      <c r="K139" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L139" t="n">
-        <v>925.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
-        <v>924.8</v>
-      </c>
-      <c r="N139" t="n">
-        <v>924.4333333333333</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7382,28 +5858,12 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>14</v>
-      </c>
-      <c r="J140" t="n">
-        <v>184</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L140" t="n">
-        <v>926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
-        <v>925.1</v>
-      </c>
-      <c r="N140" t="n">
-        <v>924.5</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7433,28 +5893,12 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>14</v>
-      </c>
-      <c r="J141" t="n">
-        <v>184</v>
-      </c>
-      <c r="K141" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L141" t="n">
-        <v>925.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
-        <v>925.4</v>
-      </c>
-      <c r="N141" t="n">
-        <v>924.5666666666667</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7484,28 +5928,12 @@
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>14</v>
-      </c>
-      <c r="J142" t="n">
-        <v>184</v>
-      </c>
-      <c r="K142" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L142" t="n">
-        <v>926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
-        <v>925.55</v>
-      </c>
-      <c r="N142" t="n">
-        <v>924.6333333333333</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7535,28 +5963,12 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>13</v>
-      </c>
-      <c r="J143" t="n">
-        <v>185</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L143" t="n">
-        <v>926.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
-        <v>925.65</v>
-      </c>
-      <c r="N143" t="n">
-        <v>924.6666666666666</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7586,28 +5998,12 @@
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>14</v>
-      </c>
-      <c r="J144" t="n">
-        <v>186</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L144" t="n">
-        <v>925.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
-        <v>925.75</v>
-      </c>
-      <c r="N144" t="n">
-        <v>924.7333333333333</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7637,28 +6033,12 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>14</v>
-      </c>
-      <c r="J145" t="n">
-        <v>186</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0</v>
-      </c>
-      <c r="L145" t="n">
-        <v>925.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
-        <v>925.85</v>
-      </c>
-      <c r="N145" t="n">
-        <v>924.8</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7688,28 +6068,12 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>15</v>
-      </c>
-      <c r="J146" t="n">
-        <v>187</v>
-      </c>
-      <c r="K146" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L146" t="n">
-        <v>925.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
-        <v>926</v>
-      </c>
-      <c r="N146" t="n">
-        <v>924.9</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7739,28 +6103,12 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>15</v>
-      </c>
-      <c r="J147" t="n">
-        <v>187</v>
-      </c>
-      <c r="K147" t="n">
-        <v>50</v>
-      </c>
-      <c r="L147" t="n">
-        <v>926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
-        <v>926.1</v>
-      </c>
-      <c r="N147" t="n">
-        <v>925</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7790,28 +6138,12 @@
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>15</v>
-      </c>
-      <c r="J148" t="n">
-        <v>187</v>
-      </c>
-      <c r="K148" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L148" t="n">
-        <v>926.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
-        <v>926.1</v>
-      </c>
-      <c r="N148" t="n">
-        <v>925.1</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7841,28 +6173,12 @@
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>15</v>
-      </c>
-      <c r="J149" t="n">
-        <v>187</v>
-      </c>
-      <c r="K149" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L149" t="n">
-        <v>926.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
-        <v>926.1</v>
-      </c>
-      <c r="N149" t="n">
-        <v>925.3</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7892,28 +6208,12 @@
         <v>0</v>
       </c>
       <c r="I150" t="n">
-        <v>15</v>
-      </c>
-      <c r="J150" t="n">
-        <v>187</v>
-      </c>
-      <c r="K150" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L150" t="n">
-        <v>926.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
-        <v>926.2</v>
-      </c>
-      <c r="N150" t="n">
-        <v>925.5333333333333</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7943,28 +6243,12 @@
         <v>0</v>
       </c>
       <c r="I151" t="n">
-        <v>15</v>
-      </c>
-      <c r="J151" t="n">
-        <v>187</v>
-      </c>
-      <c r="K151" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L151" t="n">
-        <v>926.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
-        <v>926.2</v>
-      </c>
-      <c r="N151" t="n">
-        <v>925.7666666666667</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7994,28 +6278,12 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>12</v>
-      </c>
-      <c r="J152" t="n">
-        <v>190</v>
-      </c>
-      <c r="K152" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L152" t="n">
-        <v>926.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
-        <v>926.15</v>
-      </c>
-      <c r="N152" t="n">
-        <v>925.8</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8045,28 +6313,12 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>15</v>
-      </c>
-      <c r="J153" t="n">
-        <v>193</v>
-      </c>
-      <c r="K153" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L153" t="n">
-        <v>926.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
-        <v>926.3</v>
-      </c>
-      <c r="N153" t="n">
-        <v>925.9333333333333</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8096,28 +6348,12 @@
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>15</v>
-      </c>
-      <c r="J154" t="n">
-        <v>193</v>
-      </c>
-      <c r="K154" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L154" t="n">
-        <v>926.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
-        <v>926.2</v>
-      </c>
-      <c r="N154" t="n">
-        <v>926.0333333333333</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8147,28 +6383,12 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>17</v>
-      </c>
-      <c r="J155" t="n">
-        <v>195</v>
-      </c>
-      <c r="K155" t="n">
-        <v>25</v>
-      </c>
-      <c r="L155" t="n">
-        <v>926.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
-        <v>926.2</v>
-      </c>
-      <c r="N155" t="n">
-        <v>926.2</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8198,28 +6418,12 @@
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>17</v>
-      </c>
-      <c r="J156" t="n">
-        <v>195</v>
-      </c>
-      <c r="K156" t="n">
-        <v>25</v>
-      </c>
-      <c r="L156" t="n">
-        <v>927.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
-        <v>926.35</v>
-      </c>
-      <c r="N156" t="n">
-        <v>926.3666666666667</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8249,28 +6453,12 @@
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>17</v>
-      </c>
-      <c r="J157" t="n">
-        <v>195</v>
-      </c>
-      <c r="K157" t="n">
-        <v>25</v>
-      </c>
-      <c r="L157" t="n">
-        <v>927.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
-        <v>926.65</v>
-      </c>
-      <c r="N157" t="n">
-        <v>926.5</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8300,28 +6488,12 @@
         <v>0</v>
       </c>
       <c r="I158" t="n">
-        <v>17</v>
-      </c>
-      <c r="J158" t="n">
-        <v>195</v>
-      </c>
-      <c r="K158" t="n">
-        <v>25</v>
-      </c>
-      <c r="L158" t="n">
-        <v>927.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
-        <v>926.85</v>
-      </c>
-      <c r="N158" t="n">
-        <v>926.5666666666667</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8351,28 +6523,12 @@
         <v>0</v>
       </c>
       <c r="I159" t="n">
-        <v>17</v>
-      </c>
-      <c r="J159" t="n">
-        <v>195</v>
-      </c>
-      <c r="K159" t="n">
-        <v>25</v>
-      </c>
-      <c r="L159" t="n">
-        <v>927.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
-        <v>927</v>
-      </c>
-      <c r="N159" t="n">
-        <v>926.6333333333333</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8402,28 +6558,12 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>18</v>
-      </c>
-      <c r="J160" t="n">
-        <v>196</v>
-      </c>
-      <c r="K160" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L160" t="n">
-        <v>928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
-        <v>927.2</v>
-      </c>
-      <c r="N160" t="n">
-        <v>926.8</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8453,28 +6593,12 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>16</v>
-      </c>
-      <c r="J161" t="n">
-        <v>198</v>
-      </c>
-      <c r="K161" t="n">
-        <v>50</v>
-      </c>
-      <c r="L161" t="n">
-        <v>928.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
-        <v>927.3</v>
-      </c>
-      <c r="N161" t="n">
-        <v>926.8333333333334</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8504,28 +6628,12 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>16</v>
-      </c>
-      <c r="J162" t="n">
-        <v>198</v>
-      </c>
-      <c r="K162" t="n">
-        <v>20</v>
-      </c>
-      <c r="L162" t="n">
-        <v>928.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
-        <v>927.4</v>
-      </c>
-      <c r="N162" t="n">
-        <v>926.9333333333333</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8555,28 +6663,12 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>15</v>
-      </c>
-      <c r="J163" t="n">
-        <v>199</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0</v>
-      </c>
-      <c r="L163" t="n">
-        <v>928.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
-        <v>927.5</v>
-      </c>
-      <c r="N163" t="n">
-        <v>927.0333333333333</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8606,28 +6698,12 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>15</v>
-      </c>
-      <c r="J164" t="n">
-        <v>199</v>
-      </c>
-      <c r="K164" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L164" t="n">
-        <v>928.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
-        <v>927.55</v>
-      </c>
-      <c r="N164" t="n">
-        <v>926.9666666666667</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8657,28 +6733,12 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>16</v>
-      </c>
-      <c r="J165" t="n">
-        <v>200</v>
-      </c>
-      <c r="K165" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L165" t="n">
-        <v>928.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
-        <v>927.65</v>
-      </c>
-      <c r="N165" t="n">
-        <v>926.9333333333333</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8708,28 +6768,12 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>15</v>
-      </c>
-      <c r="J166" t="n">
-        <v>201</v>
-      </c>
-      <c r="K166" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L166" t="n">
-        <v>928.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
-        <v>927.65</v>
-      </c>
-      <c r="N166" t="n">
-        <v>926.9666666666667</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8759,28 +6803,12 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>15</v>
-      </c>
-      <c r="J167" t="n">
-        <v>201</v>
-      </c>
-      <c r="K167" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L167" t="n">
-        <v>928</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
-        <v>927.65</v>
-      </c>
-      <c r="N167" t="n">
-        <v>927.1</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8810,28 +6838,12 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>12</v>
-      </c>
-      <c r="J168" t="n">
-        <v>204</v>
-      </c>
-      <c r="K168" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L168" t="n">
-        <v>927.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
-        <v>927.5</v>
-      </c>
-      <c r="N168" t="n">
-        <v>927.0666666666667</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8861,28 +6873,12 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>8</v>
-      </c>
-      <c r="J169" t="n">
-        <v>208</v>
-      </c>
-      <c r="K169" t="n">
-        <v>-83.33333333333334</v>
-      </c>
-      <c r="L169" t="n">
-        <v>926.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
-        <v>927.15</v>
-      </c>
-      <c r="N169" t="n">
-        <v>926.8666666666667</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8912,28 +6908,12 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>6</v>
-      </c>
-      <c r="J170" t="n">
-        <v>210</v>
-      </c>
-      <c r="K170" t="n">
-        <v>-83.33333333333334</v>
-      </c>
-      <c r="L170" t="n">
-        <v>925.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
-        <v>926.7</v>
-      </c>
-      <c r="N170" t="n">
-        <v>926.6</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8963,28 +6943,12 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>6</v>
-      </c>
-      <c r="J171" t="n">
-        <v>210</v>
-      </c>
-      <c r="K171" t="n">
-        <v>-83.33333333333334</v>
-      </c>
-      <c r="L171" t="n">
-        <v>924.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
-        <v>926.25</v>
-      </c>
-      <c r="N171" t="n">
-        <v>926.3333333333334</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9014,28 +6978,12 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>6</v>
-      </c>
-      <c r="J172" t="n">
-        <v>210</v>
-      </c>
-      <c r="K172" t="n">
-        <v>-81.81818181818183</v>
-      </c>
-      <c r="L172" t="n">
-        <v>923.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
-        <v>925.95</v>
-      </c>
-      <c r="N172" t="n">
-        <v>926.0666666666667</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9065,28 +7013,12 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>4</v>
-      </c>
-      <c r="J173" t="n">
-        <v>212</v>
-      </c>
-      <c r="K173" t="n">
-        <v>-84.61538461538461</v>
-      </c>
-      <c r="L173" t="n">
-        <v>922.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
-        <v>925.4</v>
-      </c>
-      <c r="N173" t="n">
-        <v>925.7666666666667</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9116,28 +7048,12 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>6</v>
-      </c>
-      <c r="J174" t="n">
-        <v>214</v>
-      </c>
-      <c r="K174" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L174" t="n">
-        <v>921.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
-        <v>924.95</v>
-      </c>
-      <c r="N174" t="n">
-        <v>925.5</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9167,28 +7083,12 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>2</v>
-      </c>
-      <c r="J175" t="n">
-        <v>218</v>
-      </c>
-      <c r="K175" t="n">
-        <v>-76.47058823529412</v>
-      </c>
-      <c r="L175" t="n">
-        <v>920</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
-        <v>924.2</v>
-      </c>
-      <c r="N175" t="n">
-        <v>925.1</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9218,28 +7118,12 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>2</v>
-      </c>
-      <c r="J176" t="n">
-        <v>218</v>
-      </c>
-      <c r="K176" t="n">
-        <v>-76.47058823529412</v>
-      </c>
-      <c r="L176" t="n">
-        <v>918.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
-        <v>923.45</v>
-      </c>
-      <c r="N176" t="n">
-        <v>924.6666666666666</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9269,28 +7153,12 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>5</v>
-      </c>
-      <c r="J177" t="n">
-        <v>221</v>
-      </c>
-      <c r="K177" t="n">
-        <v>-41.17647058823529</v>
-      </c>
-      <c r="L177" t="n">
-        <v>917.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
-        <v>922.85</v>
-      </c>
-      <c r="N177" t="n">
-        <v>924.3333333333334</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9320,28 +7188,12 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>4</v>
-      </c>
-      <c r="J178" t="n">
-        <v>222</v>
-      </c>
-      <c r="K178" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L178" t="n">
-        <v>916.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
-        <v>922.2</v>
-      </c>
-      <c r="N178" t="n">
-        <v>923.9666666666667</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9371,28 +7223,12 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>6</v>
-      </c>
-      <c r="J179" t="n">
-        <v>224</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0</v>
-      </c>
-      <c r="L179" t="n">
-        <v>916.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
-        <v>921.65</v>
-      </c>
-      <c r="N179" t="n">
-        <v>923.6666666666666</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9422,28 +7258,12 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>4</v>
-      </c>
-      <c r="J180" t="n">
-        <v>226</v>
-      </c>
-      <c r="K180" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L180" t="n">
-        <v>916.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
-        <v>920.95</v>
-      </c>
-      <c r="N180" t="n">
-        <v>923.3</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9475,26 +7295,10 @@
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>230</v>
-      </c>
-      <c r="K181" t="n">
-        <v>-30</v>
-      </c>
-      <c r="L181" t="n">
-        <v>915.9</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
-        <v>920.15</v>
-      </c>
-      <c r="N181" t="n">
-        <v>922.8</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9524,28 +7328,12 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>1</v>
-      </c>
-      <c r="J182" t="n">
-        <v>231</v>
-      </c>
-      <c r="K182" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L182" t="n">
-        <v>915.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
-        <v>919.4</v>
-      </c>
-      <c r="N182" t="n">
-        <v>922.4333333333333</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9575,28 +7363,12 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>1</v>
-      </c>
-      <c r="J183" t="n">
-        <v>231</v>
-      </c>
-      <c r="K183" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L183" t="n">
-        <v>915.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
-        <v>918.7</v>
-      </c>
-      <c r="N183" t="n">
-        <v>921.9666666666667</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9628,26 +7400,10 @@
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>232</v>
-      </c>
-      <c r="K184" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L184" t="n">
-        <v>914.5</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
-        <v>917.95</v>
-      </c>
-      <c r="N184" t="n">
-        <v>921.4666666666667</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9677,28 +7433,12 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J185" t="n">
-        <v>233</v>
-      </c>
-      <c r="K185" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L185" t="n">
-        <v>914.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
-        <v>917.1</v>
-      </c>
-      <c r="N185" t="n">
-        <v>920.8666666666667</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9725,31 +7465,21 @@
         <v>923.3666666666667</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J186" t="n">
-        <v>236</v>
-      </c>
-      <c r="K186" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L186" t="n">
-        <v>914.2</v>
+        <v>912</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M186" t="n">
-        <v>916.45</v>
-      </c>
-      <c r="N186" t="n">
-        <v>920.3666666666667</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9776,31 +7506,21 @@
         <v>923.1333333333333</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="n">
-        <v>239</v>
-      </c>
-      <c r="K187" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L187" t="n">
-        <v>913.6</v>
+        <v>911</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M187" t="n">
-        <v>915.65</v>
-      </c>
-      <c r="N187" t="n">
-        <v>919.7666666666667</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9827,31 +7547,21 @@
         <v>922.9166666666666</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>242</v>
-      </c>
-      <c r="K188" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L188" t="n">
-        <v>913.4</v>
+        <v>911</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M188" t="n">
-        <v>915.15</v>
-      </c>
-      <c r="N188" t="n">
-        <v>919.2666666666667</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9878,31 +7588,21 @@
         <v>922.7</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>242</v>
-      </c>
-      <c r="K189" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L189" t="n">
-        <v>913</v>
+        <v>914</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M189" t="n">
-        <v>914.85</v>
-      </c>
-      <c r="N189" t="n">
-        <v>918.7666666666667</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9929,31 +7629,21 @@
         <v>922.5166666666667</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J190" t="n">
-        <v>242</v>
-      </c>
-      <c r="K190" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L190" t="n">
-        <v>912.8</v>
+        <v>914</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M190" t="n">
-        <v>914.65</v>
-      </c>
-      <c r="N190" t="n">
-        <v>918.2333333333333</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9980,31 +7670,21 @@
         <v>922.3</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>242</v>
-      </c>
-      <c r="K191" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L191" t="n">
-        <v>913</v>
+        <v>914</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M191" t="n">
-        <v>914.45</v>
-      </c>
-      <c r="N191" t="n">
-        <v>917.7666666666667</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10031,31 +7711,21 @@
         <v>922.1333333333333</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>243</v>
-      </c>
-      <c r="K192" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L192" t="n">
-        <v>913.2</v>
+        <v>915</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M192" t="n">
-        <v>914.3</v>
-      </c>
-      <c r="N192" t="n">
-        <v>917.3333333333334</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10082,31 +7752,21 @@
         <v>921.9</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J193" t="n">
-        <v>248</v>
-      </c>
-      <c r="K193" t="n">
-        <v>-12.5</v>
-      </c>
-      <c r="L193" t="n">
-        <v>912.9</v>
+        <v>912</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M193" t="n">
-        <v>914</v>
-      </c>
-      <c r="N193" t="n">
-        <v>916.7666666666667</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10133,31 +7793,21 @@
         <v>921.6</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>249</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0</v>
-      </c>
-      <c r="L194" t="n">
-        <v>912.8</v>
+        <v>911</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M194" t="n">
-        <v>913.65</v>
-      </c>
-      <c r="N194" t="n">
-        <v>916.2333333333333</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10184,31 +7834,21 @@
         <v>921.35</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>252</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L195" t="n">
-        <v>913.1</v>
+        <v>913</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M195" t="n">
-        <v>913.65</v>
-      </c>
-      <c r="N195" t="n">
-        <v>915.7666666666667</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10235,1102 +7875,21 @@
         <v>921.15</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J196" t="n">
-        <v>252</v>
-      </c>
-      <c r="K196" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L196" t="n">
-        <v>913.1</v>
+        <v>914</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M196" t="n">
-        <v>913.65</v>
-      </c>
-      <c r="N196" t="n">
-        <v>915.3333333333334</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>914</v>
-      </c>
-      <c r="C197" t="n">
-        <v>914</v>
-      </c>
-      <c r="D197" t="n">
-        <v>914</v>
-      </c>
-      <c r="E197" t="n">
-        <v>914</v>
-      </c>
-      <c r="F197" t="n">
-        <v>307.0677</v>
-      </c>
-      <c r="G197" t="n">
-        <v>921</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>2</v>
-      </c>
-      <c r="J197" t="n">
-        <v>252</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0</v>
-      </c>
-      <c r="L197" t="n">
-        <v>913.4</v>
-      </c>
-      <c r="M197" t="n">
-        <v>913.5</v>
-      </c>
-      <c r="N197" t="n">
-        <v>914.9</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>914</v>
-      </c>
-      <c r="C198" t="n">
-        <v>914</v>
-      </c>
-      <c r="D198" t="n">
-        <v>914</v>
-      </c>
-      <c r="E198" t="n">
-        <v>914</v>
-      </c>
-      <c r="F198" t="n">
-        <v>753.2527</v>
-      </c>
-      <c r="G198" t="n">
-        <v>920.8166666666667</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>2</v>
-      </c>
-      <c r="J198" t="n">
-        <v>252</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0</v>
-      </c>
-      <c r="L198" t="n">
-        <v>913.4</v>
-      </c>
-      <c r="M198" t="n">
-        <v>913.4</v>
-      </c>
-      <c r="N198" t="n">
-        <v>914.5666666666667</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>915</v>
-      </c>
-      <c r="C199" t="n">
-        <v>914</v>
-      </c>
-      <c r="D199" t="n">
-        <v>915</v>
-      </c>
-      <c r="E199" t="n">
-        <v>911</v>
-      </c>
-      <c r="F199" t="n">
-        <v>1248.732</v>
-      </c>
-      <c r="G199" t="n">
-        <v>920.6166666666667</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>2</v>
-      </c>
-      <c r="J199" t="n">
-        <v>252</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0</v>
-      </c>
-      <c r="L199" t="n">
-        <v>913.4</v>
-      </c>
-      <c r="M199" t="n">
-        <v>913.2</v>
-      </c>
-      <c r="N199" t="n">
-        <v>914.3666666666667</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>914</v>
-      </c>
-      <c r="C200" t="n">
-        <v>916</v>
-      </c>
-      <c r="D200" t="n">
-        <v>916</v>
-      </c>
-      <c r="E200" t="n">
-        <v>914</v>
-      </c>
-      <c r="F200" t="n">
-        <v>543.596</v>
-      </c>
-      <c r="G200" t="n">
-        <v>920.45</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>4</v>
-      </c>
-      <c r="J200" t="n">
-        <v>254</v>
-      </c>
-      <c r="K200" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L200" t="n">
-        <v>913.6</v>
-      </c>
-      <c r="M200" t="n">
-        <v>913.2</v>
-      </c>
-      <c r="N200" t="n">
-        <v>914.3</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>915</v>
-      </c>
-      <c r="C201" t="n">
-        <v>915</v>
-      </c>
-      <c r="D201" t="n">
-        <v>915</v>
-      </c>
-      <c r="E201" t="n">
-        <v>915</v>
-      </c>
-      <c r="F201" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G201" t="n">
-        <v>920.2666666666667</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>3</v>
-      </c>
-      <c r="J201" t="n">
-        <v>255</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0</v>
-      </c>
-      <c r="L201" t="n">
-        <v>913.7</v>
-      </c>
-      <c r="M201" t="n">
-        <v>913.35</v>
-      </c>
-      <c r="N201" t="n">
-        <v>914.2</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>917</v>
-      </c>
-      <c r="C202" t="n">
-        <v>917</v>
-      </c>
-      <c r="D202" t="n">
-        <v>917</v>
-      </c>
-      <c r="E202" t="n">
-        <v>917</v>
-      </c>
-      <c r="F202" t="n">
-        <v>186.5757</v>
-      </c>
-      <c r="G202" t="n">
-        <v>920.1166666666667</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>5</v>
-      </c>
-      <c r="J202" t="n">
-        <v>257</v>
-      </c>
-      <c r="K202" t="n">
-        <v>77.77777777777779</v>
-      </c>
-      <c r="L202" t="n">
-        <v>913.9</v>
-      </c>
-      <c r="M202" t="n">
-        <v>913.55</v>
-      </c>
-      <c r="N202" t="n">
-        <v>914.1666666666666</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>917</v>
-      </c>
-      <c r="C203" t="n">
-        <v>917</v>
-      </c>
-      <c r="D203" t="n">
-        <v>917</v>
-      </c>
-      <c r="E203" t="n">
-        <v>917</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1889.2147</v>
-      </c>
-      <c r="G203" t="n">
-        <v>919.9833333333333</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>5</v>
-      </c>
-      <c r="J203" t="n">
-        <v>257</v>
-      </c>
-      <c r="K203" t="n">
-        <v>75</v>
-      </c>
-      <c r="L203" t="n">
-        <v>914.6</v>
-      </c>
-      <c r="M203" t="n">
-        <v>913.75</v>
-      </c>
-      <c r="N203" t="n">
-        <v>914.2</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>913</v>
-      </c>
-      <c r="C204" t="n">
-        <v>913</v>
-      </c>
-      <c r="D204" t="n">
-        <v>913</v>
-      </c>
-      <c r="E204" t="n">
-        <v>913</v>
-      </c>
-      <c r="F204" t="n">
-        <v>22.6449</v>
-      </c>
-      <c r="G204" t="n">
-        <v>919.7666666666667</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>1</v>
-      </c>
-      <c r="J204" t="n">
-        <v>261</v>
-      </c>
-      <c r="K204" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L204" t="n">
-        <v>914.8</v>
-      </c>
-      <c r="M204" t="n">
-        <v>913.8</v>
-      </c>
-      <c r="N204" t="n">
-        <v>914.0333333333333</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>913</v>
-      </c>
-      <c r="C205" t="n">
-        <v>913</v>
-      </c>
-      <c r="D205" t="n">
-        <v>913</v>
-      </c>
-      <c r="E205" t="n">
-        <v>913</v>
-      </c>
-      <c r="F205" t="n">
-        <v>36.5376</v>
-      </c>
-      <c r="G205" t="n">
-        <v>919.55</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>1</v>
-      </c>
-      <c r="J205" t="n">
-        <v>261</v>
-      </c>
-      <c r="K205" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L205" t="n">
-        <v>914.7</v>
-      </c>
-      <c r="M205" t="n">
-        <v>913.9</v>
-      </c>
-      <c r="N205" t="n">
-        <v>914</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>914</v>
-      </c>
-      <c r="C206" t="n">
-        <v>914</v>
-      </c>
-      <c r="D206" t="n">
-        <v>914</v>
-      </c>
-      <c r="E206" t="n">
-        <v>914</v>
-      </c>
-      <c r="F206" t="n">
-        <v>36.2151</v>
-      </c>
-      <c r="G206" t="n">
-        <v>919.3333333333334</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>2</v>
-      </c>
-      <c r="J206" t="n">
-        <v>262</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0</v>
-      </c>
-      <c r="L206" t="n">
-        <v>914.7</v>
-      </c>
-      <c r="M206" t="n">
-        <v>913.9</v>
-      </c>
-      <c r="N206" t="n">
-        <v>914</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>915</v>
-      </c>
-      <c r="C207" t="n">
-        <v>916</v>
-      </c>
-      <c r="D207" t="n">
-        <v>916</v>
-      </c>
-      <c r="E207" t="n">
-        <v>915</v>
-      </c>
-      <c r="F207" t="n">
-        <v>88.61790000000001</v>
-      </c>
-      <c r="G207" t="n">
-        <v>919.15</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>4</v>
-      </c>
-      <c r="J207" t="n">
-        <v>264</v>
-      </c>
-      <c r="K207" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L207" t="n">
-        <v>914.9</v>
-      </c>
-      <c r="M207" t="n">
-        <v>914.15</v>
-      </c>
-      <c r="N207" t="n">
-        <v>913.9666666666667</v>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>917</v>
-      </c>
-      <c r="C208" t="n">
-        <v>917</v>
-      </c>
-      <c r="D208" t="n">
-        <v>917</v>
-      </c>
-      <c r="E208" t="n">
-        <v>917</v>
-      </c>
-      <c r="F208" t="n">
-        <v>11.3838</v>
-      </c>
-      <c r="G208" t="n">
-        <v>918.9833333333333</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>5</v>
-      </c>
-      <c r="J208" t="n">
-        <v>265</v>
-      </c>
-      <c r="K208" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L208" t="n">
-        <v>915.2</v>
-      </c>
-      <c r="M208" t="n">
-        <v>914.3</v>
-      </c>
-      <c r="N208" t="n">
-        <v>914</v>
-      </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>913</v>
-      </c>
-      <c r="C209" t="n">
-        <v>913</v>
-      </c>
-      <c r="D209" t="n">
-        <v>913</v>
-      </c>
-      <c r="E209" t="n">
-        <v>913</v>
-      </c>
-      <c r="F209" t="n">
-        <v>5.6776</v>
-      </c>
-      <c r="G209" t="n">
-        <v>918.75</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
-      <c r="J209" t="n">
-        <v>269</v>
-      </c>
-      <c r="K209" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L209" t="n">
-        <v>915.1</v>
-      </c>
-      <c r="M209" t="n">
-        <v>914.25</v>
-      </c>
-      <c r="N209" t="n">
-        <v>913.8333333333334</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>917</v>
-      </c>
-      <c r="C210" t="n">
-        <v>917</v>
-      </c>
-      <c r="D210" t="n">
-        <v>917</v>
-      </c>
-      <c r="E210" t="n">
-        <v>917</v>
-      </c>
-      <c r="F210" t="n">
-        <v>54.52562704471102</v>
-      </c>
-      <c r="G210" t="n">
-        <v>918.5833333333334</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>5</v>
-      </c>
-      <c r="J210" t="n">
-        <v>273</v>
-      </c>
-      <c r="K210" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L210" t="n">
-        <v>915.2</v>
-      </c>
-      <c r="M210" t="n">
-        <v>914.4</v>
-      </c>
-      <c r="N210" t="n">
-        <v>913.8666666666667</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>913</v>
-      </c>
-      <c r="C211" t="n">
-        <v>913</v>
-      </c>
-      <c r="D211" t="n">
-        <v>913</v>
-      </c>
-      <c r="E211" t="n">
-        <v>913</v>
-      </c>
-      <c r="F211" t="n">
-        <v>73.5663</v>
-      </c>
-      <c r="G211" t="n">
-        <v>918.35</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>1</v>
-      </c>
-      <c r="J211" t="n">
-        <v>277</v>
-      </c>
-      <c r="K211" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L211" t="n">
-        <v>915</v>
-      </c>
-      <c r="M211" t="n">
-        <v>914.35</v>
-      </c>
-      <c r="N211" t="n">
-        <v>913.9</v>
-      </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>913</v>
-      </c>
-      <c r="C212" t="n">
-        <v>913</v>
-      </c>
-      <c r="D212" t="n">
-        <v>913</v>
-      </c>
-      <c r="E212" t="n">
-        <v>913</v>
-      </c>
-      <c r="F212" t="n">
-        <v>42.5452</v>
-      </c>
-      <c r="G212" t="n">
-        <v>918.1666666666666</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
-      <c r="J212" t="n">
-        <v>277</v>
-      </c>
-      <c r="K212" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L212" t="n">
-        <v>914.6</v>
-      </c>
-      <c r="M212" t="n">
-        <v>914.25</v>
-      </c>
-      <c r="N212" t="n">
-        <v>913.9</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>913</v>
-      </c>
-      <c r="C213" t="n">
-        <v>912</v>
-      </c>
-      <c r="D213" t="n">
-        <v>913</v>
-      </c>
-      <c r="E213" t="n">
-        <v>912</v>
-      </c>
-      <c r="F213" t="n">
-        <v>457.2048</v>
-      </c>
-      <c r="G213" t="n">
-        <v>917.9166666666666</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="n">
-        <v>278</v>
-      </c>
-      <c r="K213" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L213" t="n">
-        <v>914.1</v>
-      </c>
-      <c r="M213" t="n">
-        <v>914.35</v>
-      </c>
-      <c r="N213" t="n">
-        <v>913.8666666666667</v>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>911</v>
-      </c>
-      <c r="C214" t="n">
-        <v>911</v>
-      </c>
-      <c r="D214" t="n">
-        <v>911</v>
-      </c>
-      <c r="E214" t="n">
-        <v>911</v>
-      </c>
-      <c r="F214" t="n">
-        <v>317.547</v>
-      </c>
-      <c r="G214" t="n">
-        <v>917.65</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J214" t="n">
-        <v>279</v>
-      </c>
-      <c r="K214" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L214" t="n">
-        <v>913.9</v>
-      </c>
-      <c r="M214" t="n">
-        <v>914.35</v>
-      </c>
-      <c r="N214" t="n">
-        <v>913.8333333333334</v>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>910</v>
-      </c>
-      <c r="C215" t="n">
-        <v>910</v>
-      </c>
-      <c r="D215" t="n">
-        <v>910</v>
-      </c>
-      <c r="E215" t="n">
-        <v>910</v>
-      </c>
-      <c r="F215" t="n">
-        <v>22.9228</v>
-      </c>
-      <c r="G215" t="n">
-        <v>917.3333333333334</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J215" t="n">
-        <v>280</v>
-      </c>
-      <c r="K215" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L215" t="n">
-        <v>913.6</v>
-      </c>
-      <c r="M215" t="n">
-        <v>914.15</v>
-      </c>
-      <c r="N215" t="n">
-        <v>913.8</v>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>910</v>
-      </c>
-      <c r="C216" t="n">
-        <v>910</v>
-      </c>
-      <c r="D216" t="n">
-        <v>910</v>
-      </c>
-      <c r="E216" t="n">
-        <v>910</v>
-      </c>
-      <c r="F216" t="n">
-        <v>22.1268</v>
-      </c>
-      <c r="G216" t="n">
-        <v>917.0166666666667</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J216" t="n">
-        <v>280</v>
-      </c>
-      <c r="K216" t="n">
-        <v>-37.5</v>
-      </c>
-      <c r="L216" t="n">
-        <v>913.2</v>
-      </c>
-      <c r="M216" t="n">
-        <v>913.95</v>
-      </c>
-      <c r="N216" t="n">
-        <v>913.6666666666666</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>910</v>
-      </c>
-      <c r="C217" t="n">
-        <v>910</v>
-      </c>
-      <c r="D217" t="n">
-        <v>910</v>
-      </c>
-      <c r="E217" t="n">
-        <v>910</v>
-      </c>
-      <c r="F217" t="n">
-        <v>90.917</v>
-      </c>
-      <c r="G217" t="n">
-        <v>916.7</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J217" t="n">
-        <v>280</v>
-      </c>
-      <c r="K217" t="n">
-        <v>-46.66666666666666</v>
-      </c>
-      <c r="L217" t="n">
-        <v>912.6</v>
-      </c>
-      <c r="M217" t="n">
-        <v>913.75</v>
-      </c>
-      <c r="N217" t="n">
-        <v>913.6333333333333</v>
-      </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-25 BackTest OMG.xlsx
+++ b/BackTest/2019-10-25 BackTest OMG.xlsx
@@ -454,14 +454,10 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>912</v>
-      </c>
-      <c r="K2" t="n">
-        <v>912</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -493,14 +489,12 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>911</v>
-      </c>
-      <c r="K3" t="n">
         <v>912</v>
       </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -533,17 +527,13 @@
         <v>905.3</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>913</v>
-      </c>
-      <c r="K4" t="n">
-        <v>912</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -576,17 +566,13 @@
         <v>906.2</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>908</v>
-      </c>
-      <c r="K5" t="n">
-        <v>912</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -619,17 +605,13 @@
         <v>907.1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>912</v>
-      </c>
-      <c r="K6" t="n">
-        <v>912</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -662,17 +644,13 @@
         <v>908.05</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>913</v>
-      </c>
-      <c r="K7" t="n">
-        <v>912</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -705,17 +683,13 @@
         <v>908.95</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>912</v>
-      </c>
-      <c r="K8" t="n">
-        <v>912</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -748,17 +722,13 @@
         <v>909.85</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>912</v>
-      </c>
-      <c r="K9" t="n">
-        <v>912</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -791,17 +761,13 @@
         <v>910.6833333333333</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>912</v>
-      </c>
-      <c r="K10" t="n">
-        <v>912</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -834,17 +800,13 @@
         <v>911.55</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>910</v>
-      </c>
-      <c r="K11" t="n">
-        <v>912</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -877,17 +839,13 @@
         <v>912.1166666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>908</v>
-      </c>
-      <c r="K12" t="n">
-        <v>912</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -920,17 +878,13 @@
         <v>912.1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>910</v>
-      </c>
-      <c r="K13" t="n">
-        <v>912</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -963,17 +917,13 @@
         <v>912</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>908</v>
-      </c>
-      <c r="K14" t="n">
-        <v>912</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1006,17 +956,13 @@
         <v>911.9666666666667</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>908</v>
-      </c>
-      <c r="K15" t="n">
-        <v>912</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1049,17 +995,13 @@
         <v>911.95</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>906</v>
-      </c>
-      <c r="K16" t="n">
-        <v>912</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1092,17 +1034,13 @@
         <v>912.0666666666667</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>905</v>
-      </c>
-      <c r="K17" t="n">
-        <v>912</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1135,17 +1073,13 @@
         <v>912.0833333333334</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>901</v>
-      </c>
-      <c r="K18" t="n">
-        <v>912</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1178,17 +1112,13 @@
         <v>911.95</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>906</v>
-      </c>
-      <c r="K19" t="n">
-        <v>912</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1221,17 +1151,13 @@
         <v>911.9333333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>908</v>
-      </c>
-      <c r="K20" t="n">
-        <v>912</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1264,17 +1190,13 @@
         <v>911.85</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>906</v>
-      </c>
-      <c r="K21" t="n">
-        <v>912</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1307,17 +1229,13 @@
         <v>911.8333333333334</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>909</v>
-      </c>
-      <c r="K22" t="n">
-        <v>912</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1350,17 +1268,13 @@
         <v>912</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>911</v>
-      </c>
-      <c r="K23" t="n">
-        <v>912</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1393,17 +1307,13 @@
         <v>912.1833333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>911</v>
-      </c>
-      <c r="K24" t="n">
-        <v>912</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1436,17 +1346,13 @@
         <v>912.1166666666667</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>906</v>
-      </c>
-      <c r="K25" t="n">
-        <v>912</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1479,17 +1385,13 @@
         <v>912.1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>910</v>
-      </c>
-      <c r="K26" t="n">
-        <v>912</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1522,17 +1424,13 @@
         <v>912.0833333333334</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>911</v>
-      </c>
-      <c r="K27" t="n">
-        <v>912</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1565,17 +1463,13 @@
         <v>912</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>910</v>
-      </c>
-      <c r="K28" t="n">
-        <v>912</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1608,17 +1502,13 @@
         <v>911.8666666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>909</v>
-      </c>
-      <c r="K29" t="n">
-        <v>912</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1651,17 +1541,13 @@
         <v>911.7166666666667</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>909</v>
-      </c>
-      <c r="K30" t="n">
-        <v>912</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1702,9 +1588,7 @@
       <c r="J31" t="n">
         <v>909</v>
       </c>
-      <c r="K31" t="n">
-        <v>912</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1737,17 +1621,13 @@
         <v>911.4833333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>909</v>
-      </c>
-      <c r="K32" t="n">
-        <v>912</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1780,17 +1660,13 @@
         <v>911.4833333333333</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>909</v>
-      </c>
-      <c r="K33" t="n">
-        <v>912</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1823,17 +1699,13 @@
         <v>911.4666666666667</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>908</v>
-      </c>
-      <c r="K34" t="n">
-        <v>912</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1866,17 +1738,13 @@
         <v>911.35</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>908</v>
-      </c>
-      <c r="K35" t="n">
-        <v>912</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1915,11 +1783,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>907</v>
-      </c>
-      <c r="K36" t="n">
-        <v>912</v>
-      </c>
+        <v>908</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1958,11 +1824,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>906</v>
-      </c>
-      <c r="K37" t="n">
-        <v>912</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2003,9 +1867,7 @@
       <c r="J38" t="n">
         <v>907</v>
       </c>
-      <c r="K38" t="n">
-        <v>912</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2044,11 +1906,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>906</v>
-      </c>
-      <c r="K39" t="n">
-        <v>912</v>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2081,17 +1941,13 @@
         <v>910.75</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>906</v>
-      </c>
-      <c r="K40" t="n">
-        <v>912</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2130,11 +1986,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>909</v>
-      </c>
-      <c r="K41" t="n">
-        <v>912</v>
-      </c>
+        <v>906</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2167,17 +2021,13 @@
         <v>910.35</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>910</v>
-      </c>
-      <c r="K42" t="n">
-        <v>912</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2210,17 +2060,13 @@
         <v>910.2166666666667</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>911</v>
-      </c>
-      <c r="K43" t="n">
-        <v>912</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2253,17 +2099,13 @@
         <v>910.0333333333333</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>911</v>
-      </c>
-      <c r="K44" t="n">
-        <v>912</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2296,17 +2138,13 @@
         <v>909.8333333333334</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>911</v>
-      </c>
-      <c r="K45" t="n">
-        <v>912</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2339,17 +2177,13 @@
         <v>909.7833333333333</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>915</v>
-      </c>
-      <c r="K46" t="n">
-        <v>912</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2382,17 +2216,13 @@
         <v>909.8666666666667</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>915</v>
-      </c>
-      <c r="K47" t="n">
-        <v>912</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2425,17 +2255,13 @@
         <v>909.85</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>913</v>
-      </c>
-      <c r="K48" t="n">
-        <v>912</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2468,25 +2294,19 @@
         <v>909.7833333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
-      <c r="J49" t="n">
-        <v>912</v>
-      </c>
-      <c r="K49" t="n">
-        <v>912</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>0.995</v>
-      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2511,22 +2331,14 @@
         <v>909.7166666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>913</v>
-      </c>
-      <c r="K50" t="n">
-        <v>912</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2554,22 +2366,14 @@
         <v>909.7</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>914</v>
-      </c>
-      <c r="K51" t="n">
-        <v>912</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2597,17 +2401,13 @@
         <v>909.75</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>914</v>
-      </c>
-      <c r="K52" t="n">
-        <v>914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
@@ -2636,22 +2436,14 @@
         <v>909.8166666666667</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>913</v>
-      </c>
-      <c r="K53" t="n">
-        <v>914</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2679,22 +2471,14 @@
         <v>910</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>918</v>
-      </c>
-      <c r="K54" t="n">
-        <v>914</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2722,17 +2506,13 @@
         <v>910.1</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>918</v>
-      </c>
-      <c r="K55" t="n">
-        <v>918</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
@@ -2761,22 +2541,14 @@
         <v>910.1333333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
-      <c r="J56" t="n">
-        <v>913</v>
-      </c>
-      <c r="K56" t="n">
-        <v>918</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2810,14 +2582,8 @@
         <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>918</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2845,17 +2611,13 @@
         <v>910.3166666666667</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>918</v>
-      </c>
-      <c r="K58" t="n">
-        <v>918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
@@ -2884,22 +2646,14 @@
         <v>910.3833333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>917</v>
-      </c>
-      <c r="K59" t="n">
-        <v>918</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2930,17 +2684,11 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>918</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2971,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -3003,17 +2751,13 @@
         <v>910.6666666666666</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>915</v>
-      </c>
-      <c r="K62" t="n">
-        <v>915</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
@@ -3042,22 +2786,14 @@
         <v>910.6833333333333</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>914</v>
-      </c>
-      <c r="K63" t="n">
-        <v>915</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3085,22 +2821,14 @@
         <v>910.7666666666667</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>914</v>
-      </c>
-      <c r="K64" t="n">
-        <v>915</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3128,17 +2856,13 @@
         <v>910.85</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>917</v>
-      </c>
-      <c r="K65" t="n">
-        <v>917</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
@@ -3167,22 +2891,14 @@
         <v>910.8666666666667</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>913</v>
-      </c>
-      <c r="K66" t="n">
-        <v>917</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3216,14 +2932,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>917</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3251,22 +2961,14 @@
         <v>910.9166666666666</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>914</v>
-      </c>
-      <c r="K68" t="n">
-        <v>917</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3294,22 +2996,14 @@
         <v>910.9333333333333</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>913</v>
-      </c>
-      <c r="K69" t="n">
-        <v>917</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3337,22 +3031,14 @@
         <v>911.0333333333333</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>913</v>
-      </c>
-      <c r="K70" t="n">
-        <v>917</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3380,22 +3066,14 @@
         <v>911.0666666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>914</v>
-      </c>
-      <c r="K71" t="n">
-        <v>917</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3423,22 +3101,14 @@
         <v>911.1666666666666</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>914</v>
-      </c>
-      <c r="K72" t="n">
-        <v>917</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3466,22 +3136,14 @@
         <v>911.2333333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>914</v>
-      </c>
-      <c r="K73" t="n">
-        <v>917</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3509,22 +3171,14 @@
         <v>911.4333333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>916</v>
-      </c>
-      <c r="K74" t="n">
-        <v>917</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3552,22 +3206,14 @@
         <v>911.6</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>917</v>
-      </c>
-      <c r="K75" t="n">
-        <v>917</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3595,22 +3241,14 @@
         <v>911.8166666666667</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>918</v>
-      </c>
-      <c r="K76" t="n">
-        <v>917</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3641,19 +3279,13 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>917</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>0.9960905125408942</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3682,17 +3314,11 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>918</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3723,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3758,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3793,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3828,7 +3454,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3863,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3898,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3933,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -4073,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -4248,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -7465,20 +7091,14 @@
         <v>923.3666666666667</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>912</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7506,20 +7126,14 @@
         <v>923.1333333333333</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>911</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7547,20 +7161,14 @@
         <v>922.9166666666666</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>911</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7588,20 +7196,14 @@
         <v>922.7</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>914</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7629,20 +7231,14 @@
         <v>922.5166666666667</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>914</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7670,20 +7266,14 @@
         <v>922.3</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>914</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7711,20 +7301,14 @@
         <v>922.1333333333333</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>915</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7752,20 +7336,14 @@
         <v>921.9</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>912</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7793,20 +7371,14 @@
         <v>921.6</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>911</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7834,20 +7406,14 @@
         <v>921.35</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>913</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7875,20 +7441,14 @@
         <v>921.15</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>914</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-25 BackTest OMG.xlsx
+++ b/BackTest/2019-10-25 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M196"/>
+  <dimension ref="A1:M197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="C2" t="n">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="D2" t="n">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="E2" t="n">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="F2" t="n">
-        <v>20.9</v>
+        <v>334.3888</v>
       </c>
       <c r="G2" t="n">
-        <v>903.5833333333334</v>
+        <v>902.7333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C3" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D3" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E3" t="n">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="F3" t="n">
-        <v>705.6678000000001</v>
+        <v>20.9</v>
       </c>
       <c r="G3" t="n">
-        <v>904.4666666666667</v>
+        <v>903.5833333333334</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -492,14 +492,12 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>912</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>907</v>
+      </c>
+      <c r="K3" t="n">
+        <v>907</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -509,22 +507,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>911</v>
+      </c>
+      <c r="C4" t="n">
         <v>913</v>
-      </c>
-      <c r="C4" t="n">
-        <v>909</v>
       </c>
       <c r="D4" t="n">
         <v>913</v>
       </c>
       <c r="E4" t="n">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F4" t="n">
-        <v>2.397</v>
+        <v>705.6678000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>905.3</v>
+        <v>904.4666666666667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -533,10 +531,12 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>907</v>
+      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -548,22 +548,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="C5" t="n">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D5" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E5" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F5" t="n">
-        <v>69.7492</v>
+        <v>2.397</v>
       </c>
       <c r="G5" t="n">
-        <v>906.2</v>
+        <v>905.3</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -572,10 +572,12 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>907</v>
+      </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -587,22 +589,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>908</v>
+      </c>
+      <c r="C6" t="n">
         <v>912</v>
       </c>
-      <c r="C6" t="n">
-        <v>913</v>
-      </c>
       <c r="D6" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E6" t="n">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="F6" t="n">
-        <v>173.9691</v>
+        <v>69.7492</v>
       </c>
       <c r="G6" t="n">
-        <v>907.1</v>
+        <v>906.2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -612,11 +614,7 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -626,7 +624,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C7" t="n">
         <v>913</v>
@@ -635,13 +633,13 @@
         <v>913</v>
       </c>
       <c r="E7" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F7" t="n">
-        <v>703.4358999999999</v>
+        <v>173.9691</v>
       </c>
       <c r="G7" t="n">
-        <v>908.05</v>
+        <v>907.1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -651,11 +649,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -665,22 +659,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C8" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D8" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E8" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F8" t="n">
-        <v>395</v>
+        <v>703.4358999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>908.95</v>
+        <v>908.05</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,11 +684,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -716,10 +706,10 @@
         <v>912</v>
       </c>
       <c r="F9" t="n">
-        <v>300</v>
+        <v>395</v>
       </c>
       <c r="G9" t="n">
-        <v>909.85</v>
+        <v>908.95</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -729,11 +719,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -746,19 +732,19 @@
         <v>912</v>
       </c>
       <c r="C10" t="n">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="D10" t="n">
         <v>912</v>
       </c>
       <c r="E10" t="n">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="F10" t="n">
-        <v>500.9002</v>
+        <v>300</v>
       </c>
       <c r="G10" t="n">
-        <v>910.6833333333333</v>
+        <v>909.85</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -768,11 +754,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -782,22 +764,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="C11" t="n">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D11" t="n">
         <v>912</v>
       </c>
       <c r="E11" t="n">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F11" t="n">
-        <v>242.2733</v>
+        <v>500.9002</v>
       </c>
       <c r="G11" t="n">
-        <v>911.55</v>
+        <v>910.6833333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -807,11 +789,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -821,22 +799,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C12" t="n">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="D12" t="n">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="E12" t="n">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="F12" t="n">
-        <v>460.9437</v>
+        <v>242.2733</v>
       </c>
       <c r="G12" t="n">
-        <v>912.1166666666667</v>
+        <v>911.55</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -846,11 +824,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -860,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C13" t="n">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="D13" t="n">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E13" t="n">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="F13" t="n">
-        <v>13.4069</v>
+        <v>460.9437</v>
       </c>
       <c r="G13" t="n">
-        <v>912.1</v>
+        <v>912.1166666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -885,11 +859,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -899,22 +869,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C14" t="n">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="D14" t="n">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="E14" t="n">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="F14" t="n">
-        <v>210.6805</v>
+        <v>13.4069</v>
       </c>
       <c r="G14" t="n">
-        <v>912</v>
+        <v>912.1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -924,11 +894,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -941,19 +907,19 @@
         <v>908</v>
       </c>
       <c r="C15" t="n">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D15" t="n">
         <v>908</v>
       </c>
       <c r="E15" t="n">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>210.6805</v>
       </c>
       <c r="G15" t="n">
-        <v>911.9666666666667</v>
+        <v>912</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -963,11 +929,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -977,22 +939,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C16" t="n">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="D16" t="n">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="E16" t="n">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="F16" t="n">
-        <v>1152.1454</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>911.95</v>
+        <v>911.9666666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1002,11 +964,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1016,22 +974,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C17" t="n">
         <v>905</v>
       </c>
       <c r="D17" t="n">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E17" t="n">
         <v>905</v>
       </c>
       <c r="F17" t="n">
-        <v>48.7026</v>
+        <v>1152.1454</v>
       </c>
       <c r="G17" t="n">
-        <v>912.0666666666667</v>
+        <v>911.95</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1041,11 +999,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1055,22 +1009,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="C18" t="n">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="D18" t="n">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="E18" t="n">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="F18" t="n">
-        <v>10.6538</v>
+        <v>48.7026</v>
       </c>
       <c r="G18" t="n">
-        <v>912.0833333333334</v>
+        <v>912.0666666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1080,11 +1034,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1094,22 +1044,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="C19" t="n">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="D19" t="n">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="E19" t="n">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="F19" t="n">
-        <v>1662.974</v>
+        <v>10.6538</v>
       </c>
       <c r="G19" t="n">
-        <v>911.95</v>
+        <v>912.0833333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1119,11 +1069,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1079,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
+        <v>906</v>
+      </c>
+      <c r="C20" t="n">
         <v>908</v>
       </c>
-      <c r="C20" t="n">
-        <v>911</v>
-      </c>
       <c r="D20" t="n">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="E20" t="n">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F20" t="n">
-        <v>2368.180751152579</v>
+        <v>1662.974</v>
       </c>
       <c r="G20" t="n">
-        <v>911.9333333333333</v>
+        <v>911.95</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1158,11 +1104,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1172,22 +1114,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="C21" t="n">
-        <v>904</v>
+        <v>911</v>
       </c>
       <c r="D21" t="n">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="E21" t="n">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="F21" t="n">
-        <v>1212.591</v>
+        <v>2368.180751152579</v>
       </c>
       <c r="G21" t="n">
-        <v>911.85</v>
+        <v>911.9333333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1197,11 +1139,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1211,22 +1149,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C22" t="n">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="D22" t="n">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E22" t="n">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="F22" t="n">
-        <v>321.6396</v>
+        <v>1212.591</v>
       </c>
       <c r="G22" t="n">
-        <v>911.8333333333334</v>
+        <v>911.85</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1236,11 +1174,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1250,22 +1184,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C23" t="n">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D23" t="n">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E23" t="n">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F23" t="n">
-        <v>2403.3304</v>
+        <v>321.6396</v>
       </c>
       <c r="G23" t="n">
-        <v>912</v>
+        <v>911.8333333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1275,11 +1209,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1301,10 +1231,10 @@
         <v>911</v>
       </c>
       <c r="F24" t="n">
-        <v>2492.1152</v>
+        <v>2403.3304</v>
       </c>
       <c r="G24" t="n">
-        <v>912.1833333333333</v>
+        <v>912</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1314,11 +1244,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1328,22 +1254,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="C25" t="n">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="D25" t="n">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="E25" t="n">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="F25" t="n">
-        <v>15.4</v>
+        <v>2492.1152</v>
       </c>
       <c r="G25" t="n">
-        <v>912.1166666666667</v>
+        <v>912.1833333333333</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1353,11 +1279,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1367,22 +1289,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C26" t="n">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="D26" t="n">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="E26" t="n">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="F26" t="n">
-        <v>318.2945</v>
+        <v>15.4</v>
       </c>
       <c r="G26" t="n">
-        <v>912.1</v>
+        <v>912.1166666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1392,11 +1314,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1406,22 +1324,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C27" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D27" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E27" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F27" t="n">
-        <v>577.9292</v>
+        <v>318.2945</v>
       </c>
       <c r="G27" t="n">
-        <v>912.0833333333334</v>
+        <v>912.1</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1431,11 +1349,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1445,22 +1359,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C28" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D28" t="n">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E28" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F28" t="n">
-        <v>20.5409</v>
+        <v>577.9292</v>
       </c>
       <c r="G28" t="n">
-        <v>912</v>
+        <v>912.0833333333334</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1470,11 +1384,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1484,22 +1394,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C29" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D29" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E29" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F29" t="n">
-        <v>1.5015</v>
+        <v>20.5409</v>
       </c>
       <c r="G29" t="n">
-        <v>911.8666666666667</v>
+        <v>912</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1509,11 +1419,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1535,10 +1441,10 @@
         <v>909</v>
       </c>
       <c r="F30" t="n">
-        <v>268.9515</v>
+        <v>1.5015</v>
       </c>
       <c r="G30" t="n">
-        <v>911.7166666666667</v>
+        <v>911.8666666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1548,11 +1454,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1574,26 +1476,20 @@
         <v>909</v>
       </c>
       <c r="F31" t="n">
-        <v>291.2405</v>
+        <v>268.9515</v>
       </c>
       <c r="G31" t="n">
-        <v>911.5666666666667</v>
+        <v>911.7166666666667</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>909</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1615,10 +1511,10 @@
         <v>909</v>
       </c>
       <c r="F32" t="n">
-        <v>47.87</v>
+        <v>291.2405</v>
       </c>
       <c r="G32" t="n">
-        <v>911.4833333333333</v>
+        <v>911.5666666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1628,11 +1524,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1654,7 +1546,7 @@
         <v>909</v>
       </c>
       <c r="F33" t="n">
-        <v>76.5609</v>
+        <v>47.87</v>
       </c>
       <c r="G33" t="n">
         <v>911.4833333333333</v>
@@ -1667,11 +1559,7 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1681,22 +1569,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C34" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D34" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E34" t="n">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="F34" t="n">
-        <v>3001.1145</v>
+        <v>76.5609</v>
       </c>
       <c r="G34" t="n">
-        <v>911.4666666666667</v>
+        <v>911.4833333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1706,11 +1594,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1732,10 +1616,10 @@
         <v>908</v>
       </c>
       <c r="F35" t="n">
-        <v>6.652</v>
+        <v>3001.1145</v>
       </c>
       <c r="G35" t="n">
-        <v>911.35</v>
+        <v>911.4666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1745,11 +1629,7 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1759,38 +1639,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C36" t="n">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D36" t="n">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E36" t="n">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F36" t="n">
-        <v>560</v>
+        <v>6.652</v>
       </c>
       <c r="G36" t="n">
-        <v>911.2</v>
+        <v>911.35</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>908</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1800,7 +1674,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C37" t="n">
         <v>907</v>
@@ -1809,29 +1683,23 @@
         <v>907</v>
       </c>
       <c r="E37" t="n">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="F37" t="n">
-        <v>1065.9493</v>
+        <v>560</v>
       </c>
       <c r="G37" t="n">
-        <v>911.1</v>
+        <v>911.2</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>907</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +1709,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C38" t="n">
         <v>907</v>
@@ -1850,29 +1718,23 @@
         <v>907</v>
       </c>
       <c r="E38" t="n">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F38" t="n">
-        <v>10.3916</v>
+        <v>1065.9493</v>
       </c>
       <c r="G38" t="n">
-        <v>911.0666666666667</v>
+        <v>911.1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>907</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1882,38 +1744,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C39" t="n">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="D39" t="n">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E39" t="n">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="F39" t="n">
-        <v>850.9275</v>
+        <v>10.3916</v>
       </c>
       <c r="G39" t="n">
-        <v>910.9333333333333</v>
+        <v>911.0666666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>907</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1926,19 +1782,19 @@
         <v>906</v>
       </c>
       <c r="C40" t="n">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D40" t="n">
         <v>906</v>
       </c>
       <c r="E40" t="n">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F40" t="n">
-        <v>69.9058</v>
+        <v>850.9275</v>
       </c>
       <c r="G40" t="n">
-        <v>910.75</v>
+        <v>910.9333333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1948,11 +1804,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1962,38 +1814,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="C41" t="n">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D41" t="n">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E41" t="n">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="F41" t="n">
-        <v>55.0242</v>
+        <v>69.9058</v>
       </c>
       <c r="G41" t="n">
-        <v>910.6</v>
+        <v>910.75</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>906</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2003,22 +1849,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C42" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D42" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E42" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F42" t="n">
-        <v>77.7705</v>
+        <v>55.0242</v>
       </c>
       <c r="G42" t="n">
-        <v>910.35</v>
+        <v>910.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2028,11 +1874,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2042,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C43" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D43" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E43" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F43" t="n">
-        <v>3</v>
+        <v>77.7705</v>
       </c>
       <c r="G43" t="n">
-        <v>910.2166666666667</v>
+        <v>910.35</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2067,11 +1909,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2093,10 +1931,10 @@
         <v>911</v>
       </c>
       <c r="F44" t="n">
-        <v>67.6558</v>
+        <v>3</v>
       </c>
       <c r="G44" t="n">
-        <v>910.0333333333333</v>
+        <v>910.2166666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2106,11 +1944,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2132,10 +1966,10 @@
         <v>911</v>
       </c>
       <c r="F45" t="n">
-        <v>467.1938</v>
+        <v>67.6558</v>
       </c>
       <c r="G45" t="n">
-        <v>909.8333333333334</v>
+        <v>910.0333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2145,11 +1979,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2159,22 +1989,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="C46" t="n">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="D46" t="n">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="E46" t="n">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="F46" t="n">
-        <v>99.8319</v>
+        <v>467.1938</v>
       </c>
       <c r="G46" t="n">
-        <v>909.7833333333333</v>
+        <v>909.8333333333334</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2184,11 +2014,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2201,19 +2027,19 @@
         <v>915</v>
       </c>
       <c r="C47" t="n">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D47" t="n">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="E47" t="n">
         <v>915</v>
       </c>
       <c r="F47" t="n">
-        <v>1088.9325</v>
+        <v>99.8319</v>
       </c>
       <c r="G47" t="n">
-        <v>909.8666666666667</v>
+        <v>909.7833333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2223,11 +2049,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2237,22 +2059,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C48" t="n">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="D48" t="n">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="E48" t="n">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="F48" t="n">
-        <v>54.3354</v>
+        <v>1088.9325</v>
       </c>
       <c r="G48" t="n">
-        <v>909.85</v>
+        <v>909.8666666666667</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2262,11 +2084,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2276,59 +2094,57 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C49" t="n">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="D49" t="n">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="E49" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F49" t="n">
-        <v>10.1891</v>
+        <v>54.3354</v>
       </c>
       <c r="G49" t="n">
-        <v>909.7833333333333</v>
+        <v>909.85</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C50" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D50" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E50" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F50" t="n">
-        <v>1.1458</v>
+        <v>10.1891</v>
       </c>
       <c r="G50" t="n">
-        <v>909.7166666666667</v>
+        <v>909.7833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2348,22 +2164,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C51" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D51" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E51" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F51" t="n">
-        <v>220.187</v>
+        <v>1.1458</v>
       </c>
       <c r="G51" t="n">
-        <v>909.7</v>
+        <v>909.7166666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2395,10 +2211,10 @@
         <v>914</v>
       </c>
       <c r="F52" t="n">
-        <v>225.9882</v>
+        <v>220.187</v>
       </c>
       <c r="G52" t="n">
-        <v>909.75</v>
+        <v>909.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2418,28 +2234,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C53" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D53" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E53" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="F53" t="n">
-        <v>765.3292</v>
+        <v>225.9882</v>
       </c>
       <c r="G53" t="n">
-        <v>909.8166666666667</v>
+        <v>909.75</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2453,22 +2269,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="C54" t="n">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="D54" t="n">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="E54" t="n">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="F54" t="n">
-        <v>161.1</v>
+        <v>765.3292</v>
       </c>
       <c r="G54" t="n">
-        <v>910</v>
+        <v>909.8166666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2500,16 +2316,16 @@
         <v>918</v>
       </c>
       <c r="F55" t="n">
-        <v>3.2679</v>
+        <v>161.1</v>
       </c>
       <c r="G55" t="n">
-        <v>910.1</v>
+        <v>910</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2523,22 +2339,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="C56" t="n">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="D56" t="n">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="E56" t="n">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="F56" t="n">
-        <v>773.8219</v>
+        <v>3.2679</v>
       </c>
       <c r="G56" t="n">
-        <v>910.1333333333333</v>
+        <v>910.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2558,22 +2374,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C57" t="n">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D57" t="n">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="E57" t="n">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="F57" t="n">
-        <v>107.1995</v>
+        <v>773.8219</v>
       </c>
       <c r="G57" t="n">
-        <v>910.2166666666667</v>
+        <v>910.1333333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2593,22 +2409,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C58" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D58" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E58" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F58" t="n">
-        <v>15.2583</v>
+        <v>107.1995</v>
       </c>
       <c r="G58" t="n">
-        <v>910.3166666666667</v>
+        <v>910.2166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2628,28 +2444,28 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C59" t="n">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D59" t="n">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E59" t="n">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0251</v>
+        <v>15.2583</v>
       </c>
       <c r="G59" t="n">
-        <v>910.3833333333333</v>
+        <v>910.3166666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -2663,28 +2479,28 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="C60" t="n">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="D60" t="n">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="E60" t="n">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="F60" t="n">
-        <v>19</v>
+        <v>1.0251</v>
       </c>
       <c r="G60" t="n">
-        <v>910.4833333333333</v>
+        <v>910.3833333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
@@ -2698,28 +2514,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C61" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D61" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E61" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F61" t="n">
-        <v>27.3453</v>
+        <v>19</v>
       </c>
       <c r="G61" t="n">
-        <v>910.6166666666667</v>
+        <v>910.4833333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2745,10 +2561,10 @@
         <v>915</v>
       </c>
       <c r="F62" t="n">
-        <v>593.72</v>
+        <v>27.3453</v>
       </c>
       <c r="G62" t="n">
-        <v>910.6666666666666</v>
+        <v>910.6166666666667</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2768,22 +2584,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C63" t="n">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D63" t="n">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E63" t="n">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F63" t="n">
-        <v>1.0996</v>
+        <v>593.72</v>
       </c>
       <c r="G63" t="n">
-        <v>910.6833333333333</v>
+        <v>910.6666666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2815,10 +2631,10 @@
         <v>914</v>
       </c>
       <c r="F64" t="n">
-        <v>2.2101</v>
+        <v>1.0996</v>
       </c>
       <c r="G64" t="n">
-        <v>910.7666666666667</v>
+        <v>910.6833333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2838,22 +2654,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C65" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D65" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E65" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="F65" t="n">
-        <v>1.6434</v>
+        <v>2.2101</v>
       </c>
       <c r="G65" t="n">
-        <v>910.85</v>
+        <v>910.7666666666667</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2873,22 +2689,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="C66" t="n">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="D66" t="n">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="E66" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="F66" t="n">
-        <v>415.4007</v>
+        <v>1.6434</v>
       </c>
       <c r="G66" t="n">
-        <v>910.8666666666667</v>
+        <v>910.85</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2908,7 +2724,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C67" t="n">
         <v>914</v>
@@ -2917,13 +2733,13 @@
         <v>914</v>
       </c>
       <c r="E67" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0001</v>
+        <v>415.4007</v>
       </c>
       <c r="G67" t="n">
-        <v>910.8833333333333</v>
+        <v>910.8666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2955,10 +2771,10 @@
         <v>914</v>
       </c>
       <c r="F68" t="n">
-        <v>50.46</v>
+        <v>0.0001</v>
       </c>
       <c r="G68" t="n">
-        <v>910.9166666666666</v>
+        <v>910.8833333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2978,22 +2794,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C69" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D69" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E69" t="n">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>50.46</v>
       </c>
       <c r="G69" t="n">
-        <v>910.9333333333333</v>
+        <v>910.9166666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3016,19 +2832,19 @@
         <v>913</v>
       </c>
       <c r="C70" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D70" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E70" t="n">
         <v>913</v>
       </c>
       <c r="F70" t="n">
-        <v>34.4471</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>911.0333333333333</v>
+        <v>910.9333333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3048,7 +2864,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C71" t="n">
         <v>914</v>
@@ -3057,13 +2873,13 @@
         <v>914</v>
       </c>
       <c r="E71" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F71" t="n">
-        <v>16.5832</v>
+        <v>34.4471</v>
       </c>
       <c r="G71" t="n">
-        <v>911.0666666666667</v>
+        <v>911.0333333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3095,10 +2911,10 @@
         <v>914</v>
       </c>
       <c r="F72" t="n">
-        <v>110.6412</v>
+        <v>16.5832</v>
       </c>
       <c r="G72" t="n">
-        <v>911.1666666666666</v>
+        <v>911.0666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3130,10 +2946,10 @@
         <v>914</v>
       </c>
       <c r="F73" t="n">
-        <v>217.5863</v>
+        <v>110.6412</v>
       </c>
       <c r="G73" t="n">
-        <v>911.2333333333333</v>
+        <v>911.1666666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3153,22 +2969,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C74" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D74" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E74" t="n">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F74" t="n">
-        <v>326.6428</v>
+        <v>217.5863</v>
       </c>
       <c r="G74" t="n">
-        <v>911.4333333333333</v>
+        <v>911.2333333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3188,22 +3004,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
+        <v>916</v>
+      </c>
+      <c r="C75" t="n">
         <v>917</v>
       </c>
-      <c r="C75" t="n">
-        <v>918</v>
-      </c>
       <c r="D75" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E75" t="n">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F75" t="n">
-        <v>85.271</v>
+        <v>326.6428</v>
       </c>
       <c r="G75" t="n">
-        <v>911.6</v>
+        <v>911.4333333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3223,7 +3039,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C76" t="n">
         <v>918</v>
@@ -3232,13 +3048,13 @@
         <v>918</v>
       </c>
       <c r="E76" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F76" t="n">
-        <v>33.2106</v>
+        <v>85.271</v>
       </c>
       <c r="G76" t="n">
-        <v>911.8166666666667</v>
+        <v>911.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3270,10 +3086,10 @@
         <v>918</v>
       </c>
       <c r="F77" t="n">
-        <v>2.2992</v>
+        <v>33.2106</v>
       </c>
       <c r="G77" t="n">
-        <v>912.0333333333333</v>
+        <v>911.8166666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3305,10 +3121,10 @@
         <v>918</v>
       </c>
       <c r="F78" t="n">
-        <v>24.4816</v>
+        <v>2.2992</v>
       </c>
       <c r="G78" t="n">
-        <v>912.3166666666667</v>
+        <v>912.0333333333333</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3328,22 +3144,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C79" t="n">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="D79" t="n">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E79" t="n">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F79" t="n">
-        <v>100</v>
+        <v>24.4816</v>
       </c>
       <c r="G79" t="n">
-        <v>912.5166666666667</v>
+        <v>912.3166666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3363,7 +3179,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C80" t="n">
         <v>920</v>
@@ -3372,13 +3188,13 @@
         <v>920</v>
       </c>
       <c r="E80" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F80" t="n">
-        <v>54.7259</v>
+        <v>100</v>
       </c>
       <c r="G80" t="n">
-        <v>912.6666666666666</v>
+        <v>912.5166666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3410,10 +3226,10 @@
         <v>920</v>
       </c>
       <c r="F81" t="n">
-        <v>73.99939999999999</v>
+        <v>54.7259</v>
       </c>
       <c r="G81" t="n">
-        <v>912.9333333333333</v>
+        <v>912.6666666666666</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3433,7 +3249,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C82" t="n">
         <v>920</v>
@@ -3442,13 +3258,13 @@
         <v>920</v>
       </c>
       <c r="E82" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="F82" t="n">
-        <v>1687.8375</v>
+        <v>73.99939999999999</v>
       </c>
       <c r="G82" t="n">
-        <v>913.1166666666667</v>
+        <v>912.9333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3468,7 +3284,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C83" t="n">
         <v>920</v>
@@ -3477,13 +3293,13 @@
         <v>920</v>
       </c>
       <c r="E83" t="n">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F83" t="n">
-        <v>364.2385</v>
+        <v>1687.8375</v>
       </c>
       <c r="G83" t="n">
-        <v>913.2666666666667</v>
+        <v>913.1166666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3515,10 +3331,10 @@
         <v>920</v>
       </c>
       <c r="F84" t="n">
-        <v>42.024</v>
+        <v>364.2385</v>
       </c>
       <c r="G84" t="n">
-        <v>913.4166666666666</v>
+        <v>913.2666666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3550,10 +3366,10 @@
         <v>920</v>
       </c>
       <c r="F85" t="n">
-        <v>3255.5567</v>
+        <v>42.024</v>
       </c>
       <c r="G85" t="n">
-        <v>913.65</v>
+        <v>913.4166666666666</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3576,19 +3392,19 @@
         <v>920</v>
       </c>
       <c r="C86" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D86" t="n">
         <v>920</v>
       </c>
       <c r="E86" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F86" t="n">
-        <v>60.9948</v>
+        <v>3255.5567</v>
       </c>
       <c r="G86" t="n">
-        <v>913.8</v>
+        <v>913.65</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3608,28 +3424,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C87" t="n">
         <v>919</v>
       </c>
       <c r="D87" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E87" t="n">
         <v>919</v>
       </c>
       <c r="F87" t="n">
-        <v>1052.8699</v>
+        <v>60.9948</v>
       </c>
       <c r="G87" t="n">
-        <v>913.9666666666667</v>
+        <v>913.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3646,19 +3462,19 @@
         <v>919</v>
       </c>
       <c r="C88" t="n">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D88" t="n">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E88" t="n">
         <v>919</v>
       </c>
       <c r="F88" t="n">
-        <v>287.3061</v>
+        <v>1052.8699</v>
       </c>
       <c r="G88" t="n">
-        <v>914.15</v>
+        <v>913.9666666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3678,22 +3494,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>919</v>
+      </c>
+      <c r="C89" t="n">
         <v>921</v>
       </c>
-      <c r="C89" t="n">
-        <v>922</v>
-      </c>
       <c r="D89" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E89" t="n">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F89" t="n">
-        <v>2688.5745</v>
+        <v>287.3061</v>
       </c>
       <c r="G89" t="n">
-        <v>914.3666666666667</v>
+        <v>914.15</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3713,7 +3529,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C90" t="n">
         <v>922</v>
@@ -3722,13 +3538,13 @@
         <v>922</v>
       </c>
       <c r="E90" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F90" t="n">
-        <v>460.1522</v>
+        <v>2688.5745</v>
       </c>
       <c r="G90" t="n">
-        <v>914.5833333333334</v>
+        <v>914.3666666666667</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3748,22 +3564,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C91" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D91" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E91" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F91" t="n">
-        <v>36.198</v>
+        <v>460.1522</v>
       </c>
       <c r="G91" t="n">
-        <v>914.7833333333333</v>
+        <v>914.5833333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3783,22 +3599,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C92" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D92" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E92" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F92" t="n">
-        <v>1069.5</v>
+        <v>36.198</v>
       </c>
       <c r="G92" t="n">
-        <v>915</v>
+        <v>914.7833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3830,10 +3646,10 @@
         <v>922</v>
       </c>
       <c r="F93" t="n">
-        <v>528.7433</v>
+        <v>1069.5</v>
       </c>
       <c r="G93" t="n">
-        <v>915.2166666666667</v>
+        <v>915</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3865,16 +3681,16 @@
         <v>922</v>
       </c>
       <c r="F94" t="n">
-        <v>503</v>
+        <v>528.7433</v>
       </c>
       <c r="G94" t="n">
-        <v>915.45</v>
+        <v>915.2166666666667</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3900,10 +3716,10 @@
         <v>922</v>
       </c>
       <c r="F95" t="n">
-        <v>101</v>
+        <v>503</v>
       </c>
       <c r="G95" t="n">
-        <v>915.6833333333333</v>
+        <v>915.45</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3935,10 +3751,10 @@
         <v>922</v>
       </c>
       <c r="F96" t="n">
-        <v>162.5124</v>
+        <v>101</v>
       </c>
       <c r="G96" t="n">
-        <v>915.9333333333333</v>
+        <v>915.6833333333333</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3958,22 +3774,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C97" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D97" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E97" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F97" t="n">
-        <v>61.6395</v>
+        <v>162.5124</v>
       </c>
       <c r="G97" t="n">
-        <v>916.1666666666666</v>
+        <v>915.9333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3993,22 +3809,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C98" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D98" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E98" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F98" t="n">
-        <v>400</v>
+        <v>61.6395</v>
       </c>
       <c r="G98" t="n">
-        <v>916.3833333333333</v>
+        <v>916.1666666666666</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4028,22 +3844,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C99" t="n">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D99" t="n">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="E99" t="n">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F99" t="n">
-        <v>162.2199</v>
+        <v>400</v>
       </c>
       <c r="G99" t="n">
-        <v>916.65</v>
+        <v>916.3833333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4066,19 +3882,19 @@
         <v>922</v>
       </c>
       <c r="C100" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D100" t="n">
         <v>922</v>
       </c>
       <c r="E100" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F100" t="n">
-        <v>628</v>
+        <v>162.2199</v>
       </c>
       <c r="G100" t="n">
-        <v>916.9166666666666</v>
+        <v>916.65</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4110,10 +3926,10 @@
         <v>922</v>
       </c>
       <c r="F101" t="n">
-        <v>320.6</v>
+        <v>628</v>
       </c>
       <c r="G101" t="n">
-        <v>917.1333333333333</v>
+        <v>916.9166666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4145,10 +3961,10 @@
         <v>922</v>
       </c>
       <c r="F102" t="n">
-        <v>421.3862</v>
+        <v>320.6</v>
       </c>
       <c r="G102" t="n">
-        <v>917.3333333333334</v>
+        <v>917.1333333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4180,10 +3996,10 @@
         <v>922</v>
       </c>
       <c r="F103" t="n">
-        <v>18.4269</v>
+        <v>421.3862</v>
       </c>
       <c r="G103" t="n">
-        <v>917.5166666666667</v>
+        <v>917.3333333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4215,10 +4031,10 @@
         <v>922</v>
       </c>
       <c r="F104" t="n">
-        <v>51.3642</v>
+        <v>18.4269</v>
       </c>
       <c r="G104" t="n">
-        <v>917.7</v>
+        <v>917.5166666666667</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4250,10 +4066,10 @@
         <v>922</v>
       </c>
       <c r="F105" t="n">
-        <v>1530.3653</v>
+        <v>51.3642</v>
       </c>
       <c r="G105" t="n">
-        <v>917.8833333333333</v>
+        <v>917.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4273,22 +4089,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C106" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D106" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="E106" t="n">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F106" t="n">
-        <v>238.3739</v>
+        <v>1530.3653</v>
       </c>
       <c r="G106" t="n">
-        <v>917.9666666666667</v>
+        <v>917.8833333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4311,19 +4127,19 @@
         <v>921</v>
       </c>
       <c r="C107" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D107" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E107" t="n">
         <v>921</v>
       </c>
       <c r="F107" t="n">
-        <v>2629.5305</v>
+        <v>238.3739</v>
       </c>
       <c r="G107" t="n">
-        <v>918.0166666666667</v>
+        <v>917.9666666666667</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4343,7 +4159,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C108" t="n">
         <v>922</v>
@@ -4352,13 +4168,13 @@
         <v>922</v>
       </c>
       <c r="E108" t="n">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F108" t="n">
-        <v>506.3754</v>
+        <v>2629.5305</v>
       </c>
       <c r="G108" t="n">
-        <v>918.15</v>
+        <v>918.0166666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4378,22 +4194,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C109" t="n">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D109" t="n">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E109" t="n">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F109" t="n">
-        <v>252.2516</v>
+        <v>506.3754</v>
       </c>
       <c r="G109" t="n">
-        <v>918.35</v>
+        <v>918.15</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4413,7 +4229,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C110" t="n">
         <v>924</v>
@@ -4422,13 +4238,13 @@
         <v>924</v>
       </c>
       <c r="E110" t="n">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F110" t="n">
-        <v>685.9290999999999</v>
+        <v>252.2516</v>
       </c>
       <c r="G110" t="n">
-        <v>918.5333333333333</v>
+        <v>918.35</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4460,10 +4276,10 @@
         <v>924</v>
       </c>
       <c r="F111" t="n">
-        <v>330.1255</v>
+        <v>685.9290999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>918.7</v>
+        <v>918.5333333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4495,10 +4311,10 @@
         <v>924</v>
       </c>
       <c r="F112" t="n">
-        <v>5.14</v>
+        <v>330.1255</v>
       </c>
       <c r="G112" t="n">
-        <v>918.8666666666667</v>
+        <v>918.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4530,10 +4346,10 @@
         <v>924</v>
       </c>
       <c r="F113" t="n">
-        <v>1.542</v>
+        <v>5.14</v>
       </c>
       <c r="G113" t="n">
-        <v>919.05</v>
+        <v>918.8666666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4565,10 +4381,10 @@
         <v>924</v>
       </c>
       <c r="F114" t="n">
-        <v>0.6609</v>
+        <v>1.542</v>
       </c>
       <c r="G114" t="n">
-        <v>919.15</v>
+        <v>919.05</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4600,10 +4416,10 @@
         <v>924</v>
       </c>
       <c r="F115" t="n">
-        <v>40.9506</v>
+        <v>0.6609</v>
       </c>
       <c r="G115" t="n">
-        <v>919.25</v>
+        <v>919.15</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4635,10 +4451,10 @@
         <v>924</v>
       </c>
       <c r="F116" t="n">
-        <v>386.9201</v>
+        <v>40.9506</v>
       </c>
       <c r="G116" t="n">
-        <v>919.4333333333333</v>
+        <v>919.25</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4670,10 +4486,10 @@
         <v>924</v>
       </c>
       <c r="F117" t="n">
-        <v>12.5538</v>
+        <v>386.9201</v>
       </c>
       <c r="G117" t="n">
-        <v>919.55</v>
+        <v>919.4333333333333</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4705,10 +4521,10 @@
         <v>924</v>
       </c>
       <c r="F118" t="n">
-        <v>69.2608</v>
+        <v>12.5538</v>
       </c>
       <c r="G118" t="n">
-        <v>919.65</v>
+        <v>919.55</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4728,22 +4544,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="C119" t="n">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="D119" t="n">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="E119" t="n">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="F119" t="n">
-        <v>34.5234</v>
+        <v>69.2608</v>
       </c>
       <c r="G119" t="n">
-        <v>919.7166666666667</v>
+        <v>919.65</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4763,22 +4579,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C120" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D120" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E120" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F120" t="n">
-        <v>56.6564</v>
+        <v>34.5234</v>
       </c>
       <c r="G120" t="n">
-        <v>919.8166666666667</v>
+        <v>919.7166666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4810,10 +4626,10 @@
         <v>920</v>
       </c>
       <c r="F121" t="n">
-        <v>1505.8651</v>
+        <v>56.6564</v>
       </c>
       <c r="G121" t="n">
-        <v>919.9</v>
+        <v>919.8166666666667</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4833,22 +4649,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C122" t="n">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="D122" t="n">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E122" t="n">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="F122" t="n">
-        <v>3.0867</v>
+        <v>1505.8651</v>
       </c>
       <c r="G122" t="n">
-        <v>920.0333333333333</v>
+        <v>919.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4880,10 +4696,10 @@
         <v>923</v>
       </c>
       <c r="F123" t="n">
-        <v>88.09310000000001</v>
+        <v>3.0867</v>
       </c>
       <c r="G123" t="n">
-        <v>920.1833333333333</v>
+        <v>920.0333333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4903,22 +4719,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C124" t="n">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D124" t="n">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E124" t="n">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F124" t="n">
-        <v>69.6919</v>
+        <v>88.09310000000001</v>
       </c>
       <c r="G124" t="n">
-        <v>920.35</v>
+        <v>920.1833333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4950,10 +4766,10 @@
         <v>924</v>
       </c>
       <c r="F125" t="n">
-        <v>34.4604</v>
+        <v>69.6919</v>
       </c>
       <c r="G125" t="n">
-        <v>920.4666666666667</v>
+        <v>920.35</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4985,10 +4801,10 @@
         <v>924</v>
       </c>
       <c r="F126" t="n">
-        <v>114.0331</v>
+        <v>34.4604</v>
       </c>
       <c r="G126" t="n">
-        <v>920.6333333333333</v>
+        <v>920.4666666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5008,22 +4824,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C127" t="n">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D127" t="n">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E127" t="n">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F127" t="n">
-        <v>935.4804</v>
+        <v>114.0331</v>
       </c>
       <c r="G127" t="n">
-        <v>920.8166666666667</v>
+        <v>920.6333333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5043,22 +4859,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C128" t="n">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D128" t="n">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E128" t="n">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F128" t="n">
-        <v>17.8654</v>
+        <v>935.4804</v>
       </c>
       <c r="G128" t="n">
-        <v>921.0333333333333</v>
+        <v>920.8166666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5090,10 +4906,10 @@
         <v>927</v>
       </c>
       <c r="F129" t="n">
-        <v>3.081</v>
+        <v>17.8654</v>
       </c>
       <c r="G129" t="n">
-        <v>921.2666666666667</v>
+        <v>921.0333333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5113,22 +4929,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C130" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D130" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E130" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="F130" t="n">
-        <v>910.2718</v>
+        <v>3.081</v>
       </c>
       <c r="G130" t="n">
-        <v>921.45</v>
+        <v>921.2666666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5148,22 +4964,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C131" t="n">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D131" t="n">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E131" t="n">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F131" t="n">
-        <v>49.4798</v>
+        <v>910.2718</v>
       </c>
       <c r="G131" t="n">
-        <v>921.6666666666666</v>
+        <v>921.45</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5183,22 +4999,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="C132" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D132" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="E132" t="n">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="F132" t="n">
-        <v>500</v>
+        <v>49.4798</v>
       </c>
       <c r="G132" t="n">
-        <v>921.85</v>
+        <v>921.6666666666666</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5221,19 +5037,19 @@
         <v>925</v>
       </c>
       <c r="C133" t="n">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D133" t="n">
         <v>925</v>
       </c>
       <c r="E133" t="n">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="F133" t="n">
-        <v>7393.9857</v>
+        <v>500</v>
       </c>
       <c r="G133" t="n">
-        <v>922.0166666666667</v>
+        <v>921.85</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5253,22 +5069,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C134" t="n">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="D134" t="n">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="E134" t="n">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="F134" t="n">
-        <v>52.5</v>
+        <v>7393.9857</v>
       </c>
       <c r="G134" t="n">
-        <v>922.2166666666667</v>
+        <v>922.0166666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5288,7 +5104,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C135" t="n">
         <v>929</v>
@@ -5297,13 +5113,13 @@
         <v>929</v>
       </c>
       <c r="E135" t="n">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="F135" t="n">
-        <v>1417.4007</v>
+        <v>52.5</v>
       </c>
       <c r="G135" t="n">
-        <v>922.4</v>
+        <v>922.2166666666667</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5323,22 +5139,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="C136" t="n">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="D136" t="n">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="E136" t="n">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="F136" t="n">
-        <v>450.005</v>
+        <v>1417.4007</v>
       </c>
       <c r="G136" t="n">
-        <v>922.5333333333333</v>
+        <v>922.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5361,19 +5177,19 @@
         <v>926</v>
       </c>
       <c r="C137" t="n">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="D137" t="n">
         <v>926</v>
       </c>
       <c r="E137" t="n">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="F137" t="n">
-        <v>2353.7674</v>
+        <v>450.005</v>
       </c>
       <c r="G137" t="n">
-        <v>922.6166666666667</v>
+        <v>922.5333333333333</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5393,22 +5209,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C138" t="n">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="D138" t="n">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="E138" t="n">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F138" t="n">
-        <v>34.1451</v>
+        <v>2353.7674</v>
       </c>
       <c r="G138" t="n">
-        <v>922.7333333333333</v>
+        <v>922.6166666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5431,19 +5247,19 @@
         <v>925</v>
       </c>
       <c r="C139" t="n">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D139" t="n">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E139" t="n">
         <v>925</v>
       </c>
       <c r="F139" t="n">
-        <v>444.66</v>
+        <v>34.1451</v>
       </c>
       <c r="G139" t="n">
-        <v>922.8333333333334</v>
+        <v>922.7333333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5463,7 +5279,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="C140" t="n">
         <v>926</v>
@@ -5472,13 +5288,13 @@
         <v>926</v>
       </c>
       <c r="E140" t="n">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="F140" t="n">
-        <v>869.0667999999999</v>
+        <v>444.66</v>
       </c>
       <c r="G140" t="n">
-        <v>922.9333333333333</v>
+        <v>922.8333333333334</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5498,7 +5314,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C141" t="n">
         <v>926</v>
@@ -5507,13 +5323,13 @@
         <v>926</v>
       </c>
       <c r="E141" t="n">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="F141" t="n">
-        <v>827.2886999999999</v>
+        <v>869.0667999999999</v>
       </c>
       <c r="G141" t="n">
-        <v>923.0333333333333</v>
+        <v>922.9333333333333</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5533,7 +5349,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C142" t="n">
         <v>926</v>
@@ -5542,13 +5358,13 @@
         <v>926</v>
       </c>
       <c r="E142" t="n">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F142" t="n">
-        <v>884.6762</v>
+        <v>827.2886999999999</v>
       </c>
       <c r="G142" t="n">
-        <v>923.1333333333333</v>
+        <v>923.0333333333333</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5568,10 +5384,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
+        <v>925</v>
+      </c>
+      <c r="C143" t="n">
         <v>926</v>
-      </c>
-      <c r="C143" t="n">
-        <v>925</v>
       </c>
       <c r="D143" t="n">
         <v>926</v>
@@ -5580,10 +5396,10 @@
         <v>925</v>
       </c>
       <c r="F143" t="n">
-        <v>946.9595</v>
+        <v>884.6762</v>
       </c>
       <c r="G143" t="n">
-        <v>923.2166666666667</v>
+        <v>923.1333333333333</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5606,19 +5422,19 @@
         <v>926</v>
       </c>
       <c r="C144" t="n">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D144" t="n">
         <v>926</v>
       </c>
       <c r="E144" t="n">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F144" t="n">
-        <v>801.1521</v>
+        <v>946.9595</v>
       </c>
       <c r="G144" t="n">
-        <v>923.3166666666667</v>
+        <v>923.2166666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5650,10 +5466,10 @@
         <v>926</v>
       </c>
       <c r="F145" t="n">
-        <v>606.7057</v>
+        <v>801.1521</v>
       </c>
       <c r="G145" t="n">
-        <v>923.4166666666666</v>
+        <v>923.3166666666667</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5673,22 +5489,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C146" t="n">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D146" t="n">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E146" t="n">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F146" t="n">
-        <v>179.2545</v>
+        <v>606.7057</v>
       </c>
       <c r="G146" t="n">
-        <v>923.55</v>
+        <v>923.4166666666666</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5720,10 +5536,10 @@
         <v>927</v>
       </c>
       <c r="F147" t="n">
-        <v>84.36750000000001</v>
+        <v>179.2545</v>
       </c>
       <c r="G147" t="n">
-        <v>923.6833333333333</v>
+        <v>923.55</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5755,10 +5571,10 @@
         <v>927</v>
       </c>
       <c r="F148" t="n">
-        <v>480.5801</v>
+        <v>84.36750000000001</v>
       </c>
       <c r="G148" t="n">
-        <v>923.7833333333333</v>
+        <v>923.6833333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5778,7 +5594,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C149" t="n">
         <v>927</v>
@@ -5787,13 +5603,13 @@
         <v>927</v>
       </c>
       <c r="E149" t="n">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F149" t="n">
-        <v>664.1324</v>
+        <v>480.5801</v>
       </c>
       <c r="G149" t="n">
-        <v>923.8666666666667</v>
+        <v>923.7833333333333</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5813,7 +5629,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C150" t="n">
         <v>927</v>
@@ -5822,13 +5638,13 @@
         <v>927</v>
       </c>
       <c r="E150" t="n">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F150" t="n">
-        <v>63.4978</v>
+        <v>664.1324</v>
       </c>
       <c r="G150" t="n">
-        <v>923.95</v>
+        <v>923.8666666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5860,10 +5676,10 @@
         <v>927</v>
       </c>
       <c r="F151" t="n">
-        <v>89.3</v>
+        <v>63.4978</v>
       </c>
       <c r="G151" t="n">
-        <v>924.05</v>
+        <v>923.95</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5883,22 +5699,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C152" t="n">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="D152" t="n">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="E152" t="n">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="F152" t="n">
-        <v>2.9925</v>
+        <v>89.3</v>
       </c>
       <c r="G152" t="n">
-        <v>924.0833333333334</v>
+        <v>924.05</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5918,22 +5734,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C153" t="n">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="D153" t="n">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E153" t="n">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F153" t="n">
-        <v>10.9637</v>
+        <v>2.9925</v>
       </c>
       <c r="G153" t="n">
-        <v>924.1666666666666</v>
+        <v>924.0833333333334</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5965,10 +5781,10 @@
         <v>927</v>
       </c>
       <c r="F154" t="n">
-        <v>3.061</v>
+        <v>10.9637</v>
       </c>
       <c r="G154" t="n">
-        <v>924.25</v>
+        <v>924.1666666666666</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5991,19 +5807,19 @@
         <v>927</v>
       </c>
       <c r="C155" t="n">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D155" t="n">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E155" t="n">
         <v>927</v>
       </c>
       <c r="F155" t="n">
-        <v>5.7218</v>
+        <v>3.061</v>
       </c>
       <c r="G155" t="n">
-        <v>924.3666666666667</v>
+        <v>924.25</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6023,7 +5839,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C156" t="n">
         <v>929</v>
@@ -6032,13 +5848,13 @@
         <v>929</v>
       </c>
       <c r="E156" t="n">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F156" t="n">
-        <v>10.6833</v>
+        <v>5.7218</v>
       </c>
       <c r="G156" t="n">
-        <v>924.4833333333333</v>
+        <v>924.3666666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6070,10 +5886,10 @@
         <v>929</v>
       </c>
       <c r="F157" t="n">
-        <v>86.7127</v>
+        <v>10.6833</v>
       </c>
       <c r="G157" t="n">
-        <v>924.6166666666667</v>
+        <v>924.4833333333333</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6105,10 +5921,10 @@
         <v>929</v>
       </c>
       <c r="F158" t="n">
-        <v>67.09999999999999</v>
+        <v>86.7127</v>
       </c>
       <c r="G158" t="n">
-        <v>924.7666666666667</v>
+        <v>924.6166666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6140,10 +5956,10 @@
         <v>929</v>
       </c>
       <c r="F159" t="n">
-        <v>236.1988</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="G159" t="n">
-        <v>924.9</v>
+        <v>924.7666666666667</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6163,22 +5979,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C160" t="n">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D160" t="n">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E160" t="n">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F160" t="n">
-        <v>107.5268</v>
+        <v>236.1988</v>
       </c>
       <c r="G160" t="n">
-        <v>925.0333333333333</v>
+        <v>924.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6198,22 +6014,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="C161" t="n">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D161" t="n">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E161" t="n">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="F161" t="n">
-        <v>42.1626</v>
+        <v>107.5268</v>
       </c>
       <c r="G161" t="n">
-        <v>925.1333333333333</v>
+        <v>925.0333333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6245,10 +6061,10 @@
         <v>928</v>
       </c>
       <c r="F162" t="n">
-        <v>61.5496</v>
+        <v>42.1626</v>
       </c>
       <c r="G162" t="n">
-        <v>925.2333333333333</v>
+        <v>925.1333333333333</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6268,22 +6084,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C163" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D163" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E163" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F163" t="n">
-        <v>41.5987</v>
+        <v>61.5496</v>
       </c>
       <c r="G163" t="n">
-        <v>925.3166666666667</v>
+        <v>925.2333333333333</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6315,10 +6131,10 @@
         <v>927</v>
       </c>
       <c r="F164" t="n">
-        <v>320.3023</v>
+        <v>41.5987</v>
       </c>
       <c r="G164" t="n">
-        <v>925.4</v>
+        <v>925.3166666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6338,22 +6154,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C165" t="n">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D165" t="n">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E165" t="n">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F165" t="n">
-        <v>10.0783</v>
+        <v>320.3023</v>
       </c>
       <c r="G165" t="n">
-        <v>925.5</v>
+        <v>925.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6373,22 +6189,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C166" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D166" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="E166" t="n">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F166" t="n">
-        <v>6</v>
+        <v>10.0783</v>
       </c>
       <c r="G166" t="n">
-        <v>925.6</v>
+        <v>925.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6420,10 +6236,10 @@
         <v>927</v>
       </c>
       <c r="F167" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G167" t="n">
-        <v>925.6833333333333</v>
+        <v>925.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6443,22 +6259,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C168" t="n">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="D168" t="n">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="E168" t="n">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="F168" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G168" t="n">
-        <v>925.7166666666667</v>
+        <v>925.6833333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6478,22 +6294,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="C169" t="n">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="D169" t="n">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="E169" t="n">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="F169" t="n">
-        <v>67.4178</v>
+        <v>1</v>
       </c>
       <c r="G169" t="n">
-        <v>925.65</v>
+        <v>925.7166666666667</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6513,22 +6329,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="C170" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D170" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="E170" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="F170" t="n">
-        <v>15.8694</v>
+        <v>67.4178</v>
       </c>
       <c r="G170" t="n">
-        <v>925.55</v>
+        <v>925.65</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6548,22 +6364,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C171" t="n">
         <v>918</v>
       </c>
       <c r="D171" t="n">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E171" t="n">
         <v>918</v>
       </c>
       <c r="F171" t="n">
-        <v>804.8781</v>
+        <v>15.8694</v>
       </c>
       <c r="G171" t="n">
-        <v>925.45</v>
+        <v>925.55</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6583,22 +6399,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C172" t="n">
         <v>918</v>
       </c>
       <c r="D172" t="n">
+        <v>919</v>
+      </c>
+      <c r="E172" t="n">
         <v>918</v>
       </c>
-      <c r="E172" t="n">
-        <v>913</v>
-      </c>
       <c r="F172" t="n">
-        <v>4152.4291</v>
+        <v>804.8781</v>
       </c>
       <c r="G172" t="n">
-        <v>925.35</v>
+        <v>925.45</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6618,22 +6434,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C173" t="n">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D173" t="n">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E173" t="n">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="F173" t="n">
-        <v>1354.7248</v>
+        <v>4152.4291</v>
       </c>
       <c r="G173" t="n">
-        <v>925.2166666666667</v>
+        <v>925.35</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6653,22 +6469,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
+        <v>917</v>
+      </c>
+      <c r="C174" t="n">
         <v>916</v>
       </c>
-      <c r="C174" t="n">
-        <v>918</v>
-      </c>
       <c r="D174" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E174" t="n">
         <v>916</v>
       </c>
       <c r="F174" t="n">
-        <v>285.3538</v>
+        <v>1354.7248</v>
       </c>
       <c r="G174" t="n">
-        <v>925.1166666666667</v>
+        <v>925.2166666666667</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6688,22 +6504,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C175" t="n">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="D175" t="n">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="E175" t="n">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="F175" t="n">
-        <v>156.6499</v>
+        <v>285.3538</v>
       </c>
       <c r="G175" t="n">
-        <v>924.95</v>
+        <v>925.1166666666667</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6723,22 +6539,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C176" t="n">
         <v>914</v>
       </c>
       <c r="D176" t="n">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E176" t="n">
         <v>914</v>
       </c>
       <c r="F176" t="n">
-        <v>45.2898</v>
+        <v>156.6499</v>
       </c>
       <c r="G176" t="n">
-        <v>924.7833333333333</v>
+        <v>924.95</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6758,22 +6574,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C177" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="D177" t="n">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E177" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F177" t="n">
-        <v>56.5292</v>
+        <v>45.2898</v>
       </c>
       <c r="G177" t="n">
-        <v>924.6666666666666</v>
+        <v>924.7833333333333</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6793,22 +6609,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C178" t="n">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D178" t="n">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E178" t="n">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F178" t="n">
-        <v>596.5779</v>
+        <v>56.5292</v>
       </c>
       <c r="G178" t="n">
-        <v>924.5333333333333</v>
+        <v>924.6666666666666</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6828,22 +6644,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C179" t="n">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D179" t="n">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E179" t="n">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="F179" t="n">
-        <v>1463.2795</v>
+        <v>596.5779</v>
       </c>
       <c r="G179" t="n">
-        <v>924.4833333333333</v>
+        <v>924.5333333333333</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6863,22 +6679,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="C180" t="n">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D180" t="n">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E180" t="n">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>1463.2795</v>
       </c>
       <c r="G180" t="n">
-        <v>924.4166666666666</v>
+        <v>924.4833333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6898,22 +6714,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="C181" t="n">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="D181" t="n">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="E181" t="n">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="F181" t="n">
-        <v>1.1845</v>
+        <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>924.2833333333333</v>
+        <v>924.4166666666666</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6933,22 +6749,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C182" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D182" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E182" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F182" t="n">
-        <v>53.7697</v>
+        <v>1.1845</v>
       </c>
       <c r="G182" t="n">
-        <v>924.1166666666667</v>
+        <v>924.2833333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6980,10 +6796,10 @@
         <v>913</v>
       </c>
       <c r="F183" t="n">
-        <v>1246.0576</v>
+        <v>53.7697</v>
       </c>
       <c r="G183" t="n">
-        <v>923.95</v>
+        <v>924.1166666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7003,22 +6819,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C184" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D184" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E184" t="n">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F184" t="n">
-        <v>115.3873</v>
+        <v>1246.0576</v>
       </c>
       <c r="G184" t="n">
-        <v>923.75</v>
+        <v>923.95</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7038,22 +6854,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C185" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D185" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E185" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="F185" t="n">
-        <v>650.6028</v>
+        <v>115.3873</v>
       </c>
       <c r="G185" t="n">
-        <v>923.5333333333333</v>
+        <v>923.75</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7073,22 +6889,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C186" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D186" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E186" t="n">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F186" t="n">
-        <v>62.4773</v>
+        <v>650.6028</v>
       </c>
       <c r="G186" t="n">
-        <v>923.3666666666667</v>
+        <v>923.5333333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7108,22 +6924,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C187" t="n">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="D187" t="n">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="E187" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="F187" t="n">
-        <v>10.9725</v>
+        <v>62.4773</v>
       </c>
       <c r="G187" t="n">
-        <v>923.1333333333333</v>
+        <v>923.3666666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7146,19 +6962,19 @@
         <v>911</v>
       </c>
       <c r="C188" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D188" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E188" t="n">
         <v>911</v>
       </c>
       <c r="F188" t="n">
-        <v>729.1999</v>
+        <v>10.9725</v>
       </c>
       <c r="G188" t="n">
-        <v>922.9166666666666</v>
+        <v>923.1333333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7178,7 +6994,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C189" t="n">
         <v>914</v>
@@ -7187,13 +7003,13 @@
         <v>914</v>
       </c>
       <c r="E189" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="F189" t="n">
-        <v>52.9303</v>
+        <v>729.1999</v>
       </c>
       <c r="G189" t="n">
-        <v>922.7</v>
+        <v>922.9166666666666</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7225,10 +7041,10 @@
         <v>914</v>
       </c>
       <c r="F190" t="n">
-        <v>63.1087</v>
+        <v>52.9303</v>
       </c>
       <c r="G190" t="n">
-        <v>922.5166666666667</v>
+        <v>922.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7260,10 +7076,10 @@
         <v>914</v>
       </c>
       <c r="F191" t="n">
-        <v>839.45</v>
+        <v>63.1087</v>
       </c>
       <c r="G191" t="n">
-        <v>922.3</v>
+        <v>922.5166666666667</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7283,22 +7099,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C192" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D192" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E192" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F192" t="n">
-        <v>1530.0546</v>
+        <v>839.45</v>
       </c>
       <c r="G192" t="n">
-        <v>922.1333333333333</v>
+        <v>922.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7318,22 +7134,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="C193" t="n">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="D193" t="n">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="E193" t="n">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="F193" t="n">
-        <v>1119.562</v>
+        <v>1530.0546</v>
       </c>
       <c r="G193" t="n">
-        <v>921.9</v>
+        <v>922.1333333333333</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7353,22 +7169,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C194" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D194" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E194" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F194" t="n">
-        <v>1000</v>
+        <v>1119.562</v>
       </c>
       <c r="G194" t="n">
-        <v>921.6</v>
+        <v>921.9</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7388,22 +7204,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C195" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="D195" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E195" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F195" t="n">
-        <v>594.8886</v>
+        <v>1000</v>
       </c>
       <c r="G195" t="n">
-        <v>921.35</v>
+        <v>921.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7423,7 +7239,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C196" t="n">
         <v>914</v>
@@ -7432,13 +7248,13 @@
         <v>914</v>
       </c>
       <c r="E196" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F196" t="n">
-        <v>21.1609</v>
+        <v>594.8886</v>
       </c>
       <c r="G196" t="n">
-        <v>921.15</v>
+        <v>921.35</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7453,6 +7269,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>914</v>
+      </c>
+      <c r="C197" t="n">
+        <v>914</v>
+      </c>
+      <c r="D197" t="n">
+        <v>914</v>
+      </c>
+      <c r="E197" t="n">
+        <v>914</v>
+      </c>
+      <c r="F197" t="n">
+        <v>21.1609</v>
+      </c>
+      <c r="G197" t="n">
+        <v>921.15</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-25 BackTest OMG.xlsx
+++ b/BackTest/2019-10-25 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M197"/>
+  <dimension ref="A1:N207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>334.3888</v>
       </c>
       <c r="G2" t="n">
+        <v>911.9333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>902.7333333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,22 +491,21 @@
         <v>20.9</v>
       </c>
       <c r="G3" t="n">
+        <v>911.8</v>
+      </c>
+      <c r="H3" t="n">
         <v>903.5833333333334</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>907</v>
-      </c>
-      <c r="K3" t="n">
-        <v>907</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -522,660 +529,723 @@
         <v>705.6678000000001</v>
       </c>
       <c r="G4" t="n">
+        <v>911.6666666666666</v>
+      </c>
+      <c r="H4" t="n">
         <v>904.4666666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>913</v>
+      </c>
+      <c r="C5" t="n">
+        <v>909</v>
+      </c>
+      <c r="D5" t="n">
+        <v>913</v>
+      </c>
+      <c r="E5" t="n">
+        <v>909</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.397</v>
+      </c>
+      <c r="G5" t="n">
+        <v>911.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>905.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>908</v>
+      </c>
+      <c r="C6" t="n">
+        <v>912</v>
+      </c>
+      <c r="D6" t="n">
+        <v>912</v>
+      </c>
+      <c r="E6" t="n">
+        <v>908</v>
+      </c>
+      <c r="F6" t="n">
+        <v>69.7492</v>
+      </c>
+      <c r="G6" t="n">
+        <v>910.8666666666667</v>
+      </c>
+      <c r="H6" t="n">
+        <v>906.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>912</v>
+      </c>
+      <c r="C7" t="n">
+        <v>913</v>
+      </c>
+      <c r="D7" t="n">
+        <v>913</v>
+      </c>
+      <c r="E7" t="n">
+        <v>912</v>
+      </c>
+      <c r="F7" t="n">
+        <v>173.9691</v>
+      </c>
+      <c r="G7" t="n">
+        <v>910.7333333333333</v>
+      </c>
+      <c r="H7" t="n">
+        <v>907.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>913</v>
+      </c>
+      <c r="C8" t="n">
+        <v>913</v>
+      </c>
+      <c r="D8" t="n">
+        <v>913</v>
+      </c>
+      <c r="E8" t="n">
+        <v>913</v>
+      </c>
+      <c r="F8" t="n">
+        <v>703.4358999999999</v>
+      </c>
+      <c r="G8" t="n">
+        <v>910.8666666666667</v>
+      </c>
+      <c r="H8" t="n">
+        <v>908.05</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>912</v>
+      </c>
+      <c r="C9" t="n">
+        <v>912</v>
+      </c>
+      <c r="D9" t="n">
+        <v>912</v>
+      </c>
+      <c r="E9" t="n">
+        <v>912</v>
+      </c>
+      <c r="F9" t="n">
+        <v>395</v>
+      </c>
+      <c r="G9" t="n">
+        <v>911.0666666666667</v>
+      </c>
+      <c r="H9" t="n">
+        <v>908.95</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>912</v>
+      </c>
+      <c r="C10" t="n">
+        <v>912</v>
+      </c>
+      <c r="D10" t="n">
+        <v>912</v>
+      </c>
+      <c r="E10" t="n">
+        <v>912</v>
+      </c>
+      <c r="F10" t="n">
+        <v>300</v>
+      </c>
+      <c r="G10" t="n">
+        <v>911.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>909.85</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>912</v>
+      </c>
+      <c r="C11" t="n">
+        <v>908</v>
+      </c>
+      <c r="D11" t="n">
+        <v>912</v>
+      </c>
+      <c r="E11" t="n">
+        <v>908</v>
+      </c>
+      <c r="F11" t="n">
+        <v>500.9002</v>
+      </c>
+      <c r="G11" t="n">
+        <v>911.1333333333333</v>
+      </c>
+      <c r="H11" t="n">
+        <v>910.6833333333333</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>910</v>
+      </c>
+      <c r="C12" t="n">
+        <v>912</v>
+      </c>
+      <c r="D12" t="n">
+        <v>912</v>
+      </c>
+      <c r="E12" t="n">
+        <v>910</v>
+      </c>
+      <c r="F12" t="n">
+        <v>242.2733</v>
+      </c>
+      <c r="G12" t="n">
+        <v>911.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>911.55</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>908</v>
+      </c>
+      <c r="C13" t="n">
+        <v>908</v>
+      </c>
+      <c r="D13" t="n">
+        <v>908</v>
+      </c>
+      <c r="E13" t="n">
         <v>907</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="F13" t="n">
+        <v>460.9437</v>
+      </c>
+      <c r="G13" t="n">
+        <v>910.9333333333333</v>
+      </c>
+      <c r="H13" t="n">
+        <v>912.1166666666667</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>910</v>
+      </c>
+      <c r="C14" t="n">
+        <v>910</v>
+      </c>
+      <c r="D14" t="n">
+        <v>910</v>
+      </c>
+      <c r="E14" t="n">
+        <v>910</v>
+      </c>
+      <c r="F14" t="n">
+        <v>13.4069</v>
+      </c>
+      <c r="G14" t="n">
+        <v>910.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>912.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>908</v>
+      </c>
+      <c r="C15" t="n">
+        <v>905</v>
+      </c>
+      <c r="D15" t="n">
+        <v>908</v>
+      </c>
+      <c r="E15" t="n">
+        <v>905</v>
+      </c>
+      <c r="F15" t="n">
+        <v>210.6805</v>
+      </c>
+      <c r="G15" t="n">
+        <v>910.2666666666667</v>
+      </c>
+      <c r="H15" t="n">
+        <v>912</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>908</v>
+      </c>
+      <c r="C16" t="n">
+        <v>908</v>
+      </c>
+      <c r="D16" t="n">
+        <v>908</v>
+      </c>
+      <c r="E16" t="n">
+        <v>908</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>910.2666666666667</v>
+      </c>
+      <c r="H16" t="n">
+        <v>911.9666666666667</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>906</v>
+      </c>
+      <c r="C17" t="n">
+        <v>905</v>
+      </c>
+      <c r="D17" t="n">
+        <v>906</v>
+      </c>
+      <c r="E17" t="n">
+        <v>905</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1152.1454</v>
+      </c>
+      <c r="G17" t="n">
+        <v>910.1333333333333</v>
+      </c>
+      <c r="H17" t="n">
+        <v>911.95</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>905</v>
+      </c>
+      <c r="C18" t="n">
+        <v>905</v>
+      </c>
+      <c r="D18" t="n">
+        <v>905</v>
+      </c>
+      <c r="E18" t="n">
+        <v>905</v>
+      </c>
+      <c r="F18" t="n">
+        <v>48.7026</v>
+      </c>
+      <c r="G18" t="n">
+        <v>909.6666666666666</v>
+      </c>
+      <c r="H18" t="n">
+        <v>912.0666666666667</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>901</v>
+      </c>
+      <c r="C19" t="n">
+        <v>901</v>
+      </c>
+      <c r="D19" t="n">
+        <v>901</v>
+      </c>
+      <c r="E19" t="n">
+        <v>901</v>
+      </c>
+      <c r="F19" t="n">
+        <v>10.6538</v>
+      </c>
+      <c r="G19" t="n">
+        <v>908.8666666666667</v>
+      </c>
+      <c r="H19" t="n">
+        <v>912.0833333333334</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>906</v>
+      </c>
+      <c r="C20" t="n">
+        <v>908</v>
+      </c>
+      <c r="D20" t="n">
+        <v>908</v>
+      </c>
+      <c r="E20" t="n">
+        <v>906</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1662.974</v>
+      </c>
+      <c r="G20" t="n">
+        <v>908.8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>911.95</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>901</v>
+      </c>
+      <c r="L20" t="n">
+        <v>901</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>908</v>
+      </c>
+      <c r="C21" t="n">
+        <v>911</v>
+      </c>
+      <c r="D21" t="n">
+        <v>911</v>
+      </c>
+      <c r="E21" t="n">
+        <v>908</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2368.180751152579</v>
+      </c>
+      <c r="G21" t="n">
+        <v>908.7333333333333</v>
+      </c>
+      <c r="H21" t="n">
+        <v>911.9333333333333</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>908</v>
+      </c>
+      <c r="L21" t="n">
+        <v>901</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>913</v>
-      </c>
-      <c r="C5" t="n">
-        <v>909</v>
-      </c>
-      <c r="D5" t="n">
-        <v>913</v>
-      </c>
-      <c r="E5" t="n">
-        <v>909</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.397</v>
-      </c>
-      <c r="G5" t="n">
-        <v>905.3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>907</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>906</v>
+      </c>
+      <c r="C22" t="n">
+        <v>904</v>
+      </c>
+      <c r="D22" t="n">
+        <v>906</v>
+      </c>
+      <c r="E22" t="n">
+        <v>904</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1212.591</v>
+      </c>
+      <c r="G22" t="n">
+        <v>908.1333333333333</v>
+      </c>
+      <c r="H22" t="n">
+        <v>911.85</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>901</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>908</v>
-      </c>
-      <c r="C6" t="n">
-        <v>912</v>
-      </c>
-      <c r="D6" t="n">
-        <v>912</v>
-      </c>
-      <c r="E6" t="n">
-        <v>908</v>
-      </c>
-      <c r="F6" t="n">
-        <v>69.7492</v>
-      </c>
-      <c r="G6" t="n">
-        <v>906.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>912</v>
-      </c>
-      <c r="C7" t="n">
-        <v>913</v>
-      </c>
-      <c r="D7" t="n">
-        <v>913</v>
-      </c>
-      <c r="E7" t="n">
-        <v>912</v>
-      </c>
-      <c r="F7" t="n">
-        <v>173.9691</v>
-      </c>
-      <c r="G7" t="n">
-        <v>907.1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>913</v>
-      </c>
-      <c r="C8" t="n">
-        <v>913</v>
-      </c>
-      <c r="D8" t="n">
-        <v>913</v>
-      </c>
-      <c r="E8" t="n">
-        <v>913</v>
-      </c>
-      <c r="F8" t="n">
-        <v>703.4358999999999</v>
-      </c>
-      <c r="G8" t="n">
-        <v>908.05</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>912</v>
-      </c>
-      <c r="C9" t="n">
-        <v>912</v>
-      </c>
-      <c r="D9" t="n">
-        <v>912</v>
-      </c>
-      <c r="E9" t="n">
-        <v>912</v>
-      </c>
-      <c r="F9" t="n">
-        <v>395</v>
-      </c>
-      <c r="G9" t="n">
-        <v>908.95</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>912</v>
-      </c>
-      <c r="C10" t="n">
-        <v>912</v>
-      </c>
-      <c r="D10" t="n">
-        <v>912</v>
-      </c>
-      <c r="E10" t="n">
-        <v>912</v>
-      </c>
-      <c r="F10" t="n">
-        <v>300</v>
-      </c>
-      <c r="G10" t="n">
-        <v>909.85</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>912</v>
-      </c>
-      <c r="C11" t="n">
-        <v>908</v>
-      </c>
-      <c r="D11" t="n">
-        <v>912</v>
-      </c>
-      <c r="E11" t="n">
-        <v>908</v>
-      </c>
-      <c r="F11" t="n">
-        <v>500.9002</v>
-      </c>
-      <c r="G11" t="n">
-        <v>910.6833333333333</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>910</v>
-      </c>
-      <c r="C12" t="n">
-        <v>912</v>
-      </c>
-      <c r="D12" t="n">
-        <v>912</v>
-      </c>
-      <c r="E12" t="n">
-        <v>910</v>
-      </c>
-      <c r="F12" t="n">
-        <v>242.2733</v>
-      </c>
-      <c r="G12" t="n">
-        <v>911.55</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>908</v>
-      </c>
-      <c r="C13" t="n">
-        <v>908</v>
-      </c>
-      <c r="D13" t="n">
-        <v>908</v>
-      </c>
-      <c r="E13" t="n">
-        <v>907</v>
-      </c>
-      <c r="F13" t="n">
-        <v>460.9437</v>
-      </c>
-      <c r="G13" t="n">
-        <v>912.1166666666667</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>910</v>
-      </c>
-      <c r="C14" t="n">
-        <v>910</v>
-      </c>
-      <c r="D14" t="n">
-        <v>910</v>
-      </c>
-      <c r="E14" t="n">
-        <v>910</v>
-      </c>
-      <c r="F14" t="n">
-        <v>13.4069</v>
-      </c>
-      <c r="G14" t="n">
-        <v>912.1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>908</v>
-      </c>
-      <c r="C15" t="n">
-        <v>905</v>
-      </c>
-      <c r="D15" t="n">
-        <v>908</v>
-      </c>
-      <c r="E15" t="n">
-        <v>905</v>
-      </c>
-      <c r="F15" t="n">
-        <v>210.6805</v>
-      </c>
-      <c r="G15" t="n">
-        <v>912</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>908</v>
-      </c>
-      <c r="C16" t="n">
-        <v>908</v>
-      </c>
-      <c r="D16" t="n">
-        <v>908</v>
-      </c>
-      <c r="E16" t="n">
-        <v>908</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>911.9666666666667</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>906</v>
-      </c>
-      <c r="C17" t="n">
-        <v>905</v>
-      </c>
-      <c r="D17" t="n">
-        <v>906</v>
-      </c>
-      <c r="E17" t="n">
-        <v>905</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1152.1454</v>
-      </c>
-      <c r="G17" t="n">
-        <v>911.95</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>905</v>
-      </c>
-      <c r="C18" t="n">
-        <v>905</v>
-      </c>
-      <c r="D18" t="n">
-        <v>905</v>
-      </c>
-      <c r="E18" t="n">
-        <v>905</v>
-      </c>
-      <c r="F18" t="n">
-        <v>48.7026</v>
-      </c>
-      <c r="G18" t="n">
-        <v>912.0666666666667</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>901</v>
-      </c>
-      <c r="C19" t="n">
-        <v>901</v>
-      </c>
-      <c r="D19" t="n">
-        <v>901</v>
-      </c>
-      <c r="E19" t="n">
-        <v>901</v>
-      </c>
-      <c r="F19" t="n">
-        <v>10.6538</v>
-      </c>
-      <c r="G19" t="n">
-        <v>912.0833333333334</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>906</v>
-      </c>
-      <c r="C20" t="n">
-        <v>908</v>
-      </c>
-      <c r="D20" t="n">
-        <v>908</v>
-      </c>
-      <c r="E20" t="n">
-        <v>906</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1662.974</v>
-      </c>
-      <c r="G20" t="n">
-        <v>911.95</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>908</v>
-      </c>
-      <c r="C21" t="n">
-        <v>911</v>
-      </c>
-      <c r="D21" t="n">
-        <v>911</v>
-      </c>
-      <c r="E21" t="n">
-        <v>908</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2368.180751152579</v>
-      </c>
-      <c r="G21" t="n">
-        <v>911.9333333333333</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>906</v>
-      </c>
-      <c r="C22" t="n">
-        <v>904</v>
-      </c>
-      <c r="D22" t="n">
-        <v>906</v>
-      </c>
-      <c r="E22" t="n">
-        <v>904</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1212.591</v>
-      </c>
-      <c r="G22" t="n">
-        <v>911.85</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1199,18 +1269,25 @@
         <v>321.6396</v>
       </c>
       <c r="G23" t="n">
+        <v>907.8666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>911.8333333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>904</v>
+      </c>
+      <c r="L23" t="n">
+        <v>904</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1234,18 +1311,27 @@
         <v>2403.3304</v>
       </c>
       <c r="G24" t="n">
+        <v>907.8</v>
+      </c>
+      <c r="H24" t="n">
         <v>912</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>904</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1269,18 +1355,27 @@
         <v>2492.1152</v>
       </c>
       <c r="G25" t="n">
+        <v>907.7333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>912.1833333333333</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>904</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1304,18 +1399,21 @@
         <v>15.4</v>
       </c>
       <c r="G26" t="n">
+        <v>907.6</v>
+      </c>
+      <c r="H26" t="n">
         <v>912.1166666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1339,18 +1437,25 @@
         <v>318.2945</v>
       </c>
       <c r="G27" t="n">
+        <v>907.4666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>912.1</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>906</v>
+      </c>
+      <c r="L27" t="n">
+        <v>906</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,18 +1479,27 @@
         <v>577.9292</v>
       </c>
       <c r="G28" t="n">
+        <v>907.5333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>912.0833333333334</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>906</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1409,18 +1523,27 @@
         <v>20.5409</v>
       </c>
       <c r="G29" t="n">
+        <v>907.5333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>912</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>906</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1444,18 +1567,21 @@
         <v>1.5015</v>
       </c>
       <c r="G30" t="n">
+        <v>907.8</v>
+      </c>
+      <c r="H30" t="n">
         <v>911.8666666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1479,18 +1605,21 @@
         <v>268.9515</v>
       </c>
       <c r="G31" t="n">
+        <v>907.8666666666667</v>
+      </c>
+      <c r="H31" t="n">
         <v>911.7166666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1514,18 +1643,21 @@
         <v>291.2405</v>
       </c>
       <c r="G32" t="n">
+        <v>908.1333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>911.5666666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1549,18 +1681,21 @@
         <v>47.87</v>
       </c>
       <c r="G33" t="n">
+        <v>908.4</v>
+      </c>
+      <c r="H33" t="n">
         <v>911.4833333333333</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1584,18 +1719,21 @@
         <v>76.5609</v>
       </c>
       <c r="G34" t="n">
+        <v>908.9333333333333</v>
+      </c>
+      <c r="H34" t="n">
         <v>911.4833333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1619,18 +1757,21 @@
         <v>3001.1145</v>
       </c>
       <c r="G35" t="n">
+        <v>908.9333333333333</v>
+      </c>
+      <c r="H35" t="n">
         <v>911.4666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,18 +1795,21 @@
         <v>6.652</v>
       </c>
       <c r="G36" t="n">
+        <v>908.7333333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>911.35</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1689,18 +1833,21 @@
         <v>560</v>
       </c>
       <c r="G37" t="n">
+        <v>908.9333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>911.2</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,18 +1871,27 @@
         <v>1065.9493</v>
       </c>
       <c r="G38" t="n">
+        <v>908.8</v>
+      </c>
+      <c r="H38" t="n">
         <v>911.1</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>907</v>
+      </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1759,18 +1915,27 @@
         <v>10.3916</v>
       </c>
       <c r="G39" t="n">
+        <v>908.5333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>911.0666666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>907</v>
+      </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1794,18 +1959,27 @@
         <v>850.9275</v>
       </c>
       <c r="G40" t="n">
+        <v>908.1333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>910.9333333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>907</v>
+      </c>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,18 +2003,27 @@
         <v>69.9058</v>
       </c>
       <c r="G41" t="n">
+        <v>908.1333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>910.75</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>905</v>
+      </c>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1864,18 +2047,27 @@
         <v>55.0242</v>
       </c>
       <c r="G42" t="n">
+        <v>908.0666666666667</v>
+      </c>
+      <c r="H42" t="n">
         <v>910.6</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>906</v>
+      </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +2091,27 @@
         <v>77.7705</v>
       </c>
       <c r="G43" t="n">
+        <v>908.1333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>910.35</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>909</v>
+      </c>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,18 +2135,27 @@
         <v>3</v>
       </c>
       <c r="G44" t="n">
+        <v>908.2</v>
+      </c>
+      <c r="H44" t="n">
         <v>910.2166666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>910</v>
+      </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,18 +2179,27 @@
         <v>67.6558</v>
       </c>
       <c r="G45" t="n">
+        <v>908.3333333333334</v>
+      </c>
+      <c r="H45" t="n">
         <v>910.0333333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>911</v>
+      </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,18 +2223,27 @@
         <v>467.1938</v>
       </c>
       <c r="G46" t="n">
+        <v>908.4666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>909.8333333333334</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>911</v>
+      </c>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2039,18 +2267,27 @@
         <v>99.8319</v>
       </c>
       <c r="G47" t="n">
+        <v>908.9333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>909.7833333333333</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>911</v>
+      </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2074,18 +2311,27 @@
         <v>1088.9325</v>
       </c>
       <c r="G48" t="n">
+        <v>909.6</v>
+      </c>
+      <c r="H48" t="n">
         <v>909.8666666666667</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>916</v>
+      </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2109,18 +2355,27 @@
         <v>54.3354</v>
       </c>
       <c r="G49" t="n">
+        <v>909.9333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>909.85</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>919</v>
+      </c>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,18 +2399,27 @@
         <v>10.1891</v>
       </c>
       <c r="G50" t="n">
+        <v>910.2</v>
+      </c>
+      <c r="H50" t="n">
         <v>909.7833333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>914</v>
+      </c>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2179,18 +2443,27 @@
         <v>1.1458</v>
       </c>
       <c r="G51" t="n">
+        <v>910.5333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>909.7166666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>912</v>
+      </c>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,18 +2487,27 @@
         <v>220.187</v>
       </c>
       <c r="G52" t="n">
+        <v>911</v>
+      </c>
+      <c r="H52" t="n">
         <v>909.7</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>913</v>
+      </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2249,18 +2531,27 @@
         <v>225.9882</v>
       </c>
       <c r="G53" t="n">
+        <v>911.4666666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>909.75</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>914</v>
+      </c>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,18 +2575,27 @@
         <v>765.3292</v>
       </c>
       <c r="G54" t="n">
+        <v>911.8666666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>909.8166666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>914</v>
+      </c>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2319,18 +2619,27 @@
         <v>161.1</v>
       </c>
       <c r="G55" t="n">
+        <v>912.7333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>910</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>913</v>
+      </c>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,18 +2663,27 @@
         <v>3.2679</v>
       </c>
       <c r="G56" t="n">
+        <v>913.5333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>910.1</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>918</v>
+      </c>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2389,18 +2707,27 @@
         <v>773.8219</v>
       </c>
       <c r="G57" t="n">
+        <v>913.8</v>
+      </c>
+      <c r="H57" t="n">
         <v>910.1333333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>918</v>
+      </c>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2424,18 +2751,27 @@
         <v>107.1995</v>
       </c>
       <c r="G58" t="n">
+        <v>914.2666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>910.2166666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>913</v>
+      </c>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2459,20 +2795,27 @@
         <v>15.2583</v>
       </c>
       <c r="G59" t="n">
+        <v>914.7333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>910.3166666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>917</v>
+      </c>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2494,18 +2837,27 @@
         <v>1.0251</v>
       </c>
       <c r="G60" t="n">
+        <v>915.1333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>910.3833333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>917</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2529,18 +2881,27 @@
         <v>19</v>
       </c>
       <c r="G61" t="n">
+        <v>915.3333333333334</v>
+      </c>
+      <c r="H61" t="n">
         <v>910.4833333333333</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>917</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2564,18 +2925,25 @@
         <v>27.3453</v>
       </c>
       <c r="G62" t="n">
+        <v>915.2666666666667</v>
+      </c>
+      <c r="H62" t="n">
         <v>910.6166666666667</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>914</v>
+      </c>
+      <c r="L62" t="n">
+        <v>914</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2599,18 +2967,29 @@
         <v>593.72</v>
       </c>
       <c r="G63" t="n">
+        <v>915</v>
+      </c>
+      <c r="H63" t="n">
         <v>910.6666666666666</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>915</v>
+      </c>
+      <c r="L63" t="n">
+        <v>914</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2634,18 +3013,29 @@
         <v>1.0996</v>
       </c>
       <c r="G64" t="n">
+        <v>915</v>
+      </c>
+      <c r="H64" t="n">
         <v>910.6833333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1</v>
+      </c>
+      <c r="K64" t="n">
+        <v>915</v>
+      </c>
+      <c r="L64" t="n">
+        <v>914</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2669,18 +3059,25 @@
         <v>2.2101</v>
       </c>
       <c r="G65" t="n">
+        <v>915.1333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>910.7666666666667</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1</v>
+      </c>
+      <c r="K65" t="n">
+        <v>914</v>
+      </c>
+      <c r="L65" t="n">
+        <v>914</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2704,18 +3101,29 @@
         <v>1.6434</v>
       </c>
       <c r="G66" t="n">
+        <v>915.4</v>
+      </c>
+      <c r="H66" t="n">
         <v>910.85</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>914</v>
+      </c>
+      <c r="L66" t="n">
+        <v>914</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2739,18 +3147,27 @@
         <v>415.4007</v>
       </c>
       <c r="G67" t="n">
+        <v>915.4</v>
+      </c>
+      <c r="H67" t="n">
         <v>910.8666666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>914</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2774,18 +3191,27 @@
         <v>0.0001</v>
       </c>
       <c r="G68" t="n">
+        <v>915.4</v>
+      </c>
+      <c r="H68" t="n">
         <v>910.8833333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>914</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2809,18 +3235,27 @@
         <v>50.46</v>
       </c>
       <c r="G69" t="n">
+        <v>915.4666666666667</v>
+      </c>
+      <c r="H69" t="n">
         <v>910.9166666666666</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>914</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,18 +3279,27 @@
         <v>1</v>
       </c>
       <c r="G70" t="n">
+        <v>915.1333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>910.9333333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>914</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2879,18 +3323,27 @@
         <v>34.4471</v>
       </c>
       <c r="G71" t="n">
+        <v>914.8666666666667</v>
+      </c>
+      <c r="H71" t="n">
         <v>911.0333333333333</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>914</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2914,18 +3367,27 @@
         <v>16.5832</v>
       </c>
       <c r="G72" t="n">
+        <v>914.9333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>911.0666666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>914</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2949,18 +3411,27 @@
         <v>110.6412</v>
       </c>
       <c r="G73" t="n">
+        <v>914.7333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>911.1666666666666</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>914</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,18 +3455,27 @@
         <v>217.5863</v>
       </c>
       <c r="G74" t="n">
+        <v>914.4666666666667</v>
+      </c>
+      <c r="H74" t="n">
         <v>911.2333333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>1</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>914</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3019,18 +3499,29 @@
         <v>326.6428</v>
       </c>
       <c r="G75" t="n">
+        <v>914.4666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>911.4333333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>914</v>
+      </c>
+      <c r="L75" t="n">
+        <v>914</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,18 +3545,27 @@
         <v>85.271</v>
       </c>
       <c r="G76" t="n">
+        <v>914.7333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>911.6</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>914</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3089,18 +3589,27 @@
         <v>33.2106</v>
       </c>
       <c r="G77" t="n">
+        <v>914.9333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>911.8166666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>914</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,19 +3633,28 @@
         <v>2.2992</v>
       </c>
       <c r="G78" t="n">
+        <v>915.1333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>912.0333333333333</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>1</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
+      <c r="L78" t="n">
+        <v>914</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0.9993763676148796</v>
       </c>
     </row>
     <row r="79">
@@ -3159,18 +3677,21 @@
         <v>24.4816</v>
       </c>
       <c r="G79" t="n">
+        <v>915.4</v>
+      </c>
+      <c r="H79" t="n">
         <v>912.3166666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>1</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3194,18 +3715,21 @@
         <v>100</v>
       </c>
       <c r="G80" t="n">
+        <v>915.8</v>
+      </c>
+      <c r="H80" t="n">
         <v>912.5166666666667</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3229,18 +3753,21 @@
         <v>54.7259</v>
       </c>
       <c r="G81" t="n">
+        <v>916</v>
+      </c>
+      <c r="H81" t="n">
         <v>912.6666666666666</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3264,18 +3791,21 @@
         <v>73.99939999999999</v>
       </c>
       <c r="G82" t="n">
+        <v>916.4</v>
+      </c>
+      <c r="H82" t="n">
         <v>912.9333333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3299,18 +3829,21 @@
         <v>1687.8375</v>
       </c>
       <c r="G83" t="n">
+        <v>916.8</v>
+      </c>
+      <c r="H83" t="n">
         <v>913.1166666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,18 +3867,21 @@
         <v>364.2385</v>
       </c>
       <c r="G84" t="n">
+        <v>917.2</v>
+      </c>
+      <c r="H84" t="n">
         <v>913.2666666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,18 +3905,21 @@
         <v>42.024</v>
       </c>
       <c r="G85" t="n">
+        <v>917.6666666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>913.4166666666666</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,18 +3943,21 @@
         <v>3255.5567</v>
       </c>
       <c r="G86" t="n">
+        <v>918.0666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>913.65</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3439,18 +3981,21 @@
         <v>60.9948</v>
       </c>
       <c r="G87" t="n">
+        <v>918.4</v>
+      </c>
+      <c r="H87" t="n">
         <v>913.8</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3474,18 +4019,21 @@
         <v>1052.8699</v>
       </c>
       <c r="G88" t="n">
+        <v>918.7333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>913.9666666666667</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3509,18 +4057,21 @@
         <v>287.3061</v>
       </c>
       <c r="G89" t="n">
+        <v>919.2</v>
+      </c>
+      <c r="H89" t="n">
         <v>914.15</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3544,18 +4095,21 @@
         <v>2688.5745</v>
       </c>
       <c r="G90" t="n">
+        <v>919.5333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>914.3666666666667</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3579,18 +4133,21 @@
         <v>460.1522</v>
       </c>
       <c r="G91" t="n">
+        <v>919.8</v>
+      </c>
+      <c r="H91" t="n">
         <v>914.5833333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3614,18 +4171,21 @@
         <v>36.198</v>
       </c>
       <c r="G92" t="n">
+        <v>920</v>
+      </c>
+      <c r="H92" t="n">
         <v>914.7833333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3649,18 +4209,21 @@
         <v>1069.5</v>
       </c>
       <c r="G93" t="n">
+        <v>920.2666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>915</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,18 +4247,21 @@
         <v>528.7433</v>
       </c>
       <c r="G94" t="n">
+        <v>920.5333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>915.2166666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3719,18 +4285,21 @@
         <v>503</v>
       </c>
       <c r="G95" t="n">
+        <v>920.6666666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>915.45</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3754,18 +4323,21 @@
         <v>101</v>
       </c>
       <c r="G96" t="n">
+        <v>920.8</v>
+      </c>
+      <c r="H96" t="n">
         <v>915.6833333333333</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3789,18 +4361,21 @@
         <v>162.5124</v>
       </c>
       <c r="G97" t="n">
+        <v>920.9333333333333</v>
+      </c>
+      <c r="H97" t="n">
         <v>915.9333333333333</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3824,18 +4399,21 @@
         <v>61.6395</v>
       </c>
       <c r="G98" t="n">
+        <v>921</v>
+      </c>
+      <c r="H98" t="n">
         <v>916.1666666666666</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3859,18 +4437,21 @@
         <v>400</v>
       </c>
       <c r="G99" t="n">
+        <v>921</v>
+      </c>
+      <c r="H99" t="n">
         <v>916.3833333333333</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4475,21 @@
         <v>162.2199</v>
       </c>
       <c r="G100" t="n">
+        <v>921.0666666666667</v>
+      </c>
+      <c r="H100" t="n">
         <v>916.65</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4513,21 @@
         <v>628</v>
       </c>
       <c r="G101" t="n">
+        <v>921.2</v>
+      </c>
+      <c r="H101" t="n">
         <v>916.9166666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4551,21 @@
         <v>320.6</v>
       </c>
       <c r="G102" t="n">
+        <v>921.4</v>
+      </c>
+      <c r="H102" t="n">
         <v>917.1333333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4589,21 @@
         <v>421.3862</v>
       </c>
       <c r="G103" t="n">
+        <v>921.6</v>
+      </c>
+      <c r="H103" t="n">
         <v>917.3333333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4627,21 @@
         <v>18.4269</v>
       </c>
       <c r="G104" t="n">
+        <v>921.6666666666666</v>
+      </c>
+      <c r="H104" t="n">
         <v>917.5166666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4665,21 @@
         <v>51.3642</v>
       </c>
       <c r="G105" t="n">
+        <v>921.6666666666666</v>
+      </c>
+      <c r="H105" t="n">
         <v>917.7</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4703,21 @@
         <v>1530.3653</v>
       </c>
       <c r="G106" t="n">
+        <v>921.6666666666666</v>
+      </c>
+      <c r="H106" t="n">
         <v>917.8833333333333</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4741,21 @@
         <v>238.3739</v>
       </c>
       <c r="G107" t="n">
+        <v>921.6666666666666</v>
+      </c>
+      <c r="H107" t="n">
         <v>917.9666666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4779,21 @@
         <v>2629.5305</v>
       </c>
       <c r="G108" t="n">
+        <v>921.6666666666666</v>
+      </c>
+      <c r="H108" t="n">
         <v>918.0166666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4817,21 @@
         <v>506.3754</v>
       </c>
       <c r="G109" t="n">
+        <v>921.6666666666666</v>
+      </c>
+      <c r="H109" t="n">
         <v>918.15</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +4855,21 @@
         <v>252.2516</v>
       </c>
       <c r="G110" t="n">
+        <v>921.8</v>
+      </c>
+      <c r="H110" t="n">
         <v>918.35</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +4893,21 @@
         <v>685.9290999999999</v>
       </c>
       <c r="G111" t="n">
+        <v>921.9333333333333</v>
+      </c>
+      <c r="H111" t="n">
         <v>918.5333333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +4931,21 @@
         <v>330.1255</v>
       </c>
       <c r="G112" t="n">
+        <v>922.0666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>918.7</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +4969,21 @@
         <v>5.14</v>
       </c>
       <c r="G113" t="n">
+        <v>922.2666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>918.8666666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,18 +5007,21 @@
         <v>1.542</v>
       </c>
       <c r="G114" t="n">
+        <v>922.5333333333333</v>
+      </c>
+      <c r="H114" t="n">
         <v>919.05</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,18 +5045,21 @@
         <v>0.6609</v>
       </c>
       <c r="G115" t="n">
+        <v>922.7333333333333</v>
+      </c>
+      <c r="H115" t="n">
         <v>919.15</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,18 +5083,21 @@
         <v>40.9506</v>
       </c>
       <c r="G116" t="n">
+        <v>922.8666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>919.25</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4489,18 +5121,21 @@
         <v>386.9201</v>
       </c>
       <c r="G117" t="n">
+        <v>923</v>
+      </c>
+      <c r="H117" t="n">
         <v>919.4333333333333</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,18 +5159,21 @@
         <v>12.5538</v>
       </c>
       <c r="G118" t="n">
+        <v>923.1333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>919.55</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,18 +5197,21 @@
         <v>69.2608</v>
       </c>
       <c r="G119" t="n">
+        <v>923.2666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>919.65</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,18 +5235,21 @@
         <v>34.5234</v>
       </c>
       <c r="G120" t="n">
+        <v>923.2</v>
+      </c>
+      <c r="H120" t="n">
         <v>919.7166666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,18 +5273,21 @@
         <v>56.6564</v>
       </c>
       <c r="G121" t="n">
+        <v>923.0666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>919.8166666666667</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,18 +5311,21 @@
         <v>1505.8651</v>
       </c>
       <c r="G122" t="n">
+        <v>923</v>
+      </c>
+      <c r="H122" t="n">
         <v>919.9</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>1</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4699,18 +5349,21 @@
         <v>3.0867</v>
       </c>
       <c r="G123" t="n">
+        <v>923.0666666666667</v>
+      </c>
+      <c r="H123" t="n">
         <v>920.0333333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,18 +5387,21 @@
         <v>88.09310000000001</v>
       </c>
       <c r="G124" t="n">
+        <v>923.1333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>920.1833333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4769,18 +5425,21 @@
         <v>69.6919</v>
       </c>
       <c r="G125" t="n">
+        <v>923.1333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>920.35</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,18 +5463,21 @@
         <v>34.4604</v>
       </c>
       <c r="G126" t="n">
+        <v>923.1333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>920.4666666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4839,18 +5501,21 @@
         <v>114.0331</v>
       </c>
       <c r="G127" t="n">
+        <v>923.1333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>920.6333333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,18 +5539,21 @@
         <v>935.4804</v>
       </c>
       <c r="G128" t="n">
+        <v>923.2</v>
+      </c>
+      <c r="H128" t="n">
         <v>920.8166666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4909,18 +5577,21 @@
         <v>17.8654</v>
       </c>
       <c r="G129" t="n">
+        <v>923.4</v>
+      </c>
+      <c r="H129" t="n">
         <v>921.0333333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,18 +5615,21 @@
         <v>3.081</v>
       </c>
       <c r="G130" t="n">
+        <v>923.6</v>
+      </c>
+      <c r="H130" t="n">
         <v>921.2666666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,18 +5653,21 @@
         <v>910.2718</v>
       </c>
       <c r="G131" t="n">
+        <v>923.6666666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>921.45</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,18 +5691,21 @@
         <v>49.4798</v>
       </c>
       <c r="G132" t="n">
+        <v>923.8666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>921.6666666666666</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,18 +5729,21 @@
         <v>500</v>
       </c>
       <c r="G133" t="n">
+        <v>923.9333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>921.85</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,18 +5767,21 @@
         <v>7393.9857</v>
       </c>
       <c r="G134" t="n">
+        <v>923.9333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>922.0166666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,18 +5805,21 @@
         <v>52.5</v>
       </c>
       <c r="G135" t="n">
+        <v>924.4666666666667</v>
+      </c>
+      <c r="H135" t="n">
         <v>922.2166666666667</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,18 +5843,21 @@
         <v>1417.4007</v>
       </c>
       <c r="G136" t="n">
+        <v>925.0666666666667</v>
+      </c>
+      <c r="H136" t="n">
         <v>922.4</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,18 +5881,21 @@
         <v>450.005</v>
       </c>
       <c r="G137" t="n">
+        <v>925.4666666666667</v>
+      </c>
+      <c r="H137" t="n">
         <v>922.5333333333333</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,18 +5919,21 @@
         <v>2353.7674</v>
       </c>
       <c r="G138" t="n">
+        <v>925.4666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>922.6166666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,18 +5957,21 @@
         <v>34.1451</v>
       </c>
       <c r="G139" t="n">
+        <v>925.6</v>
+      </c>
+      <c r="H139" t="n">
         <v>922.7333333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,18 +5995,21 @@
         <v>444.66</v>
       </c>
       <c r="G140" t="n">
+        <v>925.7333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>922.8333333333334</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5329,18 +6033,21 @@
         <v>869.0667999999999</v>
       </c>
       <c r="G141" t="n">
+        <v>925.8666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>922.9333333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,18 +6071,21 @@
         <v>827.2886999999999</v>
       </c>
       <c r="G142" t="n">
+        <v>926</v>
+      </c>
+      <c r="H142" t="n">
         <v>923.0333333333333</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,18 +6109,21 @@
         <v>884.6762</v>
       </c>
       <c r="G143" t="n">
+        <v>926.0666666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>923.1333333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,18 +6147,21 @@
         <v>946.9595</v>
       </c>
       <c r="G144" t="n">
+        <v>925.9333333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>923.2166666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5469,18 +6185,21 @@
         <v>801.1521</v>
       </c>
       <c r="G145" t="n">
+        <v>925.8666666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>923.3166666666667</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,18 +6223,21 @@
         <v>606.7057</v>
       </c>
       <c r="G146" t="n">
+        <v>925.9333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>923.4166666666666</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,18 +6261,21 @@
         <v>179.2545</v>
       </c>
       <c r="G147" t="n">
+        <v>925.9333333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>923.55</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,18 +6299,21 @@
         <v>84.36750000000001</v>
       </c>
       <c r="G148" t="n">
+        <v>926.0666666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>923.6833333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5609,18 +6337,21 @@
         <v>480.5801</v>
       </c>
       <c r="G149" t="n">
+        <v>926.2666666666667</v>
+      </c>
+      <c r="H149" t="n">
         <v>923.7833333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,18 +6375,21 @@
         <v>664.1324</v>
       </c>
       <c r="G150" t="n">
+        <v>926.1333333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>923.8666666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5679,18 +6413,21 @@
         <v>63.4978</v>
       </c>
       <c r="G151" t="n">
+        <v>926</v>
+      </c>
+      <c r="H151" t="n">
         <v>923.95</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>1</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,18 +6451,21 @@
         <v>89.3</v>
       </c>
       <c r="G152" t="n">
+        <v>926.0666666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>924.05</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,18 +6489,21 @@
         <v>2.9925</v>
       </c>
       <c r="G153" t="n">
+        <v>926.1333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>924.0833333333334</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5784,18 +6527,21 @@
         <v>10.9637</v>
       </c>
       <c r="G154" t="n">
+        <v>926.2666666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>924.1666666666666</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5819,18 +6565,21 @@
         <v>3.061</v>
       </c>
       <c r="G155" t="n">
+        <v>926.3333333333334</v>
+      </c>
+      <c r="H155" t="n">
         <v>924.25</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,18 +6603,21 @@
         <v>5.7218</v>
       </c>
       <c r="G156" t="n">
+        <v>926.5333333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>924.3666666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5889,18 +6641,21 @@
         <v>10.6833</v>
       </c>
       <c r="G157" t="n">
+        <v>926.7333333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>924.4833333333333</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,18 +6679,21 @@
         <v>86.7127</v>
       </c>
       <c r="G158" t="n">
+        <v>926.9333333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>924.6166666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5959,18 +6717,21 @@
         <v>67.09999999999999</v>
       </c>
       <c r="G159" t="n">
+        <v>927.2</v>
+      </c>
+      <c r="H159" t="n">
         <v>924.7666666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5994,18 +6755,21 @@
         <v>236.1988</v>
       </c>
       <c r="G160" t="n">
+        <v>927.4</v>
+      </c>
+      <c r="H160" t="n">
         <v>924.9</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6029,18 +6793,21 @@
         <v>107.5268</v>
       </c>
       <c r="G161" t="n">
+        <v>927.6666666666666</v>
+      </c>
+      <c r="H161" t="n">
         <v>925.0333333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6064,18 +6831,21 @@
         <v>42.1626</v>
       </c>
       <c r="G162" t="n">
+        <v>927.7333333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>925.1333333333333</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6099,18 +6869,21 @@
         <v>61.5496</v>
       </c>
       <c r="G163" t="n">
+        <v>927.8</v>
+      </c>
+      <c r="H163" t="n">
         <v>925.2333333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6134,18 +6907,21 @@
         <v>41.5987</v>
       </c>
       <c r="G164" t="n">
+        <v>927.8</v>
+      </c>
+      <c r="H164" t="n">
         <v>925.3166666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6169,18 +6945,21 @@
         <v>320.3023</v>
       </c>
       <c r="G165" t="n">
+        <v>927.8</v>
+      </c>
+      <c r="H165" t="n">
         <v>925.4</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6204,18 +6983,21 @@
         <v>10.0783</v>
       </c>
       <c r="G166" t="n">
+        <v>927.8666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>925.5</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6239,18 +7021,21 @@
         <v>6</v>
       </c>
       <c r="G167" t="n">
+        <v>927.8666666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>925.6</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6274,18 +7059,21 @@
         <v>5</v>
       </c>
       <c r="G168" t="n">
+        <v>928.0666666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>925.6833333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6309,18 +7097,21 @@
         <v>1</v>
       </c>
       <c r="G169" t="n">
+        <v>927.8666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>925.7166666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6344,18 +7135,21 @@
         <v>67.4178</v>
       </c>
       <c r="G170" t="n">
+        <v>927.4</v>
+      </c>
+      <c r="H170" t="n">
         <v>925.65</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>1</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6379,18 +7173,21 @@
         <v>15.8694</v>
       </c>
       <c r="G171" t="n">
+        <v>926.6666666666666</v>
+      </c>
+      <c r="H171" t="n">
         <v>925.55</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6414,18 +7211,21 @@
         <v>804.8781</v>
       </c>
       <c r="G172" t="n">
+        <v>925.9333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>925.45</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6449,18 +7249,21 @@
         <v>4152.4291</v>
       </c>
       <c r="G173" t="n">
+        <v>925.2</v>
+      </c>
+      <c r="H173" t="n">
         <v>925.35</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6484,18 +7287,21 @@
         <v>1354.7248</v>
       </c>
       <c r="G174" t="n">
+        <v>924.3333333333334</v>
+      </c>
+      <c r="H174" t="n">
         <v>925.2166666666667</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>1</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6519,18 +7325,21 @@
         <v>285.3538</v>
       </c>
       <c r="G175" t="n">
+        <v>923.6</v>
+      </c>
+      <c r="H175" t="n">
         <v>925.1166666666667</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6554,18 +7363,21 @@
         <v>156.6499</v>
       </c>
       <c r="G176" t="n">
+        <v>922.5333333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>924.95</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6589,18 +7401,21 @@
         <v>45.2898</v>
       </c>
       <c r="G177" t="n">
+        <v>921.6</v>
+      </c>
+      <c r="H177" t="n">
         <v>924.7833333333333</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6624,18 +7439,21 @@
         <v>56.5292</v>
       </c>
       <c r="G178" t="n">
+        <v>920.8666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>924.6666666666666</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6659,18 +7477,21 @@
         <v>596.5779</v>
       </c>
       <c r="G179" t="n">
+        <v>920.1333333333333</v>
+      </c>
+      <c r="H179" t="n">
         <v>924.5333333333333</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6694,18 +7515,21 @@
         <v>1463.2795</v>
       </c>
       <c r="G180" t="n">
+        <v>919.5333333333333</v>
+      </c>
+      <c r="H180" t="n">
         <v>924.4833333333333</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6729,18 +7553,21 @@
         <v>1</v>
       </c>
       <c r="G181" t="n">
+        <v>918.7333333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>924.4166666666666</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6764,18 +7591,21 @@
         <v>1.1845</v>
       </c>
       <c r="G182" t="n">
+        <v>917.7333333333333</v>
+      </c>
+      <c r="H182" t="n">
         <v>924.2833333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6799,18 +7629,21 @@
         <v>53.7697</v>
       </c>
       <c r="G183" t="n">
+        <v>916.8</v>
+      </c>
+      <c r="H183" t="n">
         <v>924.1166666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6834,18 +7667,21 @@
         <v>1246.0576</v>
       </c>
       <c r="G184" t="n">
+        <v>916.0666666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>923.95</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6869,18 +7705,21 @@
         <v>115.3873</v>
       </c>
       <c r="G185" t="n">
+        <v>915.5333333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>923.75</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6904,18 +7743,21 @@
         <v>650.6028</v>
       </c>
       <c r="G186" t="n">
+        <v>915.0666666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>923.5333333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6939,18 +7781,21 @@
         <v>62.4773</v>
       </c>
       <c r="G187" t="n">
+        <v>914.8</v>
+      </c>
+      <c r="H187" t="n">
         <v>923.3666666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6974,18 +7819,21 @@
         <v>10.9725</v>
       </c>
       <c r="G188" t="n">
+        <v>914.3333333333334</v>
+      </c>
+      <c r="H188" t="n">
         <v>923.1333333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7009,18 +7857,21 @@
         <v>729.1999</v>
       </c>
       <c r="G189" t="n">
+        <v>914.2</v>
+      </c>
+      <c r="H189" t="n">
         <v>922.9166666666666</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7044,18 +7895,21 @@
         <v>52.9303</v>
       </c>
       <c r="G190" t="n">
+        <v>913.9333333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>922.7</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7079,18 +7933,21 @@
         <v>63.1087</v>
       </c>
       <c r="G191" t="n">
+        <v>913.9333333333333</v>
+      </c>
+      <c r="H191" t="n">
         <v>922.5166666666667</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7114,18 +7971,21 @@
         <v>839.45</v>
       </c>
       <c r="G192" t="n">
+        <v>913.9333333333333</v>
+      </c>
+      <c r="H192" t="n">
         <v>922.3</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7149,18 +8009,21 @@
         <v>1530.0546</v>
       </c>
       <c r="G193" t="n">
+        <v>913.8</v>
+      </c>
+      <c r="H193" t="n">
         <v>922.1333333333333</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7184,18 +8047,21 @@
         <v>1119.562</v>
       </c>
       <c r="G194" t="n">
+        <v>913.4</v>
+      </c>
+      <c r="H194" t="n">
         <v>921.9</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7219,18 +8085,21 @@
         <v>1000</v>
       </c>
       <c r="G195" t="n">
+        <v>912.9333333333333</v>
+      </c>
+      <c r="H195" t="n">
         <v>921.6</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7254,18 +8123,21 @@
         <v>594.8886</v>
       </c>
       <c r="G196" t="n">
+        <v>912.8</v>
+      </c>
+      <c r="H196" t="n">
         <v>921.35</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7289,18 +8161,401 @@
         <v>21.1609</v>
       </c>
       <c r="G197" t="n">
+        <v>912.9333333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>921.15</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>914</v>
+      </c>
+      <c r="C198" t="n">
+        <v>914</v>
+      </c>
+      <c r="D198" t="n">
+        <v>914</v>
+      </c>
+      <c r="E198" t="n">
+        <v>914</v>
+      </c>
+      <c r="F198" t="n">
+        <v>307.0677</v>
+      </c>
+      <c r="G198" t="n">
+        <v>913</v>
+      </c>
+      <c r="H198" t="n">
+        <v>921</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>914</v>
+      </c>
+      <c r="C199" t="n">
+        <v>914</v>
+      </c>
+      <c r="D199" t="n">
+        <v>914</v>
+      </c>
+      <c r="E199" t="n">
+        <v>914</v>
+      </c>
+      <c r="F199" t="n">
+        <v>753.2527</v>
+      </c>
+      <c r="G199" t="n">
+        <v>913.0666666666667</v>
+      </c>
+      <c r="H199" t="n">
+        <v>920.8166666666667</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>915</v>
+      </c>
+      <c r="C200" t="n">
+        <v>914</v>
+      </c>
+      <c r="D200" t="n">
+        <v>915</v>
+      </c>
+      <c r="E200" t="n">
+        <v>911</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1248.732</v>
+      </c>
+      <c r="G200" t="n">
+        <v>913.2</v>
+      </c>
+      <c r="H200" t="n">
+        <v>920.6166666666667</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>914</v>
+      </c>
+      <c r="C201" t="n">
+        <v>916</v>
+      </c>
+      <c r="D201" t="n">
+        <v>916</v>
+      </c>
+      <c r="E201" t="n">
+        <v>914</v>
+      </c>
+      <c r="F201" t="n">
+        <v>543.596</v>
+      </c>
+      <c r="G201" t="n">
+        <v>913.5333333333333</v>
+      </c>
+      <c r="H201" t="n">
+        <v>920.45</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>915</v>
+      </c>
+      <c r="C202" t="n">
+        <v>915</v>
+      </c>
+      <c r="D202" t="n">
+        <v>915</v>
+      </c>
+      <c r="E202" t="n">
+        <v>915</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G202" t="n">
+        <v>913.6</v>
+      </c>
+      <c r="H202" t="n">
+        <v>920.2666666666667</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>917</v>
+      </c>
+      <c r="C203" t="n">
+        <v>917</v>
+      </c>
+      <c r="D203" t="n">
+        <v>917</v>
+      </c>
+      <c r="E203" t="n">
+        <v>917</v>
+      </c>
+      <c r="F203" t="n">
+        <v>186.5757</v>
+      </c>
+      <c r="G203" t="n">
+        <v>914</v>
+      </c>
+      <c r="H203" t="n">
+        <v>920.1166666666667</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>917</v>
+      </c>
+      <c r="C204" t="n">
+        <v>917</v>
+      </c>
+      <c r="D204" t="n">
+        <v>917</v>
+      </c>
+      <c r="E204" t="n">
+        <v>917</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1889.2147</v>
+      </c>
+      <c r="G204" t="n">
+        <v>914.2</v>
+      </c>
+      <c r="H204" t="n">
+        <v>919.9833333333333</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>913</v>
+      </c>
+      <c r="C205" t="n">
+        <v>913</v>
+      </c>
+      <c r="D205" t="n">
+        <v>913</v>
+      </c>
+      <c r="E205" t="n">
+        <v>913</v>
+      </c>
+      <c r="F205" t="n">
+        <v>22.6449</v>
+      </c>
+      <c r="G205" t="n">
+        <v>914.1333333333333</v>
+      </c>
+      <c r="H205" t="n">
+        <v>919.7666666666667</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>913</v>
+      </c>
+      <c r="C206" t="n">
+        <v>913</v>
+      </c>
+      <c r="D206" t="n">
+        <v>913</v>
+      </c>
+      <c r="E206" t="n">
+        <v>913</v>
+      </c>
+      <c r="F206" t="n">
+        <v>36.5376</v>
+      </c>
+      <c r="G206" t="n">
+        <v>914.0666666666667</v>
+      </c>
+      <c r="H206" t="n">
+        <v>919.55</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>914</v>
+      </c>
+      <c r="C207" t="n">
+        <v>914</v>
+      </c>
+      <c r="D207" t="n">
+        <v>914</v>
+      </c>
+      <c r="E207" t="n">
+        <v>914</v>
+      </c>
+      <c r="F207" t="n">
+        <v>36.2151</v>
+      </c>
+      <c r="G207" t="n">
+        <v>914.0666666666667</v>
+      </c>
+      <c r="H207" t="n">
+        <v>919.3333333333334</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-25 BackTest OMG.xlsx
+++ b/BackTest/2019-10-25 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N265"/>
+  <dimension ref="A1:M265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>7372.811522039859</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>7370.865722039859</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="J3" t="n">
         <v>860</v>
       </c>
-      <c r="K3" t="n">
-        <v>860</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,23 @@
         <v>7334.143322039859</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>859</v>
       </c>
       <c r="J4" t="n">
-        <v>859</v>
-      </c>
-      <c r="K4" t="n">
         <v>860</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +562,23 @@
         <v>7381.37322203986</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="J5" t="n">
-        <v>858</v>
-      </c>
-      <c r="K5" t="n">
         <v>860</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +603,19 @@
         <v>7369.60262203986</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>859</v>
       </c>
       <c r="J6" t="n">
         <v>859</v>
       </c>
-      <c r="K6" t="n">
-        <v>859</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +640,23 @@
         <v>7453.20242203986</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>856</v>
       </c>
       <c r="J7" t="n">
-        <v>856</v>
-      </c>
-      <c r="K7" t="n">
         <v>859</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,26 +681,23 @@
         <v>7453.20242203986</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="J8" t="n">
-        <v>858</v>
-      </c>
-      <c r="K8" t="n">
         <v>859</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,22 +722,15 @@
         <v>7453.20242203986</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>858</v>
-      </c>
-      <c r="K9" t="n">
-        <v>858</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -788,26 +755,15 @@
         <v>9829.70242203986</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>858</v>
-      </c>
-      <c r="K10" t="n">
-        <v>858</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -832,26 +788,15 @@
         <v>13744.00162203986</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>860</v>
-      </c>
-      <c r="K11" t="n">
-        <v>858</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -878,22 +823,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>858</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -920,22 +856,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>858</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -962,22 +889,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>858</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1004,22 +922,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>858</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1046,22 +955,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>858</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1086,24 +986,15 @@
         <v>8909.335522039857</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>858</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1130,22 +1021,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>858</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1172,22 +1054,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>858</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1214,22 +1087,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>858</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1256,22 +1120,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>858</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1298,22 +1153,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>858</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1340,22 +1186,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>858</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1382,22 +1219,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>858</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1424,24 +1252,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>858</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1.056771561771562</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.004672897196262</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1468,16 +1285,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1504,16 +1318,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1540,16 +1351,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1576,16 +1384,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1612,16 +1417,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1648,16 +1450,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1684,16 +1483,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1720,16 +1516,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1756,16 +1549,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1792,16 +1582,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1828,16 +1615,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1864,16 +1648,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1900,16 +1681,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1936,16 +1714,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1972,16 +1747,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2006,18 +1778,15 @@
         <v>12369.78702203986</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2044,16 +1813,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2078,18 +1844,15 @@
         <v>8565.551122039858</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2116,16 +1879,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2152,16 +1912,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2188,16 +1945,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2224,16 +1978,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2260,16 +2011,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2296,16 +2044,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2332,16 +2077,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2368,16 +2110,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2404,16 +2143,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2440,16 +2176,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2476,16 +2209,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2512,16 +2242,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2548,16 +2275,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2584,16 +2308,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2620,16 +2341,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2656,16 +2374,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2692,16 +2407,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2728,16 +2440,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2764,16 +2473,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2800,16 +2506,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2836,16 +2539,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2872,16 +2572,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2908,16 +2605,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2944,16 +2638,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2980,16 +2671,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3016,16 +2704,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3052,16 +2737,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3088,16 +2770,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3124,16 +2803,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3160,16 +2836,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3196,16 +2869,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3232,16 +2902,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3268,16 +2935,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3304,16 +2968,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3340,16 +3001,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3376,16 +3034,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3412,16 +3067,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3448,16 +3100,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3484,16 +3133,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3520,16 +3166,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3556,16 +3199,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3592,16 +3232,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3628,16 +3265,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3664,16 +3298,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3700,16 +3331,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3736,16 +3364,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3772,16 +3397,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3808,16 +3430,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3844,16 +3463,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3880,16 +3496,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3916,16 +3529,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3952,16 +3562,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3988,16 +3595,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4024,16 +3628,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4060,16 +3661,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4096,16 +3694,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4132,16 +3727,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4168,16 +3760,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4204,16 +3793,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4240,16 +3826,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4276,16 +3859,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4312,16 +3892,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4348,16 +3925,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4384,16 +3958,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4418,18 +3989,15 @@
         <v>12297.12347319244</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4454,18 +4022,15 @@
         <v>12298.26927319244</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4490,18 +4055,15 @@
         <v>12518.45627319244</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4526,18 +4088,15 @@
         <v>12518.45627319244</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4562,18 +4121,15 @@
         <v>11753.12707319244</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4600,16 +4156,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4634,18 +4187,15 @@
         <v>11914.22707319244</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4672,16 +4222,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4706,18 +4253,15 @@
         <v>11247.60467319244</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4744,16 +4288,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4778,18 +4319,15 @@
         <v>11261.83787319244</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4814,18 +4352,15 @@
         <v>11242.83787319244</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4852,16 +4387,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4888,16 +4420,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4924,16 +4453,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4960,16 +4486,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4996,16 +4519,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5032,16 +4552,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5068,16 +4585,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5102,18 +4616,15 @@
         <v>10855.32627319244</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5138,18 +4649,15 @@
         <v>10854.32627319244</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5176,16 +4684,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5212,16 +4717,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5248,16 +4750,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5284,16 +4783,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5320,16 +4816,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5356,16 +4849,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5392,16 +4882,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5428,16 +4915,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5464,16 +4948,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5498,18 +4979,15 @@
         <v>11400.68717319244</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5534,18 +5012,15 @@
         <v>11400.68717319244</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5570,18 +5045,15 @@
         <v>11400.68717319244</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5606,18 +5078,15 @@
         <v>11400.68717319244</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5644,16 +5113,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5678,18 +5144,15 @@
         <v>11400.68717319244</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5716,16 +5179,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5752,16 +5212,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5788,16 +5245,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5822,18 +5276,15 @@
         <v>11626.99847319244</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5858,18 +5309,15 @@
         <v>14315.57297319244</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5896,16 +5344,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5930,18 +5375,15 @@
         <v>14279.37497319244</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5966,18 +5408,15 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6002,18 +5441,15 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6038,18 +5474,15 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6074,18 +5507,15 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6110,18 +5540,15 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6146,18 +5573,15 @@
         <v>15287.23547319244</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6184,16 +5608,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6220,16 +5641,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6256,16 +5674,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6290,18 +5705,15 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6326,18 +5738,15 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6362,18 +5771,15 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6398,18 +5804,15 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6434,18 +5837,15 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6470,18 +5870,15 @@
         <v>15439.08147319244</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6506,18 +5903,15 @@
         <v>18068.61197319244</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6542,18 +5936,15 @@
         <v>18068.61197319244</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6578,18 +5969,15 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6614,18 +6002,15 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6650,18 +6035,15 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6686,18 +6068,15 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6722,18 +6101,15 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6758,18 +6134,15 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6794,18 +6167,15 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6830,18 +6200,15 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6866,18 +6233,15 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6902,18 +6266,15 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6938,18 +6299,15 @@
         <v>18286.34017319244</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6974,18 +6332,15 @@
         <v>18229.68377319244</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7010,18 +6365,15 @@
         <v>18229.68377319244</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7046,18 +6398,15 @@
         <v>18232.77047319244</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7082,18 +6431,15 @@
         <v>18232.77047319244</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7118,18 +6464,15 @@
         <v>18302.46237319244</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7154,18 +6497,15 @@
         <v>18302.46237319244</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7190,18 +6530,15 @@
         <v>18302.46237319244</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7226,18 +6563,15 @@
         <v>19237.94277319244</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7262,18 +6596,15 @@
         <v>19255.80817319244</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7298,18 +6629,15 @@
         <v>19255.80817319244</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7334,18 +6662,15 @@
         <v>18345.53637319244</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7370,18 +6695,15 @@
         <v>18395.01617319244</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7406,18 +6728,15 @@
         <v>17895.01617319244</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7442,18 +6761,15 @@
         <v>10501.03047319244</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7478,18 +6794,15 @@
         <v>10553.53047319244</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7514,18 +6827,15 @@
         <v>10553.53047319244</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7550,18 +6860,15 @@
         <v>10103.52547319244</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7586,18 +6893,15 @@
         <v>7749.758073192441</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7622,18 +6926,15 @@
         <v>7783.903173192441</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7658,18 +6959,15 @@
         <v>8228.56317319244</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7694,18 +6992,15 @@
         <v>8228.56317319244</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7730,18 +7025,15 @@
         <v>8228.56317319244</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7766,18 +7058,15 @@
         <v>8228.56317319244</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7802,18 +7091,15 @@
         <v>7281.603673192441</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7840,16 +7126,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7876,16 +7159,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7912,16 +7192,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7948,16 +7225,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7984,16 +7258,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8018,18 +7289,15 @@
         <v>8262.010273192442</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8054,18 +7322,15 @@
         <v>8262.010273192442</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8092,16 +7357,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8126,18 +7388,15 @@
         <v>8259.017773192441</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8162,18 +7421,15 @@
         <v>8269.981473192442</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8200,16 +7456,13 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8236,16 +7489,13 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8270,18 +7520,15 @@
         <v>8275.703273192441</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8308,16 +7555,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8344,16 +7588,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8380,16 +7621,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8416,16 +7654,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8452,16 +7687,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8488,16 +7720,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8524,16 +7753,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8560,16 +7786,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8596,16 +7819,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8632,16 +7852,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8668,16 +7885,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8704,16 +7918,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8740,16 +7951,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8776,16 +7984,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8812,16 +8017,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8848,16 +8050,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8884,16 +8083,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8920,16 +8116,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8956,16 +8149,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8992,16 +8182,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9028,16 +8215,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9064,16 +8248,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9100,16 +8281,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9136,16 +8314,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9172,16 +8347,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9208,16 +8380,13 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9244,16 +8413,13 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9280,16 +8446,13 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9316,16 +8479,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9352,16 +8512,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9388,16 +8545,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9424,16 +8578,13 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9460,16 +8611,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9496,16 +8644,13 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9532,16 +8677,13 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9568,16 +8710,13 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9604,16 +8743,13 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9640,16 +8776,13 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9676,16 +8809,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9712,16 +8842,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9748,16 +8875,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9784,16 +8908,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9820,16 +8941,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9856,16 +8974,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9892,16 +9007,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9928,16 +9040,13 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9964,16 +9073,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10000,16 +9106,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10036,16 +9139,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10072,18 +9172,15 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest OMG.xlsx
+++ b/BackTest/2019-10-25 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>7372.811522039859</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>7370.865722039859</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>860</v>
@@ -521,7 +521,7 @@
         <v>7334.143322039859</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>859</v>
@@ -562,7 +562,7 @@
         <v>7381.37322203986</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>858</v>
@@ -603,7 +603,7 @@
         <v>7369.60262203986</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>859</v>
@@ -640,7 +640,7 @@
         <v>7453.20242203986</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>856</v>
@@ -681,7 +681,7 @@
         <v>7453.20242203986</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>858</v>
@@ -722,10 +722,14 @@
         <v>7453.20242203986</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>858</v>
+      </c>
+      <c r="J9" t="n">
+        <v>858</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -755,11 +759,19 @@
         <v>9829.70242203986</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>858</v>
+      </c>
+      <c r="J10" t="n">
+        <v>858</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -788,11 +800,19 @@
         <v>13744.00162203986</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>860</v>
+      </c>
+      <c r="J11" t="n">
+        <v>858</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -821,11 +841,19 @@
         <v>15052.80852203986</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>874</v>
+      </c>
+      <c r="J12" t="n">
+        <v>858</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -857,8 +885,14 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>858</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -890,8 +924,14 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>858</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -923,8 +963,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>858</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -956,8 +1002,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>858</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -986,11 +1038,17 @@
         <v>8909.335522039857</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>858</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1022,8 +1080,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>858</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1055,8 +1119,14 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>858</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1088,8 +1158,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>858</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1121,8 +1197,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>858</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1154,8 +1236,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>858</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1187,8 +1275,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>858</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1220,8 +1314,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>858</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1253,8 +1353,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>858</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1286,8 +1392,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>858</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1319,8 +1431,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>858</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1352,8 +1470,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>858</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1385,8 +1509,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>858</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1418,8 +1548,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>858</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1451,8 +1587,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>858</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1484,8 +1626,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>858</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1517,8 +1665,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>858</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1550,8 +1704,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>858</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1583,8 +1743,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>858</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1616,8 +1782,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>858</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1649,8 +1821,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>858</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1682,8 +1860,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>858</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1715,8 +1899,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>858</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1748,8 +1938,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>858</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1778,11 +1974,17 @@
         <v>12369.78702203986</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>858</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1814,8 +2016,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>858</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1844,11 +2052,17 @@
         <v>8565.551122039858</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>858</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1880,8 +2094,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>858</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1913,8 +2133,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>858</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1946,8 +2172,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>858</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1979,8 +2211,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>858</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2012,8 +2250,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>858</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2045,8 +2289,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>858</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2078,8 +2328,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>858</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2111,8 +2367,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>858</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2144,8 +2406,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>858</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2177,8 +2445,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>858</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2210,8 +2484,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>858</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2243,8 +2523,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>858</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2276,8 +2562,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>858</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2309,8 +2601,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>858</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2342,8 +2640,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>858</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2375,8 +2679,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>858</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2408,8 +2718,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>858</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2441,8 +2757,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>858</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2474,8 +2796,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>858</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2507,8 +2835,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>858</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2540,8 +2874,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>858</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2573,8 +2913,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>858</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2606,8 +2952,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>858</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2639,8 +2991,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>858</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2672,8 +3030,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>858</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2705,8 +3069,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>858</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2738,8 +3108,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>858</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2771,8 +3147,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>858</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2804,8 +3186,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>858</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2837,8 +3225,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>858</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2870,8 +3264,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>858</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2903,8 +3303,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>858</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2936,8 +3342,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>858</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2969,8 +3381,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>858</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3002,8 +3420,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>858</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3035,8 +3459,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>858</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3068,8 +3498,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>858</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3101,8 +3537,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>858</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3134,8 +3576,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>858</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3167,8 +3615,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>858</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3200,8 +3654,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>858</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3233,8 +3693,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>858</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3266,8 +3732,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>858</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3299,8 +3771,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>858</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3332,8 +3810,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>858</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3365,8 +3849,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>858</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3398,8 +3888,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>858</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3431,8 +3927,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>858</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3464,8 +3966,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>858</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3497,8 +4005,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>858</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3530,8 +4044,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>858</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3563,8 +4083,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>858</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3596,8 +4122,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>858</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3629,8 +4161,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>858</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3662,8 +4200,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>858</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3695,8 +4239,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>858</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3728,8 +4278,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>858</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3761,8 +4317,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>858</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3794,8 +4356,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>858</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3827,8 +4395,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>858</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3860,8 +4434,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>858</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3893,8 +4473,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>858</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3926,8 +4512,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>858</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3959,8 +4551,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>858</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3989,11 +4587,17 @@
         <v>12297.12347319244</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>858</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4022,11 +4626,17 @@
         <v>12298.26927319244</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>858</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4055,11 +4665,17 @@
         <v>12518.45627319244</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>858</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4088,11 +4704,17 @@
         <v>12518.45627319244</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>858</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4121,11 +4743,17 @@
         <v>11753.12707319244</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>858</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4157,8 +4785,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>858</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4187,11 +4821,17 @@
         <v>11914.22707319244</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>858</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4223,8 +4863,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>858</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4253,11 +4899,17 @@
         <v>11247.60467319244</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>858</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4289,8 +4941,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>858</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4319,11 +4977,17 @@
         <v>11261.83787319244</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>858</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4352,11 +5016,17 @@
         <v>11242.83787319244</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>858</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4388,8 +5058,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>858</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4421,8 +5097,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>858</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4454,8 +5136,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>858</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4487,8 +5175,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>858</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4520,8 +5214,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>858</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4553,8 +5253,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>858</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4583,15 +5289,23 @@
         <v>10855.32627319244</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>858</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>1.060268065268065</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1.004672897196262</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4616,7 +5330,7 @@
         <v>10855.32627319244</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4649,7 +5363,7 @@
         <v>10854.32627319244</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4682,7 +5396,7 @@
         <v>10888.77337319244</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4715,7 +5429,7 @@
         <v>10888.77337319244</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4748,7 +5462,7 @@
         <v>10888.77337319244</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4781,7 +5495,7 @@
         <v>10888.77337319244</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4814,7 +5528,7 @@
         <v>11215.41617319244</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4847,7 +5561,7 @@
         <v>11300.68717319244</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4880,7 +5594,7 @@
         <v>11300.68717319244</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4913,7 +5627,7 @@
         <v>11300.68717319244</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4946,7 +5660,7 @@
         <v>11300.68717319244</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4979,7 +5693,7 @@
         <v>11400.68717319244</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5012,7 +5726,7 @@
         <v>11400.68717319244</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5045,7 +5759,7 @@
         <v>11400.68717319244</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5078,7 +5792,7 @@
         <v>11400.68717319244</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5111,7 +5825,7 @@
         <v>11400.68717319244</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5144,7 +5858,7 @@
         <v>11400.68717319244</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5210,7 +5924,7 @@
         <v>11339.69237319244</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5243,7 +5957,7 @@
         <v>11339.69237319244</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5276,7 +5990,7 @@
         <v>11626.99847319244</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5309,7 +6023,7 @@
         <v>14315.57297319244</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5342,7 +6056,7 @@
         <v>14315.57297319244</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5375,7 +6089,7 @@
         <v>14279.37497319244</v>
       </c>
       <c r="H150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5408,7 +6122,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5441,7 +6155,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5474,7 +6188,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5507,7 +6221,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5540,7 +6254,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5573,7 +6287,7 @@
         <v>15287.23547319244</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5606,7 +6320,7 @@
         <v>14887.23547319244</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5639,7 +6353,7 @@
         <v>15049.45537319244</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5672,7 +6386,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5705,7 +6419,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5738,7 +6452,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5771,7 +6485,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5804,7 +6518,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5837,7 +6551,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5870,7 +6584,7 @@
         <v>15439.08147319244</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5903,7 +6617,7 @@
         <v>18068.61197319244</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5936,7 +6650,7 @@
         <v>18068.61197319244</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5969,7 +6683,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6002,7 +6716,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6035,7 +6749,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6068,7 +6782,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6101,7 +6815,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6134,7 +6848,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6167,7 +6881,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6200,7 +6914,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6233,7 +6947,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6266,7 +6980,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6299,7 +7013,7 @@
         <v>18286.34017319244</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6332,7 +7046,7 @@
         <v>18229.68377319244</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6365,7 +7079,7 @@
         <v>18229.68377319244</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6398,7 +7112,7 @@
         <v>18232.77047319244</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6431,7 +7145,7 @@
         <v>18232.77047319244</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6464,7 +7178,7 @@
         <v>18302.46237319244</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6497,7 +7211,7 @@
         <v>18302.46237319244</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6530,7 +7244,7 @@
         <v>18302.46237319244</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6563,7 +7277,7 @@
         <v>19237.94277319244</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6596,7 +7310,7 @@
         <v>19255.80817319244</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6629,7 +7343,7 @@
         <v>19255.80817319244</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6662,7 +7376,7 @@
         <v>18345.53637319244</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6695,7 +7409,7 @@
         <v>18395.01617319244</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6728,7 +7442,7 @@
         <v>17895.01617319244</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6761,7 +7475,7 @@
         <v>10501.03047319244</v>
       </c>
       <c r="H192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6794,7 +7508,7 @@
         <v>10553.53047319244</v>
       </c>
       <c r="H193" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6827,7 +7541,7 @@
         <v>10553.53047319244</v>
       </c>
       <c r="H194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6860,7 +7574,7 @@
         <v>10103.52547319244</v>
       </c>
       <c r="H195" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6893,7 +7607,7 @@
         <v>7749.758073192441</v>
       </c>
       <c r="H196" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6926,7 +7640,7 @@
         <v>7783.903173192441</v>
       </c>
       <c r="H197" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6959,7 +7673,7 @@
         <v>8228.56317319244</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6992,7 +7706,7 @@
         <v>8228.56317319244</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7025,7 +7739,7 @@
         <v>8228.56317319244</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7058,7 +7772,7 @@
         <v>8228.56317319244</v>
       </c>
       <c r="H201" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7091,7 +7805,7 @@
         <v>7281.603673192441</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7157,7 +7871,7 @@
         <v>8082.755773192441</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7256,7 +7970,7 @@
         <v>8262.010273192442</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7289,7 +8003,7 @@
         <v>8262.010273192442</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7322,7 +8036,7 @@
         <v>8262.010273192442</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7355,7 +8069,7 @@
         <v>8262.010273192442</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7388,7 +8102,7 @@
         <v>8259.017773192441</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7421,7 +8135,7 @@
         <v>8269.981473192442</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7454,7 +8168,7 @@
         <v>8269.981473192442</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7520,7 +8234,7 @@
         <v>8275.703273192441</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8015,7 +8729,7 @@
         <v>8219.259873192441</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8048,7 +8762,7 @@
         <v>8219.259873192441</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8081,7 +8795,7 @@
         <v>6864.535073192441</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8114,7 +8828,7 @@
         <v>7149.888873192441</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8147,7 +8861,7 @@
         <v>6993.23897319244</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8180,7 +8894,7 @@
         <v>6993.23897319244</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8213,7 +8927,7 @@
         <v>7049.76817319244</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8246,7 +8960,7 @@
         <v>6453.19027319244</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8279,7 +8993,7 @@
         <v>7916.469773192441</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8312,7 +9026,7 @@
         <v>7915.469773192441</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8345,7 +9059,7 @@
         <v>7914.28527319244</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8378,7 +9092,7 @@
         <v>7968.05497319244</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8741,7 +9455,7 @@
         <v>8393.262173192439</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8807,7 +9521,7 @@
         <v>9988.150773192439</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9181,6 +9895,6 @@
       <c r="M265" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest OMG.xlsx
+++ b/BackTest/2019-10-25 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -800,11 +800,9 @@
         <v>13744.00162203986</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>858</v>
       </c>
@@ -841,11 +839,9 @@
         <v>15052.80852203986</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>874</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>858</v>
       </c>
@@ -882,7 +878,7 @@
         <v>15052.80852203986</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
@@ -921,7 +917,7 @@
         <v>9215.789622039858</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
@@ -960,7 +956,7 @@
         <v>8681.738922039858</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
@@ -999,7 +995,7 @@
         <v>8577.732522039858</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
@@ -1038,7 +1034,7 @@
         <v>8909.335522039857</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
@@ -1077,7 +1073,7 @@
         <v>9338.839022039858</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
@@ -1116,7 +1112,7 @@
         <v>8280.616122039857</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
@@ -1155,7 +1151,7 @@
         <v>7770.616322039858</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
@@ -1194,7 +1190,7 @@
         <v>8283.593522039857</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
@@ -1202,13 +1198,15 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>1.055606060606061</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.004672897196262</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1233,17 +1231,11 @@
         <v>8019.093622039857</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>858</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1275,14 +1267,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>858</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1311,17 +1297,11 @@
         <v>6768.150422039856</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>858</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1350,17 +1330,11 @@
         <v>6983.824722039856</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>858</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1392,14 +1366,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>858</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1431,14 +1399,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>858</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1470,14 +1432,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>858</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1509,14 +1465,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>858</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1548,14 +1498,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>858</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1587,14 +1531,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>858</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1626,14 +1564,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>858</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1665,14 +1597,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>858</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1704,14 +1630,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>858</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1743,14 +1663,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>858</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1782,14 +1696,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>858</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1821,14 +1729,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>858</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1860,14 +1762,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>858</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1899,14 +1795,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>858</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1938,14 +1828,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>858</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1977,14 +1861,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>858</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2016,14 +1894,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>858</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2055,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>858</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2094,14 +1960,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>858</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2133,14 +1993,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>858</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2172,14 +2026,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>858</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2211,14 +2059,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>858</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2250,14 +2092,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>858</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2289,14 +2125,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>858</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2328,14 +2158,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>858</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2367,14 +2191,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>858</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2406,14 +2224,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>858</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2445,14 +2257,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>858</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2484,14 +2290,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>858</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2523,14 +2323,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>858</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2562,14 +2356,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>858</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2601,14 +2389,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>858</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2640,14 +2422,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>858</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2679,14 +2455,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>858</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2718,14 +2488,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>858</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2757,14 +2521,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>858</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2796,14 +2554,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>858</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2835,14 +2587,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>858</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2874,14 +2620,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>858</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2913,14 +2653,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>858</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2952,14 +2686,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>858</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2991,14 +2719,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>858</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3030,14 +2752,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>858</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3069,14 +2785,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>858</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3108,14 +2818,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>858</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3147,14 +2851,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>858</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3186,14 +2884,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>858</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3225,14 +2917,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>858</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3264,14 +2950,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>858</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3303,14 +2983,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>858</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3342,14 +3016,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>858</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3381,14 +3049,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>858</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3420,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>858</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3459,14 +3115,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>858</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3498,14 +3148,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>858</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3537,14 +3181,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>858</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3576,14 +3214,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>858</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3615,14 +3247,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>858</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3654,14 +3280,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>858</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3693,14 +3313,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>858</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3732,14 +3346,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>858</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3771,14 +3379,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>858</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3810,14 +3412,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>858</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3849,14 +3445,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>858</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3888,14 +3478,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>858</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3927,14 +3511,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>858</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3966,14 +3544,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>858</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4005,14 +3577,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>858</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4044,14 +3610,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>858</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4083,14 +3643,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>858</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4122,14 +3676,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>858</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4161,14 +3709,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>858</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4200,14 +3742,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>858</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4239,14 +3775,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>858</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4278,14 +3808,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>858</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4317,14 +3841,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>858</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4356,14 +3874,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>858</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4395,14 +3907,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>858</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4434,14 +3940,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>858</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4473,14 +3973,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>858</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4512,14 +4006,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>858</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4551,14 +4039,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>858</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4590,14 +4072,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>858</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4629,14 +4105,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>858</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4668,14 +4138,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>858</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4707,14 +4171,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>858</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4746,14 +4204,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>858</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4785,14 +4237,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>858</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4824,14 +4270,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>858</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4863,14 +4303,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>858</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4902,14 +4336,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>858</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4941,14 +4369,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>858</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4980,14 +4402,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>858</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5019,14 +4435,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>858</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5058,14 +4468,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>858</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5097,14 +4501,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>858</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5136,14 +4534,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>858</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5175,14 +4567,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>858</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5214,14 +4600,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>858</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5253,14 +4633,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>858</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5289,23 +4663,15 @@
         <v>10855.32627319244</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>858</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
-        <v>1.060268065268065</v>
-      </c>
-      <c r="M126" t="n">
-        <v>1.004672897196262</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5330,7 +4696,7 @@
         <v>10855.32627319244</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5363,7 +4729,7 @@
         <v>10854.32627319244</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5396,7 +4762,7 @@
         <v>10888.77337319244</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5429,7 +4795,7 @@
         <v>10888.77337319244</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5462,7 +4828,7 @@
         <v>10888.77337319244</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5495,7 +4861,7 @@
         <v>10888.77337319244</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5528,7 +4894,7 @@
         <v>11215.41617319244</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5561,7 +4927,7 @@
         <v>11300.68717319244</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5594,7 +4960,7 @@
         <v>11300.68717319244</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5627,7 +4993,7 @@
         <v>11300.68717319244</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5660,7 +5026,7 @@
         <v>11300.68717319244</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5693,7 +5059,7 @@
         <v>11400.68717319244</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5759,7 +5125,7 @@
         <v>11400.68717319244</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5792,7 +5158,7 @@
         <v>11400.68717319244</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5825,7 +5191,7 @@
         <v>11400.68717319244</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5858,7 +5224,7 @@
         <v>11400.68717319244</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5924,7 +5290,7 @@
         <v>11339.69237319244</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5957,7 +5323,7 @@
         <v>11339.69237319244</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5990,7 +5356,7 @@
         <v>11626.99847319244</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6023,7 +5389,7 @@
         <v>14315.57297319244</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6056,7 +5422,7 @@
         <v>14315.57297319244</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6089,7 +5455,7 @@
         <v>14279.37497319244</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6122,7 +5488,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6155,7 +5521,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6188,7 +5554,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6221,7 +5587,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6254,7 +5620,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6287,7 +5653,7 @@
         <v>15287.23547319244</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6320,7 +5686,7 @@
         <v>14887.23547319244</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6353,7 +5719,7 @@
         <v>15049.45537319244</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6386,7 +5752,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6419,7 +5785,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6452,7 +5818,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6485,7 +5851,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6518,7 +5884,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6551,7 +5917,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6584,7 +5950,7 @@
         <v>15439.08147319244</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6617,7 +5983,7 @@
         <v>18068.61197319244</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6650,7 +6016,7 @@
         <v>18068.61197319244</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6683,7 +6049,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6716,7 +6082,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6749,7 +6115,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6782,7 +6148,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6815,7 +6181,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6848,7 +6214,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6914,7 +6280,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -7112,7 +6478,7 @@
         <v>18232.77047319244</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7145,7 +6511,7 @@
         <v>18232.77047319244</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7244,7 +6610,7 @@
         <v>18302.46237319244</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7277,7 +6643,7 @@
         <v>19237.94277319244</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7310,7 +6676,7 @@
         <v>19255.80817319244</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7343,7 +6709,7 @@
         <v>19255.80817319244</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7442,7 +6808,7 @@
         <v>17895.01617319244</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7475,7 +6841,7 @@
         <v>10501.03047319244</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7541,7 +6907,7 @@
         <v>10553.53047319244</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7871,7 +7237,7 @@
         <v>8082.755773192441</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7970,7 +7336,7 @@
         <v>8262.010273192442</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8003,7 +7369,7 @@
         <v>8262.010273192442</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8036,7 +7402,7 @@
         <v>8262.010273192442</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8069,7 +7435,7 @@
         <v>8262.010273192442</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8102,7 +7468,7 @@
         <v>8259.017773192441</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8135,7 +7501,7 @@
         <v>8269.981473192442</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8168,7 +7534,7 @@
         <v>8269.981473192442</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8729,7 +8095,7 @@
         <v>8219.259873192441</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8762,7 +8128,7 @@
         <v>8219.259873192441</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8795,7 +8161,7 @@
         <v>6864.535073192441</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8828,7 +8194,7 @@
         <v>7149.888873192441</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8861,7 +8227,7 @@
         <v>6993.23897319244</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8894,7 +8260,7 @@
         <v>6993.23897319244</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8927,7 +8293,7 @@
         <v>7049.76817319244</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8960,7 +8326,7 @@
         <v>6453.19027319244</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8993,7 +8359,7 @@
         <v>7916.469773192441</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9026,7 +8392,7 @@
         <v>7915.469773192441</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9059,7 +8425,7 @@
         <v>7914.28527319244</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9092,7 +8458,7 @@
         <v>7968.05497319244</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9455,7 +8821,7 @@
         <v>8393.262173192439</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9521,7 +8887,7 @@
         <v>9988.150773192439</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9895,6 +9261,6 @@
       <c r="M265" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest OMG.xlsx
+++ b/BackTest/2019-10-25 BackTest OMG.xlsx
@@ -878,7 +878,7 @@
         <v>15052.80852203986</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
@@ -917,7 +917,7 @@
         <v>9215.789622039858</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
@@ -956,7 +956,7 @@
         <v>8681.738922039858</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
@@ -995,7 +995,7 @@
         <v>8577.732522039858</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
@@ -1034,7 +1034,7 @@
         <v>8909.335522039857</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
@@ -1073,7 +1073,7 @@
         <v>9338.839022039858</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
@@ -1112,7 +1112,7 @@
         <v>8280.616122039857</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
@@ -1151,7 +1151,7 @@
         <v>7770.616322039858</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
@@ -1190,7 +1190,7 @@
         <v>8283.593522039857</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
@@ -1198,15 +1198,13 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.055606060606061</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.004672897196262</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1231,11 +1229,17 @@
         <v>8019.093622039857</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>858</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1267,8 +1271,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>858</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1297,11 +1307,17 @@
         <v>6768.150422039856</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>858</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1330,11 +1346,17 @@
         <v>6983.824722039856</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>858</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1366,8 +1388,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>858</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1399,8 +1427,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>858</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1432,8 +1466,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>858</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1465,8 +1505,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>858</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1498,8 +1544,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>858</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1531,8 +1583,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>858</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1564,8 +1622,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>858</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1597,8 +1661,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>858</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1630,8 +1700,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>858</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1663,8 +1739,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>858</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1696,8 +1778,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>858</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1729,8 +1817,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>858</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1762,8 +1856,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>858</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1795,8 +1895,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>858</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1828,8 +1934,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>858</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1861,8 +1973,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>858</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1891,15 +2009,23 @@
         <v>7671.415622039858</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>858</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>1.066095571095571</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1.004672897196262</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1924,7 +2050,7 @@
         <v>8565.551122039858</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -4300,7 +4426,7 @@
         <v>11140.40517319244</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -5422,7 +5548,7 @@
         <v>14315.57297319244</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5455,7 +5581,7 @@
         <v>14279.37497319244</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5488,7 +5614,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5521,7 +5647,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5554,7 +5680,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5587,7 +5713,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5620,7 +5746,7 @@
         <v>15348.87497319244</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5653,7 +5779,7 @@
         <v>15287.23547319244</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5686,7 +5812,7 @@
         <v>14887.23547319244</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5719,7 +5845,7 @@
         <v>15049.45537319244</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5752,7 +5878,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5785,7 +5911,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5818,7 +5944,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5851,7 +5977,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5884,7 +6010,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5917,7 +6043,7 @@
         <v>15677.45537319244</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5950,7 +6076,7 @@
         <v>15439.08147319244</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5983,7 +6109,7 @@
         <v>18068.61197319244</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6016,7 +6142,7 @@
         <v>18068.61197319244</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6049,7 +6175,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6082,7 +6208,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6115,7 +6241,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6148,7 +6274,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6181,7 +6307,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6214,7 +6340,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6247,7 +6373,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6280,7 +6406,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6313,7 +6439,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6346,7 +6472,7 @@
         <v>18320.86357319244</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6379,7 +6505,7 @@
         <v>18286.34017319244</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6412,7 +6538,7 @@
         <v>18229.68377319244</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6445,7 +6571,7 @@
         <v>18229.68377319244</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6478,7 +6604,7 @@
         <v>18232.77047319244</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6511,7 +6637,7 @@
         <v>18232.77047319244</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6544,7 +6670,7 @@
         <v>18302.46237319244</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6577,7 +6703,7 @@
         <v>18302.46237319244</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6610,7 +6736,7 @@
         <v>18302.46237319244</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6643,7 +6769,7 @@
         <v>19237.94277319244</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6676,7 +6802,7 @@
         <v>19255.80817319244</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6709,7 +6835,7 @@
         <v>19255.80817319244</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6742,7 +6868,7 @@
         <v>18345.53637319244</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6775,7 +6901,7 @@
         <v>18395.01617319244</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6808,7 +6934,7 @@
         <v>17895.01617319244</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6841,7 +6967,7 @@
         <v>10501.03047319244</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6874,7 +7000,7 @@
         <v>10553.53047319244</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6907,7 +7033,7 @@
         <v>10553.53047319244</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6940,7 +7066,7 @@
         <v>10103.52547319244</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>

--- a/BackTest/2019-10-25 BackTest OMG.xlsx
+++ b/BackTest/2019-10-25 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M265"/>
+  <dimension ref="A1:L265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>231.0312</v>
       </c>
       <c r="G2" t="n">
-        <v>7372.811522039859</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>1.9458</v>
       </c>
       <c r="G3" t="n">
-        <v>7370.865722039859</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>860</v>
       </c>
       <c r="I3" t="n">
         <v>860</v>
       </c>
-      <c r="J3" t="n">
-        <v>860</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>36.7224</v>
       </c>
       <c r="G4" t="n">
-        <v>7334.143322039859</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>859</v>
       </c>
       <c r="I4" t="n">
-        <v>859</v>
-      </c>
-      <c r="J4" t="n">
         <v>860</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>47.2299</v>
       </c>
       <c r="G5" t="n">
-        <v>7381.37322203986</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>858</v>
       </c>
       <c r="I5" t="n">
-        <v>858</v>
-      </c>
-      <c r="J5" t="n">
         <v>860</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,19 @@
         <v>11.7706</v>
       </c>
       <c r="G6" t="n">
-        <v>7369.60262203986</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>859</v>
       </c>
       <c r="I6" t="n">
         <v>859</v>
       </c>
-      <c r="J6" t="n">
-        <v>859</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +617,23 @@
         <v>83.5998</v>
       </c>
       <c r="G7" t="n">
-        <v>7453.20242203986</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>856</v>
       </c>
       <c r="I7" t="n">
-        <v>856</v>
-      </c>
-      <c r="J7" t="n">
         <v>859</v>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +655,23 @@
         <v>653.9586</v>
       </c>
       <c r="G8" t="n">
-        <v>7453.20242203986</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>858</v>
       </c>
       <c r="I8" t="n">
-        <v>858</v>
-      </c>
-      <c r="J8" t="n">
         <v>859</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,22 +693,19 @@
         <v>182.59</v>
       </c>
       <c r="G9" t="n">
-        <v>7453.20242203986</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>858</v>
       </c>
       <c r="I9" t="n">
         <v>858</v>
       </c>
-      <c r="J9" t="n">
-        <v>858</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -756,26 +727,23 @@
         <v>2376.5</v>
       </c>
       <c r="G10" t="n">
-        <v>9829.70242203986</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>858</v>
       </c>
       <c r="I10" t="n">
         <v>858</v>
       </c>
-      <c r="J10" t="n">
-        <v>858</v>
-      </c>
-      <c r="K10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -797,24 +765,23 @@
         <v>3914.2992</v>
       </c>
       <c r="G11" t="n">
-        <v>13744.00162203986</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
+        <v>860</v>
+      </c>
+      <c r="I11" t="n">
         <v>858</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -836,24 +803,23 @@
         <v>1308.8069</v>
       </c>
       <c r="G12" t="n">
-        <v>15052.80852203986</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
+        <v>874</v>
+      </c>
+      <c r="I12" t="n">
         <v>858</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -875,24 +841,21 @@
         <v>3896.1539</v>
       </c>
       <c r="G13" t="n">
-        <v>15052.80852203986</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
         <v>858</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -914,24 +877,21 @@
         <v>5837.0189</v>
       </c>
       <c r="G14" t="n">
-        <v>9215.789622039858</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
         <v>858</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -953,24 +913,21 @@
         <v>534.0507</v>
       </c>
       <c r="G15" t="n">
-        <v>8681.738922039858</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
         <v>858</v>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -992,24 +949,21 @@
         <v>104.0064</v>
       </c>
       <c r="G16" t="n">
-        <v>8577.732522039858</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
         <v>858</v>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1031,24 +985,21 @@
         <v>331.603</v>
       </c>
       <c r="G17" t="n">
-        <v>8909.335522039857</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
         <v>858</v>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1070,24 +1021,21 @@
         <v>429.5035</v>
       </c>
       <c r="G18" t="n">
-        <v>9338.839022039858</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
         <v>858</v>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1109,24 +1057,21 @@
         <v>1058.2229</v>
       </c>
       <c r="G19" t="n">
-        <v>8280.616122039857</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
         <v>858</v>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1148,24 +1093,21 @@
         <v>509.9998</v>
       </c>
       <c r="G20" t="n">
-        <v>7770.616322039858</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
         <v>858</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1187,24 +1129,21 @@
         <v>512.9772</v>
       </c>
       <c r="G21" t="n">
-        <v>8283.593522039857</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
         <v>858</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1226,24 +1165,21 @@
         <v>264.4999</v>
       </c>
       <c r="G22" t="n">
-        <v>8019.093622039857</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
         <v>858</v>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1265,24 +1201,21 @@
         <v>2103.3553</v>
       </c>
       <c r="G23" t="n">
-        <v>5915.738322039857</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
         <v>858</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1304,24 +1237,21 @@
         <v>852.4121</v>
       </c>
       <c r="G24" t="n">
-        <v>6768.150422039856</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
         <v>858</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1343,24 +1273,21 @@
         <v>215.6743</v>
       </c>
       <c r="G25" t="n">
-        <v>6983.824722039856</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
         <v>858</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1382,24 +1309,21 @@
         <v>1356.7933</v>
       </c>
       <c r="G26" t="n">
-        <v>5627.031422039856</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
         <v>858</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1421,24 +1345,21 @@
         <v>38.433</v>
       </c>
       <c r="G27" t="n">
-        <v>5665.464422039856</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
         <v>858</v>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1460,24 +1381,21 @@
         <v>1608.4435</v>
       </c>
       <c r="G28" t="n">
-        <v>7273.907922039856</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
         <v>858</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1499,24 +1417,21 @@
         <v>4336.2177</v>
       </c>
       <c r="G29" t="n">
-        <v>11610.12562203986</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
         <v>858</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1538,24 +1453,21 @@
         <v>1297.65</v>
       </c>
       <c r="G30" t="n">
-        <v>11610.12562203986</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
         <v>858</v>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1577,24 +1489,21 @@
         <v>1514.0809</v>
       </c>
       <c r="G31" t="n">
-        <v>10096.04472203986</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
         <v>858</v>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1616,24 +1525,21 @@
         <v>2.5577</v>
       </c>
       <c r="G32" t="n">
-        <v>10093.48702203986</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
         <v>858</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1655,24 +1561,23 @@
         <v>280.1084</v>
       </c>
       <c r="G33" t="n">
-        <v>10093.48702203986</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
         <v>858</v>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
+      <c r="K33" t="n">
+        <v>1.054440559440559</v>
+      </c>
       <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>1.004672897196262</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1694,24 +1599,15 @@
         <v>124.5426</v>
       </c>
       <c r="G34" t="n">
-        <v>10218.02962203986</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>858</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1733,24 +1629,15 @@
         <v>1000</v>
       </c>
       <c r="G35" t="n">
-        <v>11218.02962203986</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>858</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1772,24 +1659,15 @@
         <v>22.9802</v>
       </c>
       <c r="G36" t="n">
-        <v>11195.04942203986</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>858</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1811,24 +1689,15 @@
         <v>249.0372</v>
       </c>
       <c r="G37" t="n">
-        <v>10946.01222203986</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>858</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1850,24 +1719,15 @@
         <v>529.8261</v>
       </c>
       <c r="G38" t="n">
-        <v>11475.83832203986</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>858</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1889,24 +1749,15 @@
         <v>30</v>
       </c>
       <c r="G39" t="n">
-        <v>11505.83832203986</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>858</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1928,24 +1779,15 @@
         <v>220</v>
       </c>
       <c r="G40" t="n">
-        <v>11725.83832203986</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>858</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1967,24 +1809,15 @@
         <v>643.9487</v>
       </c>
       <c r="G41" t="n">
-        <v>12369.78702203986</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>858</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2006,26 +1839,15 @@
         <v>4698.3714</v>
       </c>
       <c r="G42" t="n">
-        <v>7671.415622039858</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>858</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1.066095571095571</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.004672897196262</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2047,18 +1869,15 @@
         <v>894.1355</v>
       </c>
       <c r="G43" t="n">
-        <v>8565.551122039858</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2080,18 +1899,15 @@
         <v>333.9608</v>
       </c>
       <c r="G44" t="n">
-        <v>8899.511922039859</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2113,18 +1929,15 @@
         <v>833.3777</v>
       </c>
       <c r="G45" t="n">
-        <v>8066.134222039859</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2146,18 +1959,15 @@
         <v>380</v>
       </c>
       <c r="G46" t="n">
-        <v>7686.134222039859</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2179,18 +1989,15 @@
         <v>4.9349</v>
       </c>
       <c r="G47" t="n">
-        <v>7691.069122039859</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2212,18 +2019,15 @@
         <v>3665.8457</v>
       </c>
       <c r="G48" t="n">
-        <v>11356.91482203986</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2245,18 +2049,15 @@
         <v>21.5372</v>
       </c>
       <c r="G49" t="n">
-        <v>11378.45202203986</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2278,18 +2079,15 @@
         <v>4194.7218</v>
       </c>
       <c r="G50" t="n">
-        <v>7183.730222039861</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2311,18 +2109,15 @@
         <v>124.9</v>
       </c>
       <c r="G51" t="n">
-        <v>7058.830222039861</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2344,18 +2139,15 @@
         <v>14.2117</v>
       </c>
       <c r="G52" t="n">
-        <v>7044.618522039861</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2377,18 +2169,15 @@
         <v>1458.9248</v>
       </c>
       <c r="G53" t="n">
-        <v>5585.693722039861</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2410,18 +2199,15 @@
         <v>6167.1967</v>
       </c>
       <c r="G54" t="n">
-        <v>11752.89042203986</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2443,18 +2229,15 @@
         <v>118</v>
       </c>
       <c r="G55" t="n">
-        <v>11634.89042203986</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2476,18 +2259,15 @@
         <v>422.5</v>
       </c>
       <c r="G56" t="n">
-        <v>12057.39042203986</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2509,18 +2289,15 @@
         <v>134.9371</v>
       </c>
       <c r="G57" t="n">
-        <v>12057.39042203986</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2542,18 +2319,15 @@
         <v>971.6893</v>
       </c>
       <c r="G58" t="n">
-        <v>13029.07972203986</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2575,18 +2349,15 @@
         <v>1097.25</v>
       </c>
       <c r="G59" t="n">
-        <v>11931.82972203986</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2608,18 +2379,15 @@
         <v>334.3888</v>
       </c>
       <c r="G60" t="n">
-        <v>11597.44092203986</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2641,18 +2409,15 @@
         <v>20.9</v>
       </c>
       <c r="G61" t="n">
-        <v>11618.34092203986</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2674,18 +2439,15 @@
         <v>705.6678000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>12324.00872203986</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2707,18 +2469,15 @@
         <v>2.397</v>
       </c>
       <c r="G63" t="n">
-        <v>12321.61172203986</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2740,18 +2499,15 @@
         <v>69.7492</v>
       </c>
       <c r="G64" t="n">
-        <v>12391.36092203986</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2773,18 +2529,15 @@
         <v>173.9691</v>
       </c>
       <c r="G65" t="n">
-        <v>12565.33002203986</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2806,18 +2559,15 @@
         <v>703.4358999999999</v>
       </c>
       <c r="G66" t="n">
-        <v>12565.33002203986</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2839,18 +2589,15 @@
         <v>395</v>
       </c>
       <c r="G67" t="n">
-        <v>12170.33002203986</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2872,18 +2619,15 @@
         <v>300</v>
       </c>
       <c r="G68" t="n">
-        <v>12170.33002203986</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2905,18 +2649,15 @@
         <v>500.9002</v>
       </c>
       <c r="G69" t="n">
-        <v>11669.42982203986</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2938,18 +2679,15 @@
         <v>242.2733</v>
       </c>
       <c r="G70" t="n">
-        <v>11911.70312203986</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2971,18 +2709,15 @@
         <v>460.9437</v>
       </c>
       <c r="G71" t="n">
-        <v>11450.75942203986</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3004,18 +2739,15 @@
         <v>13.4069</v>
       </c>
       <c r="G72" t="n">
-        <v>11464.16632203986</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3037,18 +2769,15 @@
         <v>210.6805</v>
       </c>
       <c r="G73" t="n">
-        <v>11253.48582203986</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3070,18 +2799,15 @@
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>11254.48582203986</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3103,18 +2829,15 @@
         <v>1152.1454</v>
       </c>
       <c r="G75" t="n">
-        <v>10102.34042203986</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3136,18 +2859,15 @@
         <v>48.7026</v>
       </c>
       <c r="G76" t="n">
-        <v>10102.34042203986</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3169,18 +2889,15 @@
         <v>10.6538</v>
       </c>
       <c r="G77" t="n">
-        <v>10091.68662203986</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3202,18 +2919,15 @@
         <v>1662.974</v>
       </c>
       <c r="G78" t="n">
-        <v>11754.66062203986</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3235,18 +2949,15 @@
         <v>2368.180751152579</v>
       </c>
       <c r="G79" t="n">
-        <v>14122.84137319244</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3268,18 +2979,15 @@
         <v>1212.591</v>
       </c>
       <c r="G80" t="n">
-        <v>12910.25037319244</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3301,18 +3009,15 @@
         <v>321.6396</v>
       </c>
       <c r="G81" t="n">
-        <v>13231.88997319244</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3334,18 +3039,15 @@
         <v>2403.3304</v>
       </c>
       <c r="G82" t="n">
-        <v>15635.22037319244</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3367,18 +3069,15 @@
         <v>2492.1152</v>
       </c>
       <c r="G83" t="n">
-        <v>15635.22037319244</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3400,18 +3099,15 @@
         <v>15.4</v>
       </c>
       <c r="G84" t="n">
-        <v>15619.82037319244</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3433,18 +3129,15 @@
         <v>318.2945</v>
       </c>
       <c r="G85" t="n">
-        <v>15938.11487319244</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3466,18 +3159,15 @@
         <v>577.9292</v>
       </c>
       <c r="G86" t="n">
-        <v>15360.18567319244</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3499,18 +3189,15 @@
         <v>20.5409</v>
       </c>
       <c r="G87" t="n">
-        <v>15380.72657319244</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3532,18 +3219,15 @@
         <v>1.5015</v>
       </c>
       <c r="G88" t="n">
-        <v>15379.22507319244</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3565,18 +3249,15 @@
         <v>268.9515</v>
       </c>
       <c r="G89" t="n">
-        <v>15379.22507319244</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3598,18 +3279,15 @@
         <v>291.2405</v>
       </c>
       <c r="G90" t="n">
-        <v>15379.22507319244</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3631,18 +3309,15 @@
         <v>47.87</v>
       </c>
       <c r="G91" t="n">
-        <v>15379.22507319244</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3664,18 +3339,15 @@
         <v>76.5609</v>
       </c>
       <c r="G92" t="n">
-        <v>15379.22507319244</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3697,18 +3369,15 @@
         <v>3001.1145</v>
       </c>
       <c r="G93" t="n">
-        <v>12378.11057319244</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3730,18 +3399,15 @@
         <v>6.652</v>
       </c>
       <c r="G94" t="n">
-        <v>12378.11057319244</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3763,18 +3429,15 @@
         <v>560</v>
       </c>
       <c r="G95" t="n">
-        <v>11818.11057319244</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3796,18 +3459,15 @@
         <v>1065.9493</v>
       </c>
       <c r="G96" t="n">
-        <v>11818.11057319244</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3829,18 +3489,15 @@
         <v>10.3916</v>
       </c>
       <c r="G97" t="n">
-        <v>11818.11057319244</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3862,18 +3519,15 @@
         <v>850.9275</v>
       </c>
       <c r="G98" t="n">
-        <v>10967.18307319244</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3895,18 +3549,15 @@
         <v>69.9058</v>
       </c>
       <c r="G99" t="n">
-        <v>11037.08887319244</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3928,18 +3579,15 @@
         <v>55.0242</v>
       </c>
       <c r="G100" t="n">
-        <v>11092.11307319244</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3961,18 +3609,15 @@
         <v>77.7705</v>
       </c>
       <c r="G101" t="n">
-        <v>11169.88357319244</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3994,18 +3639,15 @@
         <v>3</v>
       </c>
       <c r="G102" t="n">
-        <v>11172.88357319244</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4027,18 +3669,15 @@
         <v>67.6558</v>
       </c>
       <c r="G103" t="n">
-        <v>11172.88357319244</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4060,18 +3699,15 @@
         <v>467.1938</v>
       </c>
       <c r="G104" t="n">
-        <v>11172.88357319244</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4093,18 +3729,15 @@
         <v>99.8319</v>
       </c>
       <c r="G105" t="n">
-        <v>11272.71547319244</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4126,18 +3759,15 @@
         <v>1088.9325</v>
       </c>
       <c r="G106" t="n">
-        <v>12361.64797319244</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4159,18 +3789,15 @@
         <v>54.3354</v>
       </c>
       <c r="G107" t="n">
-        <v>12307.31257319244</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4192,18 +3819,15 @@
         <v>10.1891</v>
       </c>
       <c r="G108" t="n">
-        <v>12297.12347319244</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4225,18 +3849,15 @@
         <v>1.1458</v>
       </c>
       <c r="G109" t="n">
-        <v>12298.26927319244</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4258,18 +3879,15 @@
         <v>220.187</v>
       </c>
       <c r="G110" t="n">
-        <v>12518.45627319244</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4291,18 +3909,15 @@
         <v>225.9882</v>
       </c>
       <c r="G111" t="n">
-        <v>12518.45627319244</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4324,18 +3939,15 @@
         <v>765.3292</v>
       </c>
       <c r="G112" t="n">
-        <v>11753.12707319244</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4357,18 +3969,15 @@
         <v>161.1</v>
       </c>
       <c r="G113" t="n">
-        <v>11914.22707319244</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4390,18 +3999,15 @@
         <v>3.2679</v>
       </c>
       <c r="G114" t="n">
-        <v>11914.22707319244</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4423,18 +4029,15 @@
         <v>773.8219</v>
       </c>
       <c r="G115" t="n">
-        <v>11140.40517319244</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4456,18 +4059,15 @@
         <v>107.1995</v>
       </c>
       <c r="G116" t="n">
-        <v>11247.60467319244</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4489,18 +4089,15 @@
         <v>15.2583</v>
       </c>
       <c r="G117" t="n">
-        <v>11262.86297319244</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4522,18 +4119,15 @@
         <v>1.0251</v>
       </c>
       <c r="G118" t="n">
-        <v>11261.83787319244</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4555,18 +4149,15 @@
         <v>19</v>
       </c>
       <c r="G119" t="n">
-        <v>11242.83787319244</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4588,18 +4179,15 @@
         <v>27.3453</v>
       </c>
       <c r="G120" t="n">
-        <v>11270.18317319244</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4621,18 +4209,15 @@
         <v>593.72</v>
       </c>
       <c r="G121" t="n">
-        <v>11270.18317319244</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4654,18 +4239,15 @@
         <v>1.0996</v>
       </c>
       <c r="G122" t="n">
-        <v>11269.08357319244</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4687,18 +4269,15 @@
         <v>2.2101</v>
       </c>
       <c r="G123" t="n">
-        <v>11269.08357319244</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4720,18 +4299,15 @@
         <v>1.6434</v>
       </c>
       <c r="G124" t="n">
-        <v>11270.72697319244</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4753,18 +4329,15 @@
         <v>415.4007</v>
       </c>
       <c r="G125" t="n">
-        <v>10855.32627319244</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4786,18 +4359,15 @@
         <v>0.0001</v>
       </c>
       <c r="G126" t="n">
-        <v>10855.32627319244</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4819,18 +4389,15 @@
         <v>50.46</v>
       </c>
       <c r="G127" t="n">
-        <v>10855.32627319244</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4852,18 +4419,15 @@
         <v>1</v>
       </c>
       <c r="G128" t="n">
-        <v>10854.32627319244</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4885,18 +4449,15 @@
         <v>34.4471</v>
       </c>
       <c r="G129" t="n">
-        <v>10888.77337319244</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4918,18 +4479,15 @@
         <v>16.5832</v>
       </c>
       <c r="G130" t="n">
-        <v>10888.77337319244</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4951,18 +4509,15 @@
         <v>110.6412</v>
       </c>
       <c r="G131" t="n">
-        <v>10888.77337319244</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4984,18 +4539,15 @@
         <v>217.5863</v>
       </c>
       <c r="G132" t="n">
-        <v>10888.77337319244</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5017,18 +4569,15 @@
         <v>326.6428</v>
       </c>
       <c r="G133" t="n">
-        <v>11215.41617319244</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5050,18 +4599,15 @@
         <v>85.271</v>
       </c>
       <c r="G134" t="n">
-        <v>11300.68717319244</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5083,18 +4629,15 @@
         <v>33.2106</v>
       </c>
       <c r="G135" t="n">
-        <v>11300.68717319244</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5116,18 +4659,15 @@
         <v>2.2992</v>
       </c>
       <c r="G136" t="n">
-        <v>11300.68717319244</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5149,18 +4689,15 @@
         <v>24.4816</v>
       </c>
       <c r="G137" t="n">
-        <v>11300.68717319244</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5182,18 +4719,15 @@
         <v>100</v>
       </c>
       <c r="G138" t="n">
-        <v>11400.68717319244</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5215,18 +4749,15 @@
         <v>54.7259</v>
       </c>
       <c r="G139" t="n">
-        <v>11400.68717319244</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5248,18 +4779,15 @@
         <v>73.99939999999999</v>
       </c>
       <c r="G140" t="n">
-        <v>11400.68717319244</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5281,18 +4809,15 @@
         <v>1687.8375</v>
       </c>
       <c r="G141" t="n">
-        <v>11400.68717319244</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5314,18 +4839,15 @@
         <v>364.2385</v>
       </c>
       <c r="G142" t="n">
-        <v>11400.68717319244</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5347,18 +4869,15 @@
         <v>42.024</v>
       </c>
       <c r="G143" t="n">
-        <v>11400.68717319244</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5380,18 +4899,15 @@
         <v>3255.5567</v>
       </c>
       <c r="G144" t="n">
-        <v>11400.68717319244</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5413,18 +4929,15 @@
         <v>60.9948</v>
       </c>
       <c r="G145" t="n">
-        <v>11339.69237319244</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5446,18 +4959,15 @@
         <v>1052.8699</v>
       </c>
       <c r="G146" t="n">
-        <v>11339.69237319244</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5479,18 +4989,15 @@
         <v>287.3061</v>
       </c>
       <c r="G147" t="n">
-        <v>11626.99847319244</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5512,18 +5019,15 @@
         <v>2688.5745</v>
       </c>
       <c r="G148" t="n">
-        <v>14315.57297319244</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5545,18 +5049,15 @@
         <v>460.1522</v>
       </c>
       <c r="G149" t="n">
-        <v>14315.57297319244</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5578,18 +5079,15 @@
         <v>36.198</v>
       </c>
       <c r="G150" t="n">
-        <v>14279.37497319244</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5611,18 +5109,15 @@
         <v>1069.5</v>
       </c>
       <c r="G151" t="n">
-        <v>15348.87497319244</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5644,18 +5139,15 @@
         <v>528.7433</v>
       </c>
       <c r="G152" t="n">
-        <v>15348.87497319244</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5677,18 +5169,15 @@
         <v>503</v>
       </c>
       <c r="G153" t="n">
-        <v>15348.87497319244</v>
-      </c>
-      <c r="H153" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5710,18 +5199,15 @@
         <v>101</v>
       </c>
       <c r="G154" t="n">
-        <v>15348.87497319244</v>
-      </c>
-      <c r="H154" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5743,18 +5229,15 @@
         <v>162.5124</v>
       </c>
       <c r="G155" t="n">
-        <v>15348.87497319244</v>
-      </c>
-      <c r="H155" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5776,18 +5259,15 @@
         <v>61.6395</v>
       </c>
       <c r="G156" t="n">
-        <v>15287.23547319244</v>
-      </c>
-      <c r="H156" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5809,18 +5289,15 @@
         <v>400</v>
       </c>
       <c r="G157" t="n">
-        <v>14887.23547319244</v>
-      </c>
-      <c r="H157" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5842,18 +5319,15 @@
         <v>162.2199</v>
       </c>
       <c r="G158" t="n">
-        <v>15049.45537319244</v>
-      </c>
-      <c r="H158" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5875,18 +5349,15 @@
         <v>628</v>
       </c>
       <c r="G159" t="n">
-        <v>15677.45537319244</v>
-      </c>
-      <c r="H159" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5908,18 +5379,15 @@
         <v>320.6</v>
       </c>
       <c r="G160" t="n">
-        <v>15677.45537319244</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5941,18 +5409,15 @@
         <v>421.3862</v>
       </c>
       <c r="G161" t="n">
-        <v>15677.45537319244</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5974,18 +5439,15 @@
         <v>18.4269</v>
       </c>
       <c r="G162" t="n">
-        <v>15677.45537319244</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6007,18 +5469,15 @@
         <v>51.3642</v>
       </c>
       <c r="G163" t="n">
-        <v>15677.45537319244</v>
-      </c>
-      <c r="H163" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6040,18 +5499,15 @@
         <v>1530.3653</v>
       </c>
       <c r="G164" t="n">
-        <v>15677.45537319244</v>
-      </c>
-      <c r="H164" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6073,18 +5529,15 @@
         <v>238.3739</v>
       </c>
       <c r="G165" t="n">
-        <v>15439.08147319244</v>
-      </c>
-      <c r="H165" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6106,18 +5559,15 @@
         <v>2629.5305</v>
       </c>
       <c r="G166" t="n">
-        <v>18068.61197319244</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6139,18 +5589,15 @@
         <v>506.3754</v>
       </c>
       <c r="G167" t="n">
-        <v>18068.61197319244</v>
-      </c>
-      <c r="H167" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6172,18 +5619,15 @@
         <v>252.2516</v>
       </c>
       <c r="G168" t="n">
-        <v>18320.86357319244</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6205,18 +5649,15 @@
         <v>685.9290999999999</v>
       </c>
       <c r="G169" t="n">
-        <v>18320.86357319244</v>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6238,18 +5679,15 @@
         <v>330.1255</v>
       </c>
       <c r="G170" t="n">
-        <v>18320.86357319244</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6271,18 +5709,15 @@
         <v>5.14</v>
       </c>
       <c r="G171" t="n">
-        <v>18320.86357319244</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6304,18 +5739,15 @@
         <v>1.542</v>
       </c>
       <c r="G172" t="n">
-        <v>18320.86357319244</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6337,18 +5769,15 @@
         <v>0.6609</v>
       </c>
       <c r="G173" t="n">
-        <v>18320.86357319244</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6370,18 +5799,15 @@
         <v>40.9506</v>
       </c>
       <c r="G174" t="n">
-        <v>18320.86357319244</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6403,18 +5829,15 @@
         <v>386.9201</v>
       </c>
       <c r="G175" t="n">
-        <v>18320.86357319244</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6436,18 +5859,15 @@
         <v>12.5538</v>
       </c>
       <c r="G176" t="n">
-        <v>18320.86357319244</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6469,18 +5889,15 @@
         <v>69.2608</v>
       </c>
       <c r="G177" t="n">
-        <v>18320.86357319244</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6502,18 +5919,15 @@
         <v>34.5234</v>
       </c>
       <c r="G178" t="n">
-        <v>18286.34017319244</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6535,18 +5949,15 @@
         <v>56.6564</v>
       </c>
       <c r="G179" t="n">
-        <v>18229.68377319244</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6568,18 +5979,15 @@
         <v>1505.8651</v>
       </c>
       <c r="G180" t="n">
-        <v>18229.68377319244</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6601,18 +6009,15 @@
         <v>3.0867</v>
       </c>
       <c r="G181" t="n">
-        <v>18232.77047319244</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6634,18 +6039,15 @@
         <v>88.09310000000001</v>
       </c>
       <c r="G182" t="n">
-        <v>18232.77047319244</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6667,18 +6069,15 @@
         <v>69.6919</v>
       </c>
       <c r="G183" t="n">
-        <v>18302.46237319244</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6700,18 +6099,15 @@
         <v>34.4604</v>
       </c>
       <c r="G184" t="n">
-        <v>18302.46237319244</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6733,18 +6129,15 @@
         <v>114.0331</v>
       </c>
       <c r="G185" t="n">
-        <v>18302.46237319244</v>
-      </c>
-      <c r="H185" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6766,18 +6159,15 @@
         <v>935.4804</v>
       </c>
       <c r="G186" t="n">
-        <v>19237.94277319244</v>
-      </c>
-      <c r="H186" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6799,18 +6189,15 @@
         <v>17.8654</v>
       </c>
       <c r="G187" t="n">
-        <v>19255.80817319244</v>
-      </c>
-      <c r="H187" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6832,18 +6219,15 @@
         <v>3.081</v>
       </c>
       <c r="G188" t="n">
-        <v>19255.80817319244</v>
-      </c>
-      <c r="H188" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6865,18 +6249,15 @@
         <v>910.2718</v>
       </c>
       <c r="G189" t="n">
-        <v>18345.53637319244</v>
-      </c>
-      <c r="H189" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6898,18 +6279,15 @@
         <v>49.4798</v>
       </c>
       <c r="G190" t="n">
-        <v>18395.01617319244</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6931,18 +6309,15 @@
         <v>500</v>
       </c>
       <c r="G191" t="n">
-        <v>17895.01617319244</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6964,18 +6339,15 @@
         <v>7393.9857</v>
       </c>
       <c r="G192" t="n">
-        <v>10501.03047319244</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6997,18 +6369,15 @@
         <v>52.5</v>
       </c>
       <c r="G193" t="n">
-        <v>10553.53047319244</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7030,18 +6399,15 @@
         <v>1417.4007</v>
       </c>
       <c r="G194" t="n">
-        <v>10553.53047319244</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7063,18 +6429,15 @@
         <v>450.005</v>
       </c>
       <c r="G195" t="n">
-        <v>10103.52547319244</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7096,18 +6459,15 @@
         <v>2353.7674</v>
       </c>
       <c r="G196" t="n">
-        <v>7749.758073192441</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7129,18 +6489,15 @@
         <v>34.1451</v>
       </c>
       <c r="G197" t="n">
-        <v>7783.903173192441</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7162,18 +6519,15 @@
         <v>444.66</v>
       </c>
       <c r="G198" t="n">
-        <v>8228.56317319244</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7195,18 +6549,15 @@
         <v>869.0667999999999</v>
       </c>
       <c r="G199" t="n">
-        <v>8228.56317319244</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7228,18 +6579,15 @@
         <v>827.2886999999999</v>
       </c>
       <c r="G200" t="n">
-        <v>8228.56317319244</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7261,18 +6609,15 @@
         <v>884.6762</v>
       </c>
       <c r="G201" t="n">
-        <v>8228.56317319244</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7294,18 +6639,15 @@
         <v>946.9595</v>
       </c>
       <c r="G202" t="n">
-        <v>7281.603673192441</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7327,18 +6669,15 @@
         <v>801.1521</v>
       </c>
       <c r="G203" t="n">
-        <v>8082.755773192441</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7360,18 +6699,15 @@
         <v>606.7057</v>
       </c>
       <c r="G204" t="n">
-        <v>8082.755773192441</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7393,18 +6729,15 @@
         <v>179.2545</v>
       </c>
       <c r="G205" t="n">
-        <v>8262.010273192442</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7426,18 +6759,15 @@
         <v>84.36750000000001</v>
       </c>
       <c r="G206" t="n">
-        <v>8262.010273192442</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7459,18 +6789,15 @@
         <v>480.5801</v>
       </c>
       <c r="G207" t="n">
-        <v>8262.010273192442</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7492,18 +6819,15 @@
         <v>664.1324</v>
       </c>
       <c r="G208" t="n">
-        <v>8262.010273192442</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7525,18 +6849,15 @@
         <v>63.4978</v>
       </c>
       <c r="G209" t="n">
-        <v>8262.010273192442</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7558,18 +6879,15 @@
         <v>89.3</v>
       </c>
       <c r="G210" t="n">
-        <v>8262.010273192442</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7591,18 +6909,15 @@
         <v>2.9925</v>
       </c>
       <c r="G211" t="n">
-        <v>8259.017773192441</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7624,18 +6939,15 @@
         <v>10.9637</v>
       </c>
       <c r="G212" t="n">
-        <v>8269.981473192442</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7657,18 +6969,15 @@
         <v>3.061</v>
       </c>
       <c r="G213" t="n">
-        <v>8269.981473192442</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7690,18 +6999,15 @@
         <v>5.7218</v>
       </c>
       <c r="G214" t="n">
-        <v>8275.703273192441</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7723,18 +7029,15 @@
         <v>10.6833</v>
       </c>
       <c r="G215" t="n">
-        <v>8275.703273192441</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7756,18 +7059,15 @@
         <v>86.7127</v>
       </c>
       <c r="G216" t="n">
-        <v>8275.703273192441</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7789,18 +7089,15 @@
         <v>67.09999999999999</v>
       </c>
       <c r="G217" t="n">
-        <v>8275.703273192441</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7822,18 +7119,15 @@
         <v>236.1988</v>
       </c>
       <c r="G218" t="n">
-        <v>8275.703273192441</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7855,18 +7149,15 @@
         <v>107.5268</v>
       </c>
       <c r="G219" t="n">
-        <v>8383.230073192441</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7888,18 +7179,15 @@
         <v>42.1626</v>
       </c>
       <c r="G220" t="n">
-        <v>8341.067473192441</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7921,18 +7209,15 @@
         <v>61.5496</v>
       </c>
       <c r="G221" t="n">
-        <v>8341.067473192441</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7954,18 +7239,15 @@
         <v>41.5987</v>
       </c>
       <c r="G222" t="n">
-        <v>8299.46877319244</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7987,18 +7269,15 @@
         <v>320.3023</v>
       </c>
       <c r="G223" t="n">
-        <v>8299.46877319244</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8020,18 +7299,15 @@
         <v>10.0783</v>
       </c>
       <c r="G224" t="n">
-        <v>8309.54707319244</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8053,18 +7329,15 @@
         <v>6</v>
       </c>
       <c r="G225" t="n">
-        <v>8303.54707319244</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8086,18 +7359,15 @@
         <v>5</v>
       </c>
       <c r="G226" t="n">
-        <v>8303.54707319244</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8119,18 +7389,15 @@
         <v>1</v>
       </c>
       <c r="G227" t="n">
-        <v>8302.54707319244</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8152,18 +7419,15 @@
         <v>67.4178</v>
       </c>
       <c r="G228" t="n">
-        <v>8235.12927319244</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8185,18 +7449,15 @@
         <v>15.8694</v>
       </c>
       <c r="G229" t="n">
-        <v>8219.259873192441</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8218,18 +7479,15 @@
         <v>804.8781</v>
       </c>
       <c r="G230" t="n">
-        <v>8219.259873192441</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8251,18 +7509,15 @@
         <v>4152.4291</v>
       </c>
       <c r="G231" t="n">
-        <v>8219.259873192441</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8284,18 +7539,15 @@
         <v>1354.7248</v>
       </c>
       <c r="G232" t="n">
-        <v>6864.535073192441</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8317,18 +7569,15 @@
         <v>285.3538</v>
       </c>
       <c r="G233" t="n">
-        <v>7149.888873192441</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8350,18 +7599,15 @@
         <v>156.6499</v>
       </c>
       <c r="G234" t="n">
-        <v>6993.23897319244</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8383,18 +7629,15 @@
         <v>45.2898</v>
       </c>
       <c r="G235" t="n">
-        <v>6993.23897319244</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8416,18 +7659,15 @@
         <v>56.5292</v>
       </c>
       <c r="G236" t="n">
-        <v>7049.76817319244</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8449,18 +7689,15 @@
         <v>596.5779</v>
       </c>
       <c r="G237" t="n">
-        <v>6453.19027319244</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8482,18 +7719,15 @@
         <v>1463.2795</v>
       </c>
       <c r="G238" t="n">
-        <v>7916.469773192441</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8515,18 +7749,15 @@
         <v>1</v>
       </c>
       <c r="G239" t="n">
-        <v>7915.469773192441</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8548,18 +7779,15 @@
         <v>1.1845</v>
       </c>
       <c r="G240" t="n">
-        <v>7914.28527319244</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8581,18 +7809,15 @@
         <v>53.7697</v>
       </c>
       <c r="G241" t="n">
-        <v>7968.05497319244</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8614,18 +7839,15 @@
         <v>1246.0576</v>
       </c>
       <c r="G242" t="n">
-        <v>7968.05497319244</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8647,18 +7869,15 @@
         <v>115.3873</v>
       </c>
       <c r="G243" t="n">
-        <v>7852.66767319244</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8680,18 +7899,15 @@
         <v>650.6028</v>
       </c>
       <c r="G244" t="n">
-        <v>7202.06487319244</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8713,18 +7929,15 @@
         <v>62.4773</v>
       </c>
       <c r="G245" t="n">
-        <v>7264.54217319244</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8746,18 +7959,15 @@
         <v>10.9725</v>
       </c>
       <c r="G246" t="n">
-        <v>7253.56967319244</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8779,18 +7989,15 @@
         <v>729.1999</v>
       </c>
       <c r="G247" t="n">
-        <v>7982.76957319244</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8812,18 +8019,15 @@
         <v>52.9303</v>
       </c>
       <c r="G248" t="n">
-        <v>7982.76957319244</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8845,18 +8049,15 @@
         <v>63.1087</v>
       </c>
       <c r="G249" t="n">
-        <v>7982.76957319244</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8878,18 +8079,15 @@
         <v>839.45</v>
       </c>
       <c r="G250" t="n">
-        <v>7982.76957319244</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8911,18 +8109,15 @@
         <v>1530.0546</v>
       </c>
       <c r="G251" t="n">
-        <v>9512.824173192439</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8944,18 +8139,15 @@
         <v>1119.562</v>
       </c>
       <c r="G252" t="n">
-        <v>8393.262173192439</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8977,18 +8169,15 @@
         <v>1000</v>
       </c>
       <c r="G253" t="n">
-        <v>9393.262173192439</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9010,18 +8199,15 @@
         <v>594.8886</v>
       </c>
       <c r="G254" t="n">
-        <v>9988.150773192439</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9043,18 +8229,15 @@
         <v>21.1609</v>
       </c>
       <c r="G255" t="n">
-        <v>9988.150773192439</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9076,18 +8259,15 @@
         <v>307.0677</v>
       </c>
       <c r="G256" t="n">
-        <v>9988.150773192439</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9109,18 +8289,15 @@
         <v>753.2527</v>
       </c>
       <c r="G257" t="n">
-        <v>9988.150773192439</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9142,18 +8319,15 @@
         <v>1248.732</v>
       </c>
       <c r="G258" t="n">
-        <v>9988.150773192439</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9175,18 +8349,15 @@
         <v>543.596</v>
       </c>
       <c r="G259" t="n">
-        <v>10531.74677319244</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9208,18 +8379,15 @@
         <v>1000</v>
       </c>
       <c r="G260" t="n">
-        <v>9531.746773192439</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9241,18 +8409,15 @@
         <v>186.5757</v>
       </c>
       <c r="G261" t="n">
-        <v>9718.322473192438</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9274,18 +8439,15 @@
         <v>1889.2147</v>
       </c>
       <c r="G262" t="n">
-        <v>9718.322473192438</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9307,18 +8469,15 @@
         <v>22.6449</v>
       </c>
       <c r="G263" t="n">
-        <v>9695.677573192439</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9340,18 +8499,15 @@
         <v>36.5376</v>
       </c>
       <c r="G264" t="n">
-        <v>9695.677573192439</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9373,18 +8529,15 @@
         <v>36.2151</v>
       </c>
       <c r="G265" t="n">
-        <v>9731.892673192438</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
